--- a/Base/Teams/Jets/Team Data.xlsx
+++ b/Base/Teams/Jets/Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>3 5 -4 5 7 -2 6 5 2 3 8 4 0 2 6 2 5 7 0 5 1 -2 8 4 -2 3 13 2 2 4 5 0 4 3 1 12 2 5 -1 3 10 6 5 2 -1 2 2 9 7 2 2 6 2 3 2 8 5 3 4 11 -1 8 1 2 3 6 10 2 3 4 4 -2 -1 3 8 3 46 -2 5 0 6 2 3 4 2 2 5 1 4 2 4 4 6 1 8 13 2 9 4 0 2 4 11 2 1 9 3 7 4 4 0 7 13 3 0 6 5 2 1 13 -1 7 5 3 5 1 3 0 -2 5 -1 4 3 6 -2 12 1 8 34 1 14 8 -3 0 8 11 4 7 2 7 0 8 2 -3 20 -1 1 5 9 2 2 13 -1 2 3 7 6 4 0 3 9 3 5 2 2 3 1 6 4 2 5 0 5 6 0 8 5 2 5 4 3 2 3 3 2 15 3 7 1 2 3 3 3 1 0 5 14 2 8 5 1 -1 3 5 0 0 11 3 4 6 5 2 2 1 4 6 2 1 6 6 3 5 6 1 5 2 1 3 3 4 1 1 4 14 17 0 1 2 10 1 2 2 2 9 1 9 0 0 0 2 25 7 1 6 14 5 7 12 0 5 12 18 6 17 16 5 7 4 4 5 2 2 1 1 3 1 1 11 4 6 0 1 -2 2 2 3 2 2 12 -3 9 -5 3 3 3 2 5 3 2 4 0 4 2 5 9 0 4 2 6 -4 3 6 3 3 2 1 0 8 2 3 12 2 7 3 8 4 0 6 1 0 6 3 2 14 5 11 7 2 6 5 7 3 5 1 6 -2 -1 3 4 3 7 9 6 4 1 4 2 4 4 9 3 4 7 3 3 3 1 8 10 1 0 1 4 15 1 5 2 8 5 5 4 2 3 2 1 1 2 6 2 2 0 2 2 1 1 1 9 2 12 8 13 3 6 1 3 7 3 3 -1 17 5 1 4 4 6 10 -3 4 -2 10 17 3 0 0 4 4 14 11 2 4 1 4 2 2 2 13 8 5 4 2 -7 3 2 1 4 1 2 -2 9 6 2 5 -1 5 -2 -2 2 2 6 13 0 2 8 5 2 -3 5 3 -3 2 7 3 5 4 9 3 7 8 0 6 1 1 1 2 1 3 5 5 0 5 1 3 6 3 1 6 -3 19 4 3 0 6 8 6 2 5 9 -1 1 8 4 4 3 2 5 5 18 2 -1 1 4 2 7 1 4 5 -2 5 3 16 3 2 0 5 3 4 4 4 3 1 11 9 4 5 5 15 6 5 4 -4 5 -2 -2 5 8 5 13 0 0 0 5 1 -1 7 5 39 -1 5 4 15 1 1 4 2 5 0 2 5 3 4 1 1 19 2 2 -2 8 -1 6 12 2 2 3 1 8 6 11 5 4 1 9 4 2 24 13 2 0 2 5 -3 1 1 1</t>
-  </si>
-  <si>
-    <t>0 9 13 30 4 4 21 5 -2 2 10 69 -5 2 9 7 6 7 1 8 18 9 9 7 3 8 8 5 5 11 1 18 1 13 5 0 27 2 4 8 5 30 5 21 3 4 11 16 19 8 9 28 6 16 3 9 5 -4 9 10 6 3 9 5 18 11 5 3 21 27 4 10 3 11 9 8 35 7 5 11 4 10 7 7 4 4 12 7 5 4 15 11 6 52 11 12 14 4 8 10 1 9 18 2 9 8 1 2 9 4 8 13 6 22 6 3 12 21 8 7 19 7 5 8 9 0 22 10 16 11 9 4 4 15 5 -2 1 27 13 5 15 8 1 5 -6 10 6 8 3 5 26 5 5 11 4 13 17 50 23 15 20 8 6 19 12 15 8 0 26 4 5 16 49 12 27 7 5 3 19 6 1 16 37 6 6 19 0 30 6 9 27 12 3 3 1 15 7 22 11 17 3 16 13 6 23 25 8 3 10 11 18 9 17 3 16 6 8 14 6 5 34 4 3 -2 9 12 5 8 6 5 18 4 7 5 2 0 10 11 21 22 4 14 5 16 24 2 6 13 17 9 9 43 11 5 12 7 25 30 14 5 2 5 0 11 8 10 0 20 6 4 15 6 11 18 15 12 21 53 10 9 2 5 11 12 9 8 8 7 35 10 14 10 8 -3 1 11 20 7 8 22 6 15 2 40 12 8 27 7 11 9 8 5 3 17 4 5 3 27 5 8 6 6 12 12 11 4 8 7 6 5 6 -5 14 5 3 22 7 4 10 23 4 13 13 9 -4 13 30 8 6 3 6 15 6 54 5 29 3 53 4 0 9 29 11 8 11 14 1 13 3 6 14 4 5 -6 7 23 27 8 15 11 6 10 20 12 13 7 -2 6 15 3 7 22 5 17 21 8 7 21 8 8 12 15 6 7 3 4 6 6 16 9 30 8 7 6 3 15 3 6 7 12 6 20 6 5 2 26 11 12 15 9 4 8 13 14 15 9 8 9 10 24 14 23 12 6 8 8 19 13 12 0 11 12 15 26 19 -5 18 26 7 19 20 10 19 -1 18 12 12 0 13 -3 14 12 5 22 12 10 14 6 8 4 11 4 6 7 3 3 2 9 10 4 21 18 14 28 19 14 12 11 11 6 9 -7 21 18 9 2 5 5 29 14 20 9 5 22 5 4 9 23 5 5 2 62 12 8 11 8 15 11 5 11 6 1 10 22 16 -3 46 3 7 -3</t>
-  </si>
-  <si>
-    <t>-3 12 6 9 2 4 16 0 -2 2 -4 -1 4 8 7 -1 3 3 0 12 -2 6 0 1 3 1 2 80 -2 0 6 -2 -3 1 -2 7 0 -3 5 2 6 55 -4 -1 3 5 -2 5 16 0 1 1 2 1 2 2 11 3 12 1 4 3 1 1 3 4 16 0 1 0 6 10 1 2 0 3 3 22 0 3 3 5 15 5 -1 2 0 0 3 3 9 4 1 -1 6 1 19 2 4 2 -1 0 2 2 2 0 -3 3 -3 43 1 4 0 16 3 29 -1 4 10 3 3 1 2 8 2 3 0 -1 7 8 7 1 2 2 10 5 2 5 -2 15 11 11 5 1 9 1 1 4 5 2 7 2 -1 4 5 9 -1 3 4 1 4 5 7 14 17 12 5 -2 10 3 2 11 6 2 7 6 0 2 1 26 5 1 1 6 6 2 0 3 2 4 1 4 -3 4 3 4 3 3 8 1 2 0 11 -2 2 12 3 0 5 1 1 3 5 10 12 -1 1 3 11 2 5 5 3 7 4 6 1 3 7 2 2 7 6 1 -4 2 3 21 2 0 1 4 5 4 1 -3 0 2 9 -3 4 2 3 1 17 4 1 -3 2 3 5 8 -1 3 2 -4 4 -4 4 4 3 3 4 -2 12 2 5 -3 9 3 16 8 4 1 2 4 12 3 1 8 5 2 4 1 1 5 3 1 -3 14 3 3 6 3 4 1 3 2 2 3 2 3 0 2 4 3 4 9 10 19 4 6 15 18 1 -1 1 2 5 5 6 -4 4 -1 4 28 8 0 5 1 2 4 2 0 1 0 15 5 0 -2 -1 2 3 6 9 4 1 -2 3 11 0 5 40 4 3 2 7 6 22 -1 0 2 -1 0 1 4 -2 1 4 1 5 16 6 2 4 3 13 49 3 10 3 -1 0 -1 4 2 5 6 3 5 4 5 5 9 2 8 2 7 12 1 9 1 2 -1 7 8 4 1 7 2 3 1 5 8 4 3 2 2 9 0 14 3 -6 7 15 0 18 4 1 -1 9 2 5 2 7 7 2 4 2 26 9 16 1 -1 1 5 -2 12 3 -1 -5 7 3 8 4 11 0 1 14 2 2 0 13 4 13 1 10 0 -1 3 2 -3 10 4 7 2 -1 1 -2 1 0 -2 9 2 2 6 -1 7 4 0 2 2 2 4 16 1 7 2 0 4 3 5 2 3 1 2 11 2 3 18 9 11 22 1 2 2 7 5 5 1 0 -4 10 1 6 1 3 9 0 3 1 4 0 8 4 3 17 0 5 2 1 4 1 1 3 -2 3 6 3 12 5 9 2 32 6 1 3 10 10 0 13 3 0 -2 15 5 2 4 9 6 3 -2 1 6 -1 -2 0 1 -1 -1 -1 1 6 8 0 -4 6 7 4 9 4 5 -1 9 4 34 2 3 12 3 13 21 1 3 6 0 1 9 11 2 5 2 0 3 25 10 78 1 0 0 15 0 -4 4 0 4 11 7 13 24 8 15 0 1 7 6 3 9 2 14 3 -1 0 1 -3 5 0 4 1 2 7 3 2 20 9 9 0 -3 6 4 0 2 2 4 3 4 6 3 3 6 0 5 1 4 7 1 1 3 7 2 7 4 3 1 3 4 30 2 -5 2 5 0 7 -1</t>
-  </si>
-  <si>
-    <t>3 5 4 9 17 11 5 20 4 11 5 4 8 11 8 17 7 7 0 5 8 13 -1 14 10 11 11 4 22 2 15 4 18 8 4 11 10 4 18 18 8 9 5 10 4 10 15 5 1 24 13 2 1 10 20 9 1 45 25 12 14 11 11 3 6 12 17 5 12 4 13 4 1 21 6 -2 7 7 48 40 11 9 3 8 6 13 9 7 7 10 7 31 6 8 21 6 12 15 6 15 9 24 24 7 5 30 10 11 7 13 6 2 7 8 45 10 5 6 8 6 4 10 10 16 3 -3 3 43 4 7 30 15 18 4 7 2 7 6 12 23 13 15 3 9 5 12 8 9 14 8 5 12 8 3 17 6 6 6 11 8 9 38 5 6 8 18 4 13 9 15 18 30 5 13 2 36 7 4 15 23 -3 18 5 3 -4 14 9 25 14 16 8 6 8 19 26 16 5 41 10 7 0 9 5 8 33 11 4 5 5 6 13 15 -1 7 20 8 0 6 1 10 11 8 4 19 31 11 5 20 2 17 -6 18 1 4 6 13 18 8 3 14 3 9 39 54 9 2 21 10 5 5 22 9 4 10 10 9 13 9 11 3 5 2 4 1 -1 2 12 12 8 5 22 5 11 7 6 5 19 17 13 19 13 4 25 10 7 7 6 15 7 2 18 12 9 3 28 28 9 6 4 17 13 14 4 38 18 8 19 9 3 1 12 6 7 29 5 15 46 14 19 13 10 15 5 9 3 8 6 9 4 20 3 9 7 3 10 17 19 3 10 14 3 6 6 11 0 15 5 16 -1 3 17 6 44 5 15 9 3 16 2 13 6 4 6 5 28 7 5 6 13 14 8 7 4 8 9 10 4 12 7 15 22 9 11 8 17 3 8 4 24 8 9 17 7 13 6 13 18 7 10 12 10 6 10 12 2 7 10 12 2 19 26 11 31 11 13 -5 8 1 9 26 5 27 15 11 57 14 4 5 11 22 17 1 7 12 7 3 -2 7 5 5 2 7 -1 2 28 19 3 24 -1 10 10 3 11 8 9 32 3 -1 1 6 10 8 5 28 6 17 6 9 27 6 21 -3 9 7 24 14 4 31 27 5 11 14 16 4 7 10 0 12 7 10 9 1 23 9 14 18 9 15 12 11 6 6 2 20 -6 5 9 12 0 3 16 -2 14 18 22 16 2 13 5 22 17 5 17 6 10 6 12 0 13 17 6 7 5 12 9 2 39 4 15 5 7 28 25 3 24 5 4 19 3 15 28 9 11 4 8 4 1 9 20 4 26 3 22 8 46 22 29 28 6 3 13 0 3 9 16 4 26 2 46 9 21 8 54 8 10 11 6 21 10 19 9 8 6 13 13 9 20 12 1 10 2 17 3 12 11 12 27 31 2 28 19 7 11 17 15 4 7 7 12 3 6 8 6 6 16 57 12 23 31 49 25 8 36 20 43 3 26 1 19 7 5 8 13 3 4 7 7 6 9 1 8 65 15 8 0 8 1 7 6 5 7 6 6 8 20 13 1 20 40 10 11 5 4 -4 4 7 2 6 5</t>
+    <t>3 5 -4 5 7 -2 6 5 2 3 8 4 0 2 6 2 5 7 0 5 1 -2 8 4 -2 3 13 2 2 4 5 0 4 3 1 12 2 5 -1 3 10 6 5 2 -1 2 2 9 7 2 2 6 2 3 2 8 5 3 4 11 -1 8 1 2 3 6 10 2 3 4 4 -2 -1 3 8 3 46 -2 5 0 6 2 3 4 2 2 5 1 4 2 4 4 6 1 8 13 2 9 4 0 2 4 11 2 1 9 3 7 4 4 0 7 13 3 0 6 5 2 1 13 -1 7 5 3 5 1 3 0 -2 5 -1 4 3 6 -2 12 1 8 34 1 14 8 -3 0 8 11 4 7 2 7 0 8 2 -3 20 -1 1 5 9 2 2 13 -1 2 3 7 6 4 0 3 9 3 5 2 2 3 1 6 4 2 5 0 5 6 0 8 5 2 5 4 3 2 3 3 2 15 3 7 1 2 3 3 3 1 0 5 14 2 8 5 1 -1 3 5 0 0 11 3 4 6 5 2 2 1 4 6 2 1 6 6 3 5 6 1 5 2 1 3 3 4 1 1 4 14 17 0 1 2 10 1 2 2 2 9 1 9 0 0 0 2 25 7 1 6 14 5 7 12 0 5 12 18 6 17 16 5 7 4 4 5 2 2 1 1 3 1 1 11 4 6 0 1 -2 2 2 3 2 2 12 -3 9 -5 3 3 3 2 5 3 2 4 0 4 2 5 9 0 4 2 6 -4 3 6 3 3 2 1 0 8 2 3 12 2 7 3 8 4 0 6 1 0 6 3 2 14 5 11 7 2 6 5 7 3 5 1 6 -2 -1 3 4 3 7 9 6 4 1 4 2 4 4 9 3 4 7 3 3 3 1 8 10 1 0 1 4 15 1 5 2 8 5 5 4 2 3 2 1 1 2 6 2 2 0 2 2 1 1 1 9 2 12 8 13 3 6 1 3 7 3 3 -1 17 5 1 4 4 6 10 -3 4 -2 10 17 3 0 0 4 4 14 11 2 4 1 4 2 2 2 13 8 5 4 2 -7 3 2 1 4 1 2 -2 9 6 2 5 -1 5 -2 -2 2 2 6 13 0 2 8 5 2 -3 5 3 -3 2 7 3 5 4 9 3 7 8 0 6 1 1 1 2 1 3 5 5 0 5 1 3 6 3 1 6 -3 19 4 3 0 6 8 6 2 5 9 -1 1 8 4 4 3 2 5 5 18 2 -1 1 4 2 7 1 4 5 -2 5 3 16 3 2 0 5 3 4 4 4 3 1 11 9 4 5 5 15 6 5 4 -4 5 -2 -2 5 8 5 13 0 0 0 5 1 -1 7 5 39 -1 5 4 15 1 1 4 2 5 0 2 5 3 4 1 1 19 2 2 -2 8 -1 6 12 2 2 3 1 8 6 11 5 4 1 9 4 2 24 13 2 0 2 5 -3 1 1 1 2 1 3 17 9 1 0 1 15 2 2 3 2 3 8 17</t>
+  </si>
+  <si>
+    <t>0 9 13 30 4 4 21 5 -2 2 10 69 -5 2 9 7 6 7 1 8 18 9 9 7 3 8 8 5 5 11 1 18 1 13 5 0 27 2 4 8 5 30 5 21 3 4 11 16 19 8 9 28 6 16 3 9 5 -4 9 10 6 3 9 5 18 11 5 3 21 27 4 10 3 11 9 8 35 7 5 11 4 10 7 7 4 4 12 7 5 4 15 11 6 52 11 12 14 4 8 10 1 9 18 2 9 8 1 2 9 4 8 13 6 22 6 3 12 21 8 7 19 7 5 8 9 0 22 10 16 11 9 4 4 15 5 -2 1 27 13 5 15 8 1 5 -6 10 6 8 3 5 26 5 5 11 4 13 17 50 23 15 20 8 6 19 12 15 8 0 26 4 5 16 49 12 27 7 5 3 19 6 1 16 37 6 6 19 0 30 6 9 27 12 3 3 1 15 7 22 11 17 3 16 13 6 23 25 8 3 10 11 18 9 17 3 16 6 8 14 6 5 34 4 3 -2 9 12 5 8 6 5 18 4 7 5 2 0 10 11 21 22 4 14 5 16 24 2 6 13 17 9 9 43 11 5 12 7 25 30 14 5 2 5 0 11 8 10 0 20 6 4 15 6 11 18 15 12 21 53 10 9 2 5 11 12 9 8 8 7 35 10 14 10 8 -3 1 11 20 7 8 22 6 15 2 40 12 8 27 7 11 9 8 5 3 17 4 5 3 27 5 8 6 6 12 12 11 4 8 7 6 5 6 -5 14 5 3 22 7 4 10 23 4 13 13 9 -4 13 30 8 6 3 6 15 6 54 5 29 3 53 4 0 9 29 11 8 11 14 1 13 3 6 14 4 5 -6 7 23 27 8 15 11 6 10 20 12 13 7 -2 6 15 3 7 22 5 17 21 8 7 21 8 8 12 15 6 7 3 4 6 6 16 9 30 8 7 6 3 15 3 6 7 12 6 20 6 5 2 26 11 12 15 9 4 8 13 14 15 9 8 9 10 24 14 23 12 6 8 8 19 13 12 0 11 12 15 26 19 -5 18 26 7 19 20 10 19 -1 18 12 12 0 13 -3 14 12 5 22 12 10 14 6 8 4 11 4 6 7 3 3 2 9 10 4 21 18 14 28 19 14 12 11 11 6 9 -7 21 18 9 2 5 5 29 14 20 9 5 22 5 4 9 23 5 5 2 62 12 8 11 8 15 11 5 11 6 1 10 22 16 -3 46 3 7 -3 8 7 3 10 7 5 10 29 4 19 5 18 14 19 11 -2 15 4 14 7 11</t>
+  </si>
+  <si>
+    <t>-3 12 6 9 2 4 16 0 -2 2 -4 -1 4 8 7 -1 3 3 0 12 -2 6 0 1 3 1 2 80 -2 0 6 -2 -3 1 -2 7 0 -3 5 2 6 55 -4 -1 3 5 -2 5 16 0 1 1 2 1 2 2 11 3 12 1 4 3 1 1 3 4 16 0 1 0 6 10 1 2 0 3 3 22 0 3 3 5 15 5 -1 2 0 0 3 3 9 4 1 -1 6 1 19 2 4 2 -1 0 2 2 2 0 -3 3 -3 43 1 4 0 16 3 29 -1 4 10 3 3 1 2 8 2 3 0 -1 7 8 7 1 2 2 10 5 2 5 -2 15 11 11 5 1 9 1 1 4 5 2 7 2 -1 4 5 9 -1 3 4 1 4 5 7 14 17 12 5 -2 10 3 2 11 6 2 7 6 0 2 1 26 5 1 1 6 6 2 0 3 2 4 1 4 -3 4 3 4 3 3 8 1 2 0 11 -2 2 12 3 0 5 1 1 3 5 10 12 -1 1 3 11 2 5 5 3 7 4 6 1 3 7 2 2 7 6 1 -4 2 3 21 2 0 1 4 5 4 1 -3 0 2 9 -3 4 2 3 1 17 4 1 -3 2 3 5 8 -1 3 2 -4 4 -4 4 4 3 3 4 -2 12 2 5 -3 9 3 16 8 4 1 2 4 12 3 1 8 5 2 4 1 1 5 3 1 -3 14 3 3 6 3 4 1 3 2 2 3 2 3 0 2 4 3 4 9 10 19 4 6 15 18 1 -1 1 2 5 5 6 -4 4 -1 4 28 8 0 5 1 2 4 2 0 1 0 15 5 0 -2 -1 2 3 6 9 4 1 -2 3 11 0 5 40 4 3 2 7 6 22 -1 0 2 -1 0 1 4 -2 1 4 1 5 16 6 2 4 3 13 49 3 10 3 -1 0 -1 4 2 5 6 3 5 4 5 5 9 2 8 2 7 12 1 9 1 2 -1 7 8 4 1 7 2 3 1 5 8 4 3 2 2 9 0 14 3 -6 7 15 0 18 4 1 -1 9 2 5 2 7 7 2 4 2 26 9 16 1 -1 1 5 -2 12 3 -1 -5 7 3 8 4 11 0 1 14 2 2 0 13 4 13 1 10 0 -1 3 2 -3 10 4 7 2 -1 1 -2 1 0 -2 9 2 2 6 -1 7 4 0 2 2 2 4 16 1 7 2 0 4 3 5 2 3 1 2 11 2 3 18 9 11 22 1 2 2 7 5 5 1 0 -4 10 1 6 1 3 9 0 3 1 4 0 8 4 3 17 0 5 2 1 4 1 1 3 -2 3 6 3 12 5 9 2 32 6 1 3 10 10 0 13 3 0 -2 15 5 2 4 9 6 3 -2 1 6 -1 -2 0 1 -1 -1 -1 1 6 8 0 -4 6 7 4 9 4 5 -1 9 4 34 2 3 12 3 13 21 1 3 6 0 1 9 11 2 5 2 0 3 25 10 78 1 0 0 15 0 -4 4 0 4 11 7 13 24 8 15 0 1 7 6 3 9 2 14 3 -1 0 1 -3 5 0 4 1 2 7 3 2 20 9 9 0 -3 6 4 0 2 2 4 3 4 6 3 3 6 0 5 1 4 7 1 1 3 7 2 7 4 3 1 3 4 30 2 -5 2 5 0 7 -1 0 5 9 2 2 1 4 9 7 18 9 4 1 3 0 7 6 2 2 6 0 0 1 1 3 -1 3 5 -1 8 34 1 4 2 2 7 12 3 2 0</t>
+  </si>
+  <si>
+    <t>3 5 4 9 17 11 5 20 4 11 5 4 8 11 8 17 7 7 0 5 8 13 -1 14 10 11 11 4 22 2 15 4 18 8 4 11 10 4 18 18 8 9 5 10 4 10 15 5 1 24 13 2 1 10 20 9 1 45 25 12 14 11 11 3 6 12 17 5 12 4 13 4 1 21 6 -2 7 7 48 40 11 9 3 8 6 13 9 7 7 10 7 31 6 8 21 6 12 15 6 15 9 24 24 7 5 30 10 11 7 13 6 2 7 8 45 10 5 6 8 6 4 10 10 16 3 -3 3 43 4 7 30 15 18 4 7 2 7 6 12 23 13 15 3 9 5 12 8 9 14 8 5 12 8 3 17 6 6 6 11 8 9 38 5 6 8 18 4 13 9 15 18 30 5 13 2 36 7 4 15 23 -3 18 5 3 -4 14 9 25 14 16 8 6 8 19 26 16 5 41 10 7 0 9 5 8 33 11 4 5 5 6 13 15 -1 7 20 8 0 6 1 10 11 8 4 19 31 11 5 20 2 17 -6 18 1 4 6 13 18 8 3 14 3 9 39 54 9 2 21 10 5 5 22 9 4 10 10 9 13 9 11 3 5 2 4 1 -1 2 12 12 8 5 22 5 11 7 6 5 19 17 13 19 13 4 25 10 7 7 6 15 7 2 18 12 9 3 28 28 9 6 4 17 13 14 4 38 18 8 19 9 3 1 12 6 7 29 5 15 46 14 19 13 10 15 5 9 3 8 6 9 4 20 3 9 7 3 10 17 19 3 10 14 3 6 6 11 0 15 5 16 -1 3 17 6 44 5 15 9 3 16 2 13 6 4 6 5 28 7 5 6 13 14 8 7 4 8 9 10 4 12 7 15 22 9 11 8 17 3 8 4 24 8 9 17 7 13 6 13 18 7 10 12 10 6 10 12 2 7 10 12 2 19 26 11 31 11 13 -5 8 1 9 26 5 27 15 11 57 14 4 5 11 22 17 1 7 12 7 3 -2 7 5 5 2 7 -1 2 28 19 3 24 -1 10 10 3 11 8 9 32 3 -1 1 6 10 8 5 28 6 17 6 9 27 6 21 -3 9 7 24 14 4 31 27 5 11 14 16 4 7 10 0 12 7 10 9 1 23 9 14 18 9 15 12 11 6 6 2 20 -6 5 9 12 0 3 16 -2 14 18 22 16 2 13 5 22 17 5 17 6 10 6 12 0 13 17 6 7 5 12 9 2 39 4 15 5 7 28 25 3 24 5 4 19 3 15 28 9 11 4 8 4 1 9 20 4 26 3 22 8 46 22 29 28 6 3 13 0 3 9 16 4 26 2 46 9 21 8 54 8 10 11 6 21 10 19 9 8 6 13 13 9 20 12 1 10 2 17 3 12 11 12 27 31 2 28 19 7 11 17 15 4 7 7 12 3 6 8 6 6 16 57 12 23 31 49 25 8 36 20 43 3 26 1 19 7 5 8 13 3 4 7 7 6 9 1 8 65 15 8 0 8 1 7 6 5 7 6 6 8 20 13 1 20 40 10 11 5 4 -4 4 7 2 6 5 16 9 36 12 10 12 5 25 13 16 12 22 -2 2 28 9 7 7 2 1</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>64 61 61 62 48 44 67 66 64 64 70 68 64 70 70 67 67 64 58 67 68 70 61 65 64 54 67 44 66 65 49 62 70 56 61 64 62 66 67 50 55 64 66 62</t>
-  </si>
-  <si>
-    <t>31 16 29 26 7 8 22 31 23 22 58 23 26 29 24 21 24 31 17 32 24 24 31 27 21 0 18 21 16 21 21 18 29 16 31 26 18 25 18 3 15 16 22 28</t>
-  </si>
-  <si>
-    <t>26 16 27 17 32 19 9 40 18 8 13 20 21 25 17 20 25 15 28 17 28 6 15 35 25 33 0 18 66 11 20 24 21 19 20 22 16 0 38 18 21 23 30 24 26 16 15 27 65 27 22 23 25 19 25 35 24 27 25 33 18 29 33 29 20 20 31 29</t>
-  </si>
-  <si>
-    <t>58 45 43 47 48 37 52 44 41 39 46 45 38 40 42 45 51 53 42 54 54 42 33 37 50 54 40 41 54 39 48 52 49 35 47 39 36 46 48 37 60 44 38 34 49 42 50 25 47 48 38 52 46 44 58 46 42 47 47 42 32 36 42 45 44 42 54 57 50 38 37 44 14 49 40 38 36 32 52 41 26 56 50 65 40 37 57 42 45 50 49 37 45 48 51 49 56 40 52 40 40 59 56 36 54 49 51 45 51 57 48 44 46 45 38 43 33 38 43 44 29 40</t>
-  </si>
-  <si>
-    <t>16 10 2 23 19 0 0 0 0 0 0 12 0 0 0 14 0 10 41 5 0 3 0 0 16 1 0 0 30 0 14 15 7 0 19 7 0 15 0 0 0 36 0 0 0 5 0 0 0 0 0 12 7 0 0 12 0 11 0 14 0 0 0 0 0 0 12 19 34 10 0 0 0 0 3 0 0 17 8 12 0 4 9 0 0 0 12 15 0 0 0 0 5 0 11 16 22 0 0 0 6 0 15 0 4 17 13 0 0 10 0 0 26 0 0 0 0 0 0 7 0 0</t>
-  </si>
-  <si>
-    <t>0 0 0 0 0 0 0 0 0 11 0 0 0 9 0 0 0 0 0 0 0 0 0 0 14 0 16 0 0 0 0 0 0 0 11 0 18 0 0 0 9 0 0 0 12 0 0 0 0 0 0 0 0 0 15 0 0 0 0 6 0 0 0 0 0 0 0 14 0 18 0 0 0 0 0 0 0 16 0 0 8 0 9 0 19 0 0 17 0 0 0</t>
+    <t>64 61 61 62 48 44 67 66 64 64 70 68 64 70 70 67 67 64 58 67 68 70 61 65 64 54 67 44 66 65 49 62 70 56 61 64 62 66 67 50 55 64 66 62 55 64 62</t>
+  </si>
+  <si>
+    <t>31 16 29 26 7 8 22 31 23 22 58 23 26 29 24 21 24 31 17 32 24 24 31 27 21 0 18 21 16 21 21 18 29 16 31 26 18 25 18 3 15 16 22 28 21 5 13</t>
+  </si>
+  <si>
+    <t>26 16 27 17 32 19 9 40 18 8 13 20 21 25 17 20 25 15 28 17 28 6 15 35 25 33 0 18 66 11 20 24 21 19 20 22 16 0 38 18 21 23 30 24 26 16 15 27 65 27 22 23 25 19 25 35 24 27 25 33 18 29 33 29 20 20 31 29 79 28 32</t>
+  </si>
+  <si>
+    <t>58 45 43 47 48 37 52 44 41 39 46 45 38 40 42 45 51 53 42 54 54 42 33 37 50 54 40 41 54 39 48 52 49 35 47 39 36 46 48 37 60 44 38 34 49 42 50 25 47 48 38 52 46 44 58 46 42 47 47 42 32 36 42 45 44 42 54 57 50 38 37 44 14 49 40 38 36 32 52 41 26 56 50 65 40 37 57 42 45 50 49 37 45 48 51 49 56 40 52 40 40 59 56 36 54 49 51 45 51 57 48 44 46 45 38 43 33 38 43 44 29 40 33</t>
+  </si>
+  <si>
+    <t>16 10 2 23 19 0 0 0 0 0 0 12 0 0 0 14 0 10 41 5 0 3 0 0 16 1 0 0 30 0 14 15 7 0 19 7 0 15 0 0 0 36 0 0 0 5 0 0 0 0 0 12 7 0 0 12 0 11 0 14 0 0 0 0 0 0 12 19 34 10 0 0 0 0 3 0 0 17 8 12 0 4 9 0 0 0 12 15 0 0 0 0 5 0 11 16 22 0 0 0 6 0 15 0 4 17 13 0 0 10 0 0 26 0 0 0 0 0 0 7 0 0 0</t>
+  </si>
+  <si>
+    <t>0 0 0 0 0 0 0 0 0 11 0 0 0 9 0 0 0 0 0 0 0 0 0 0 14 0 16 0 0 0 0 0 0 0 11 0 18 0 0 0 9 0 0 0 12 0 0 0 0 0 0 0 0 0 15 0 0 0 0 6 0 0 0 0 0 0 0 14 0 18 0 0 0 0 0 0 0 16 0 0 8 0 9 0 19 0 0 17 0 0 0 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,19 +668,19 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="D2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2">
         <v>11</v>
       </c>
       <c r="F2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G2">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="H2">
         <v>7</v>
@@ -695,22 +695,22 @@
         <v>25</v>
       </c>
       <c r="L2">
-        <v>441</v>
+        <v>478</v>
       </c>
       <c r="M2">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="N2">
         <v>39</v>
       </c>
       <c r="O2">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="P2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="Q2">
-        <v>801</v>
+        <v>858</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -721,16 +721,16 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F3">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="G3">
         <v>60</v>
@@ -739,10 +739,10 @@
         <v>40</v>
       </c>
       <c r="I3">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="J3">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -754,7 +754,7 @@
         <v>284</v>
       </c>
       <c r="N3">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -943,49 +943,49 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>364</v>
+        <v>387</v>
       </c>
       <c r="D2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="G2">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="H2">
         <v>9</v>
       </c>
       <c r="I2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J2">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>485</v>
+        <v>510</v>
       </c>
       <c r="M2">
-        <v>329</v>
+        <v>349</v>
       </c>
       <c r="N2">
         <v>25</v>
       </c>
       <c r="O2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q2">
-        <v>856</v>
+        <v>928</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -996,28 +996,28 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D3">
         <v>9</v>
       </c>
       <c r="E3">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F3">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="G3">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H3">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I3">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J3">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -1029,7 +1029,7 @@
         <v>353</v>
       </c>
       <c r="N3">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -1215,25 +1215,25 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G2">
         <v>13</v>
       </c>
       <c r="H2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I2">
         <v>5</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1345,7 +1345,7 @@
         <v>25</v>
       </c>
       <c r="B2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>9</v>
@@ -1354,7 +1354,7 @@
         <v>6</v>
       </c>
       <c r="E2">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1368,10 +1368,10 @@
         <v>5</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1409,7 +1409,7 @@
         <v>60</v>
       </c>
       <c r="D2">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1437,7 +1437,7 @@
         <v>58</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/Base/Teams/Jets/Team Data.xlsx
+++ b/Base/Teams/Jets/Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>3 5 -4 5 7 -2 6 5 2 3 8 4 0 2 6 2 5 7 0 5 1 -2 8 4 -2 3 13 2 2 4 5 0 4 3 1 12 2 5 -1 3 10 6 5 2 -1 2 2 9 7 2 2 6 2 3 2 8 5 3 4 11 -1 8 1 2 3 6 10 2 3 4 4 -2 -1 3 8 3 46 -2 5 0 6 2 3 4 2 2 5 1 4 2 4 4 6 1 8 13 2 9 4 0 2 4 11 2 1 9 3 7 4 4 0 7 13 3 0 6 5 2 1 13 -1 7 5 3 5 1 3 0 -2 5 -1 4 3 6 -2 12 1 8 34 1 14 8 -3 0 8 11 4 7 2 7 0 8 2 -3 20 -1 1 5 9 2 2 13 -1 2 3 7 6 4 0 3 9 3 5 2 2 3 1 6 4 2 5 0 5 6 0 8 5 2 5 4 3 2 3 3 2 15 3 7 1 2 3 3 3 1 0 5 14 2 8 5 1 -1 3 5 0 0 11 3 4 6 5 2 2 1 4 6 2 1 6 6 3 5 6 1 5 2 1 3 3 4 1 1 4 14 17 0 1 2 10 1 2 2 2 9 1 9 0 0 0 2 25 7 1 6 14 5 7 12 0 5 12 18 6 17 16 5 7 4 4 5 2 2 1 1 3 1 1 11 4 6 0 1 -2 2 2 3 2 2 12 -3 9 -5 3 3 3 2 5 3 2 4 0 4 2 5 9 0 4 2 6 -4 3 6 3 3 2 1 0 8 2 3 12 2 7 3 8 4 0 6 1 0 6 3 2 14 5 11 7 2 6 5 7 3 5 1 6 -2 -1 3 4 3 7 9 6 4 1 4 2 4 4 9 3 4 7 3 3 3 1 8 10 1 0 1 4 15 1 5 2 8 5 5 4 2 3 2 1 1 2 6 2 2 0 2 2 1 1 1 9 2 12 8 13 3 6 1 3 7 3 3 -1 17 5 1 4 4 6 10 -3 4 -2 10 17 3 0 0 4 4 14 11 2 4 1 4 2 2 2 13 8 5 4 2 -7 3 2 1 4 1 2 -2 9 6 2 5 -1 5 -2 -2 2 2 6 13 0 2 8 5 2 -3 5 3 -3 2 7 3 5 4 9 3 7 8 0 6 1 1 1 2 1 3 5 5 0 5 1 3 6 3 1 6 -3 19 4 3 0 6 8 6 2 5 9 -1 1 8 4 4 3 2 5 5 18 2 -1 1 4 2 7 1 4 5 -2 5 3 16 3 2 0 5 3 4 4 4 3 1 11 9 4 5 5 15 6 5 4 -4 5 -2 -2 5 8 5 13 0 0 0 5 1 -1 7 5 39 -1 5 4 15 1 1 4 2 5 0 2 5 3 4 1 1 19 2 2 -2 8 -1 6 12 2 2 3 1 8 6 11 5 4 1 9 4 2 24 13 2 0 2 5 -3 1 1 1 2 1 3 17 9 1 0 1 15 2 2 3 2 3 8 17</t>
-  </si>
-  <si>
-    <t>0 9 13 30 4 4 21 5 -2 2 10 69 -5 2 9 7 6 7 1 8 18 9 9 7 3 8 8 5 5 11 1 18 1 13 5 0 27 2 4 8 5 30 5 21 3 4 11 16 19 8 9 28 6 16 3 9 5 -4 9 10 6 3 9 5 18 11 5 3 21 27 4 10 3 11 9 8 35 7 5 11 4 10 7 7 4 4 12 7 5 4 15 11 6 52 11 12 14 4 8 10 1 9 18 2 9 8 1 2 9 4 8 13 6 22 6 3 12 21 8 7 19 7 5 8 9 0 22 10 16 11 9 4 4 15 5 -2 1 27 13 5 15 8 1 5 -6 10 6 8 3 5 26 5 5 11 4 13 17 50 23 15 20 8 6 19 12 15 8 0 26 4 5 16 49 12 27 7 5 3 19 6 1 16 37 6 6 19 0 30 6 9 27 12 3 3 1 15 7 22 11 17 3 16 13 6 23 25 8 3 10 11 18 9 17 3 16 6 8 14 6 5 34 4 3 -2 9 12 5 8 6 5 18 4 7 5 2 0 10 11 21 22 4 14 5 16 24 2 6 13 17 9 9 43 11 5 12 7 25 30 14 5 2 5 0 11 8 10 0 20 6 4 15 6 11 18 15 12 21 53 10 9 2 5 11 12 9 8 8 7 35 10 14 10 8 -3 1 11 20 7 8 22 6 15 2 40 12 8 27 7 11 9 8 5 3 17 4 5 3 27 5 8 6 6 12 12 11 4 8 7 6 5 6 -5 14 5 3 22 7 4 10 23 4 13 13 9 -4 13 30 8 6 3 6 15 6 54 5 29 3 53 4 0 9 29 11 8 11 14 1 13 3 6 14 4 5 -6 7 23 27 8 15 11 6 10 20 12 13 7 -2 6 15 3 7 22 5 17 21 8 7 21 8 8 12 15 6 7 3 4 6 6 16 9 30 8 7 6 3 15 3 6 7 12 6 20 6 5 2 26 11 12 15 9 4 8 13 14 15 9 8 9 10 24 14 23 12 6 8 8 19 13 12 0 11 12 15 26 19 -5 18 26 7 19 20 10 19 -1 18 12 12 0 13 -3 14 12 5 22 12 10 14 6 8 4 11 4 6 7 3 3 2 9 10 4 21 18 14 28 19 14 12 11 11 6 9 -7 21 18 9 2 5 5 29 14 20 9 5 22 5 4 9 23 5 5 2 62 12 8 11 8 15 11 5 11 6 1 10 22 16 -3 46 3 7 -3 8 7 3 10 7 5 10 29 4 19 5 18 14 19 11 -2 15 4 14 7 11</t>
-  </si>
-  <si>
-    <t>-3 12 6 9 2 4 16 0 -2 2 -4 -1 4 8 7 -1 3 3 0 12 -2 6 0 1 3 1 2 80 -2 0 6 -2 -3 1 -2 7 0 -3 5 2 6 55 -4 -1 3 5 -2 5 16 0 1 1 2 1 2 2 11 3 12 1 4 3 1 1 3 4 16 0 1 0 6 10 1 2 0 3 3 22 0 3 3 5 15 5 -1 2 0 0 3 3 9 4 1 -1 6 1 19 2 4 2 -1 0 2 2 2 0 -3 3 -3 43 1 4 0 16 3 29 -1 4 10 3 3 1 2 8 2 3 0 -1 7 8 7 1 2 2 10 5 2 5 -2 15 11 11 5 1 9 1 1 4 5 2 7 2 -1 4 5 9 -1 3 4 1 4 5 7 14 17 12 5 -2 10 3 2 11 6 2 7 6 0 2 1 26 5 1 1 6 6 2 0 3 2 4 1 4 -3 4 3 4 3 3 8 1 2 0 11 -2 2 12 3 0 5 1 1 3 5 10 12 -1 1 3 11 2 5 5 3 7 4 6 1 3 7 2 2 7 6 1 -4 2 3 21 2 0 1 4 5 4 1 -3 0 2 9 -3 4 2 3 1 17 4 1 -3 2 3 5 8 -1 3 2 -4 4 -4 4 4 3 3 4 -2 12 2 5 -3 9 3 16 8 4 1 2 4 12 3 1 8 5 2 4 1 1 5 3 1 -3 14 3 3 6 3 4 1 3 2 2 3 2 3 0 2 4 3 4 9 10 19 4 6 15 18 1 -1 1 2 5 5 6 -4 4 -1 4 28 8 0 5 1 2 4 2 0 1 0 15 5 0 -2 -1 2 3 6 9 4 1 -2 3 11 0 5 40 4 3 2 7 6 22 -1 0 2 -1 0 1 4 -2 1 4 1 5 16 6 2 4 3 13 49 3 10 3 -1 0 -1 4 2 5 6 3 5 4 5 5 9 2 8 2 7 12 1 9 1 2 -1 7 8 4 1 7 2 3 1 5 8 4 3 2 2 9 0 14 3 -6 7 15 0 18 4 1 -1 9 2 5 2 7 7 2 4 2 26 9 16 1 -1 1 5 -2 12 3 -1 -5 7 3 8 4 11 0 1 14 2 2 0 13 4 13 1 10 0 -1 3 2 -3 10 4 7 2 -1 1 -2 1 0 -2 9 2 2 6 -1 7 4 0 2 2 2 4 16 1 7 2 0 4 3 5 2 3 1 2 11 2 3 18 9 11 22 1 2 2 7 5 5 1 0 -4 10 1 6 1 3 9 0 3 1 4 0 8 4 3 17 0 5 2 1 4 1 1 3 -2 3 6 3 12 5 9 2 32 6 1 3 10 10 0 13 3 0 -2 15 5 2 4 9 6 3 -2 1 6 -1 -2 0 1 -1 -1 -1 1 6 8 0 -4 6 7 4 9 4 5 -1 9 4 34 2 3 12 3 13 21 1 3 6 0 1 9 11 2 5 2 0 3 25 10 78 1 0 0 15 0 -4 4 0 4 11 7 13 24 8 15 0 1 7 6 3 9 2 14 3 -1 0 1 -3 5 0 4 1 2 7 3 2 20 9 9 0 -3 6 4 0 2 2 4 3 4 6 3 3 6 0 5 1 4 7 1 1 3 7 2 7 4 3 1 3 4 30 2 -5 2 5 0 7 -1 0 5 9 2 2 1 4 9 7 18 9 4 1 3 0 7 6 2 2 6 0 0 1 1 3 -1 3 5 -1 8 34 1 4 2 2 7 12 3 2 0</t>
-  </si>
-  <si>
-    <t>3 5 4 9 17 11 5 20 4 11 5 4 8 11 8 17 7 7 0 5 8 13 -1 14 10 11 11 4 22 2 15 4 18 8 4 11 10 4 18 18 8 9 5 10 4 10 15 5 1 24 13 2 1 10 20 9 1 45 25 12 14 11 11 3 6 12 17 5 12 4 13 4 1 21 6 -2 7 7 48 40 11 9 3 8 6 13 9 7 7 10 7 31 6 8 21 6 12 15 6 15 9 24 24 7 5 30 10 11 7 13 6 2 7 8 45 10 5 6 8 6 4 10 10 16 3 -3 3 43 4 7 30 15 18 4 7 2 7 6 12 23 13 15 3 9 5 12 8 9 14 8 5 12 8 3 17 6 6 6 11 8 9 38 5 6 8 18 4 13 9 15 18 30 5 13 2 36 7 4 15 23 -3 18 5 3 -4 14 9 25 14 16 8 6 8 19 26 16 5 41 10 7 0 9 5 8 33 11 4 5 5 6 13 15 -1 7 20 8 0 6 1 10 11 8 4 19 31 11 5 20 2 17 -6 18 1 4 6 13 18 8 3 14 3 9 39 54 9 2 21 10 5 5 22 9 4 10 10 9 13 9 11 3 5 2 4 1 -1 2 12 12 8 5 22 5 11 7 6 5 19 17 13 19 13 4 25 10 7 7 6 15 7 2 18 12 9 3 28 28 9 6 4 17 13 14 4 38 18 8 19 9 3 1 12 6 7 29 5 15 46 14 19 13 10 15 5 9 3 8 6 9 4 20 3 9 7 3 10 17 19 3 10 14 3 6 6 11 0 15 5 16 -1 3 17 6 44 5 15 9 3 16 2 13 6 4 6 5 28 7 5 6 13 14 8 7 4 8 9 10 4 12 7 15 22 9 11 8 17 3 8 4 24 8 9 17 7 13 6 13 18 7 10 12 10 6 10 12 2 7 10 12 2 19 26 11 31 11 13 -5 8 1 9 26 5 27 15 11 57 14 4 5 11 22 17 1 7 12 7 3 -2 7 5 5 2 7 -1 2 28 19 3 24 -1 10 10 3 11 8 9 32 3 -1 1 6 10 8 5 28 6 17 6 9 27 6 21 -3 9 7 24 14 4 31 27 5 11 14 16 4 7 10 0 12 7 10 9 1 23 9 14 18 9 15 12 11 6 6 2 20 -6 5 9 12 0 3 16 -2 14 18 22 16 2 13 5 22 17 5 17 6 10 6 12 0 13 17 6 7 5 12 9 2 39 4 15 5 7 28 25 3 24 5 4 19 3 15 28 9 11 4 8 4 1 9 20 4 26 3 22 8 46 22 29 28 6 3 13 0 3 9 16 4 26 2 46 9 21 8 54 8 10 11 6 21 10 19 9 8 6 13 13 9 20 12 1 10 2 17 3 12 11 12 27 31 2 28 19 7 11 17 15 4 7 7 12 3 6 8 6 6 16 57 12 23 31 49 25 8 36 20 43 3 26 1 19 7 5 8 13 3 4 7 7 6 9 1 8 65 15 8 0 8 1 7 6 5 7 6 6 8 20 13 1 20 40 10 11 5 4 -4 4 7 2 6 5 16 9 36 12 10 12 5 25 13 16 12 22 -2 2 28 9 7 7 2 1</t>
+    <t>3 5 -4 5 7 -2 6 5 2 3 8 4 0 2 6 2 5 7 0 5 1 -2 8 4 -2 3 13 2 2 4 5 0 4 3 1 12 2 5 -1 3 10 6 5 2 -1 2 2 9 7 2 2 6 2 3 2 8 5 3 4 11 -1 8 1 2 3 6 10 2 3 4 4 -2 -1 3 8 3 46 -2 5 0 6 2 3 4 2 2 5 1 4 2 4 4 6 1 8 13 2 9 4 0 2 4 11 2 1 9 3 7 4 4 0 7 13 3 0 6 5 2 1 13 -1 7 5 3 5 1 3 0 -2 5 -1 4 3 6 -2 12 1 8 34 1 14 8 -3 0 8 11 4 7 2 7 0 8 2 -3 20 -1 1 5 9 2 2 13 -1 2 3 7 6 4 0 3 9 3 5 2 2 3 1 6 4 2 5 0 5 6 0 8 5 2 5 4 3 2 3 3 2 15 3 7 1 2 3 3 3 1 0 5 14 2 8 5 1 -1 3 5 0 0 11 3 4 6 5 2 2 1 4 6 2 1 6 6 3 5 6 1 5 2 1 3 3 4 1 1 4 14 17 0 1 2 10 1 2 2 2 9 1 9 0 0 0 2 25 7 1 6 14 5 7 12 0 5 12 18 6 17 16 5 7 4 4 5 2 2 1 1 3 1 1 11 4 6 0 1 -2 2 2 3 2 2 12 -3 9 -5 3 3 3 2 5 3 2 4 0 4 2 5 9 0 4 2 6 -4 3 6 3 3 2 1 0 8 2 3 12 2 7 3 8 4 0 6 1 0 6 3 2 14 5 11 7 2 6 5 7 3 5 1 6 -2 -1 3 4 3 7 9 6 4 1 4 2 4 4 9 3 4 7 3 3 3 1 8 10 1 0 1 4 15 1 5 2 8 5 5 4 2 3 2 1 1 2 6 2 2 0 2 2 1 1 1 9 2 12 8 13 3 6 1 3 7 3 3 -1 17 5 1 4 4 6 10 -3 4 -2 10 17 3 0 0 4 4 14 11 2 4 1 4 2 2 2 13 8 5 4 2 -7 3 2 1 4 1 2 -2 9 6 2 5 -1 5 -2 -2 2 2 6 13 0 2 8 5 2 -3 5 3 -3 2 7 3 5 4 9 3 7 8 0 6 1 1 1 2 1 3 5 5 0 5 1 3 6 3 1 6 -3 19 4 3 0 6 8 6 2 5 9 -1 1 8 4 4 3 2 5 5 18 2 -1 1 4 2 7 1 4 5 -2 5 3 16 3 2 0 5 3 4 4 4 3 1 11 9 4 5 5 15 6 5 4 -4 5 -2 -2 5 8 5 13 0 0 0 5 1 -1 7 5 39 -1 5 4 15 1 1 4 2 5 0 2 5 3 4 1 1 19 2 2 -2 8 -1 6 12 2 2 3 1 8 6 11 5 4 1 9 4 2 24 13 2 0 2 5 -3 1 1 1 2 1 3 17 9 1 0 1 15 2 2 3 2 3 8 17 3 2 18 3 1 2 -1 7 2 1 1 14 3 7 2 8 5</t>
+  </si>
+  <si>
+    <t>0 9 13 30 4 4 21 5 -2 2 10 69 -5 2 9 7 6 7 1 8 18 9 9 7 3 8 8 5 5 11 1 18 1 13 5 0 27 2 4 8 5 30 5 21 3 4 11 16 19 8 9 28 6 16 3 9 5 -4 9 10 6 3 9 5 18 11 5 3 21 27 4 10 3 11 9 8 35 7 5 11 4 10 7 7 4 4 12 7 5 4 15 11 6 52 11 12 14 4 8 10 1 9 18 2 9 8 1 2 9 4 8 13 6 22 6 3 12 21 8 7 19 7 5 8 9 0 22 10 16 11 9 4 4 15 5 -2 1 27 13 5 15 8 1 5 -6 10 6 8 3 5 26 5 5 11 4 13 17 50 23 15 20 8 6 19 12 15 8 0 26 4 5 16 49 12 27 7 5 3 19 6 1 16 37 6 6 19 0 30 6 9 27 12 3 3 1 15 7 22 11 17 3 16 13 6 23 25 8 3 10 11 18 9 17 3 16 6 8 14 6 5 34 4 3 -2 9 12 5 8 6 5 18 4 7 5 2 0 10 11 21 22 4 14 5 16 24 2 6 13 17 9 9 43 11 5 12 7 25 30 14 5 2 5 0 11 8 10 0 20 6 4 15 6 11 18 15 12 21 53 10 9 2 5 11 12 9 8 8 7 35 10 14 10 8 -3 1 11 20 7 8 22 6 15 2 40 12 8 27 7 11 9 8 5 3 17 4 5 3 27 5 8 6 6 12 12 11 4 8 7 6 5 6 -5 14 5 3 22 7 4 10 23 4 13 13 9 -4 13 30 8 6 3 6 15 6 54 5 29 3 53 4 0 9 29 11 8 11 14 1 13 3 6 14 4 5 -6 7 23 27 8 15 11 6 10 20 12 13 7 -2 6 15 3 7 22 5 17 21 8 7 21 8 8 12 15 6 7 3 4 6 6 16 9 30 8 7 6 3 15 3 6 7 12 6 20 6 5 2 26 11 12 15 9 4 8 13 14 15 9 8 9 10 24 14 23 12 6 8 8 19 13 12 0 11 12 15 26 19 -5 18 26 7 19 20 10 19 -1 18 12 12 0 13 -3 14 12 5 22 12 10 14 6 8 4 11 4 6 7 3 3 2 9 10 4 21 18 14 28 19 14 12 11 11 6 9 -7 21 18 9 2 5 5 29 14 20 9 5 22 5 4 9 23 5 5 2 62 12 8 11 8 15 11 5 11 6 1 10 22 16 -3 46 3 7 -3 8 7 3 10 7 5 10 29 4 19 5 18 14 19 11 -2 15 4 14 7 11 8 3 2 22 16 11 9 1 6 6 27 3 17 14 14 8 13</t>
+  </si>
+  <si>
+    <t>-3 12 6 9 2 4 16 0 -2 2 -4 -1 4 8 7 -1 3 3 0 12 -2 6 0 1 3 1 2 80 -2 0 6 -2 -3 1 -2 7 0 -3 5 2 6 55 -4 -1 3 5 -2 5 16 0 1 1 2 1 2 2 11 3 12 1 4 3 1 1 3 4 16 0 1 0 6 10 1 2 0 3 3 22 0 3 3 5 15 5 -1 2 0 0 3 3 9 4 1 -1 6 1 19 2 4 2 -1 0 2 2 2 0 -3 3 -3 43 1 4 0 16 3 29 -1 4 10 3 3 1 2 8 2 3 0 -1 7 8 7 1 2 2 10 5 2 5 -2 15 11 11 5 1 9 1 1 4 5 2 7 2 -1 4 5 9 -1 3 4 1 4 5 7 14 17 12 5 -2 10 3 2 11 6 2 7 6 0 2 1 26 5 1 1 6 6 2 0 3 2 4 1 4 -3 4 3 4 3 3 8 1 2 0 11 -2 2 12 3 0 5 1 1 3 5 10 12 -1 1 3 11 2 5 5 3 7 4 6 1 3 7 2 2 7 6 1 -4 2 3 21 2 0 1 4 5 4 1 -3 0 2 9 -3 4 2 3 1 17 4 1 -3 2 3 5 8 -1 3 2 -4 4 -4 4 4 3 3 4 -2 12 2 5 -3 9 3 16 8 4 1 2 4 12 3 1 8 5 2 4 1 1 5 3 1 -3 14 3 3 6 3 4 1 3 2 2 3 2 3 0 2 4 3 4 9 10 19 4 6 15 18 1 -1 1 2 5 5 6 -4 4 -1 4 28 8 0 5 1 2 4 2 0 1 0 15 5 0 -2 -1 2 3 6 9 4 1 -2 3 11 0 5 40 4 3 2 7 6 22 -1 0 2 -1 0 1 4 -2 1 4 1 5 16 6 2 4 3 13 49 3 10 3 -1 0 -1 4 2 5 6 3 5 4 5 5 9 2 8 2 7 12 1 9 1 2 -1 7 8 4 1 7 2 3 1 5 8 4 3 2 2 9 0 14 3 -6 7 15 0 18 4 1 -1 9 2 5 2 7 7 2 4 2 26 9 16 1 -1 1 5 -2 12 3 -1 -5 7 3 8 4 11 0 1 14 2 2 0 13 4 13 1 10 0 -1 3 2 -3 10 4 7 2 -1 1 -2 1 0 -2 9 2 2 6 -1 7 4 0 2 2 2 4 16 1 7 2 0 4 3 5 2 3 1 2 11 2 3 18 9 11 22 1 2 2 7 5 5 1 0 -4 10 1 6 1 3 9 0 3 1 4 0 8 4 3 17 0 5 2 1 4 1 1 3 -2 3 6 3 12 5 9 2 32 6 1 3 10 10 0 13 3 0 -2 15 5 2 4 9 6 3 -2 1 6 -1 -2 0 1 -1 -1 -1 1 6 8 0 -4 6 7 4 9 4 5 -1 9 4 34 2 3 12 3 13 21 1 3 6 0 1 9 11 2 5 2 0 3 25 10 78 1 0 0 15 0 -4 4 0 4 11 7 13 24 8 15 0 1 7 6 3 9 2 14 3 -1 0 1 -3 5 0 4 1 2 7 3 2 20 9 9 0 -3 6 4 0 2 2 4 3 4 6 3 3 6 0 5 1 4 7 1 1 3 7 2 7 4 3 1 3 4 30 2 -5 2 5 0 7 -1 0 5 9 2 2 1 4 9 7 18 9 4 1 3 0 7 6 2 2 6 0 0 1 1 3 -1 3 5 -1 8 34 1 4 2 2 7 12 3 2 0 5 11 7 1 1 3 10 -1 2 4 7 1 3 6 0 8 9 2 16 5 1 0 -2 7 13 -2 2 2 -1 9 3 0 9 3 8 3 1 -1 2 -1 0 0 44</t>
+  </si>
+  <si>
+    <t>3 5 4 9 17 11 5 20 4 11 5 4 8 11 8 17 7 7 0 5 8 13 -1 14 10 11 11 4 22 2 15 4 18 8 4 11 10 4 18 18 8 9 5 10 4 10 15 5 1 24 13 2 1 10 20 9 1 45 25 12 14 11 11 3 6 12 17 5 12 4 13 4 1 21 6 -2 7 7 48 40 11 9 3 8 6 13 9 7 7 10 7 31 6 8 21 6 12 15 6 15 9 24 24 7 5 30 10 11 7 13 6 2 7 8 45 10 5 6 8 6 4 10 10 16 3 -3 3 43 4 7 30 15 18 4 7 2 7 6 12 23 13 15 3 9 5 12 8 9 14 8 5 12 8 3 17 6 6 6 11 8 9 38 5 6 8 18 4 13 9 15 18 30 5 13 2 36 7 4 15 23 -3 18 5 3 -4 14 9 25 14 16 8 6 8 19 26 16 5 41 10 7 0 9 5 8 33 11 4 5 5 6 13 15 -1 7 20 8 0 6 1 10 11 8 4 19 31 11 5 20 2 17 -6 18 1 4 6 13 18 8 3 14 3 9 39 54 9 2 21 10 5 5 22 9 4 10 10 9 13 9 11 3 5 2 4 1 -1 2 12 12 8 5 22 5 11 7 6 5 19 17 13 19 13 4 25 10 7 7 6 15 7 2 18 12 9 3 28 28 9 6 4 17 13 14 4 38 18 8 19 9 3 1 12 6 7 29 5 15 46 14 19 13 10 15 5 9 3 8 6 9 4 20 3 9 7 3 10 17 19 3 10 14 3 6 6 11 0 15 5 16 -1 3 17 6 44 5 15 9 3 16 2 13 6 4 6 5 28 7 5 6 13 14 8 7 4 8 9 10 4 12 7 15 22 9 11 8 17 3 8 4 24 8 9 17 7 13 6 13 18 7 10 12 10 6 10 12 2 7 10 12 2 19 26 11 31 11 13 -5 8 1 9 26 5 27 15 11 57 14 4 5 11 22 17 1 7 12 7 3 -2 7 5 5 2 7 -1 2 28 19 3 24 -1 10 10 3 11 8 9 32 3 -1 1 6 10 8 5 28 6 17 6 9 27 6 21 -3 9 7 24 14 4 31 27 5 11 14 16 4 7 10 0 12 7 10 9 1 23 9 14 18 9 15 12 11 6 6 2 20 -6 5 9 12 0 3 16 -2 14 18 22 16 2 13 5 22 17 5 17 6 10 6 12 0 13 17 6 7 5 12 9 2 39 4 15 5 7 28 25 3 24 5 4 19 3 15 28 9 11 4 8 4 1 9 20 4 26 3 22 8 46 22 29 28 6 3 13 0 3 9 16 4 26 2 46 9 21 8 54 8 10 11 6 21 10 19 9 8 6 13 13 9 20 12 1 10 2 17 3 12 11 12 27 31 2 28 19 7 11 17 15 4 7 7 12 3 6 8 6 6 16 57 12 23 31 49 25 8 36 20 43 3 26 1 19 7 5 8 13 3 4 7 7 6 9 1 8 65 15 8 0 8 1 7 6 5 7 6 6 8 20 13 1 20 40 10 11 5 4 -4 4 7 2 6 5 16 9 36 12 10 12 5 25 13 16 12 22 -2 2 28 9 7 7 2 1 19 4 2 15 13 6 8 6 18 19 6 21 7 26 5</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -167,16 +167,16 @@
     <t>31 16 29 26 7 8 22 31 23 22 58 23 26 29 24 21 24 31 17 32 24 24 31 27 21 0 18 21 16 21 21 18 29 16 31 26 18 25 18 3 15 16 22 28 21 5 13</t>
   </si>
   <si>
-    <t>26 16 27 17 32 19 9 40 18 8 13 20 21 25 17 20 25 15 28 17 28 6 15 35 25 33 0 18 66 11 20 24 21 19 20 22 16 0 38 18 21 23 30 24 26 16 15 27 65 27 22 23 25 19 25 35 24 27 25 33 18 29 33 29 20 20 31 29 79 28 32</t>
-  </si>
-  <si>
-    <t>58 45 43 47 48 37 52 44 41 39 46 45 38 40 42 45 51 53 42 54 54 42 33 37 50 54 40 41 54 39 48 52 49 35 47 39 36 46 48 37 60 44 38 34 49 42 50 25 47 48 38 52 46 44 58 46 42 47 47 42 32 36 42 45 44 42 54 57 50 38 37 44 14 49 40 38 36 32 52 41 26 56 50 65 40 37 57 42 45 50 49 37 45 48 51 49 56 40 52 40 40 59 56 36 54 49 51 45 51 57 48 44 46 45 38 43 33 38 43 44 29 40 33</t>
-  </si>
-  <si>
-    <t>16 10 2 23 19 0 0 0 0 0 0 12 0 0 0 14 0 10 41 5 0 3 0 0 16 1 0 0 30 0 14 15 7 0 19 7 0 15 0 0 0 36 0 0 0 5 0 0 0 0 0 12 7 0 0 12 0 11 0 14 0 0 0 0 0 0 12 19 34 10 0 0 0 0 3 0 0 17 8 12 0 4 9 0 0 0 12 15 0 0 0 0 5 0 11 16 22 0 0 0 6 0 15 0 4 17 13 0 0 10 0 0 26 0 0 0 0 0 0 7 0 0 0</t>
-  </si>
-  <si>
-    <t>0 0 0 0 0 0 0 0 0 11 0 0 0 9 0 0 0 0 0 0 0 0 0 0 14 0 16 0 0 0 0 0 0 0 11 0 18 0 0 0 9 0 0 0 12 0 0 0 0 0 0 0 0 0 15 0 0 0 0 6 0 0 0 0 0 0 0 14 0 18 0 0 0 0 0 0 0 16 0 0 8 0 9 0 19 0 0 17 0 0 0 0</t>
+    <t>26 16 27 17 32 19 9 40 18 8 13 20 21 25 17 20 25 15 28 17 28 6 15 35 25 33 0 18 66 11 20 24 21 19 20 22 16 0 38 18 21 23 30 24 26 16 15 27 65 27 22 23 25 19 25 35 24 27 25 33 18 29 33 29 20 20 31 29 79 28 32 30 23 21 23 42</t>
+  </si>
+  <si>
+    <t>58 45 43 47 48 37 52 44 41 39 46 45 38 40 42 45 51 53 42 54 54 42 33 37 50 54 40 41 54 39 48 52 49 35 47 39 36 46 48 37 60 44 38 34 49 42 50 25 47 48 38 52 46 44 58 46 42 47 47 42 32 36 42 45 44 42 54 57 50 38 37 44 14 49 40 38 36 32 52 41 26 56 50 65 40 37 57 42 45 50 49 37 45 48 51 49 56 40 52 40 40 59 56 36 54 49 51 45 51 57 48 44 46 45 38 43 33 38 43 44 29 40 33 52 51 60 47 49 54</t>
+  </si>
+  <si>
+    <t>16 10 2 23 19 0 0 0 0 0 0 12 0 0 0 14 0 10 41 5 0 3 0 0 16 1 0 0 30 0 14 15 7 0 19 7 0 15 0 0 0 36 0 0 0 5 0 0 0 0 0 12 7 0 0 12 0 11 0 14 0 0 0 0 0 0 12 19 34 10 0 0 0 0 3 0 0 17 8 12 0 4 9 0 0 0 12 15 0 0 0 0 5 0 11 16 22 0 0 0 6 0 15 0 4 17 13 0 0 10 0 0 26 0 0 0 0 0 0 7 0 0 0 11 12 13 0 0 18</t>
+  </si>
+  <si>
+    <t>0 0 0 0 0 0 0 0 0 11 0 0 0 9 0 0 0 0 0 0 0 0 0 0 14 0 16 0 0 0 0 0 0 0 11 0 18 0 0 0 9 0 0 0 12 0 0 0 0 0 0 0 0 0 15 0 0 0 0 6 0 0 0 0 0 0 0 14 0 18 0 0 0 0 0 0 0 16 0 0 8 0 9 0 19 0 0 17 0 0 0 0 0 28 5 0 11</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,7 +668,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="D2">
         <v>15</v>
@@ -677,13 +677,13 @@
         <v>11</v>
       </c>
       <c r="F2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I2">
         <v>8</v>
@@ -695,22 +695,22 @@
         <v>25</v>
       </c>
       <c r="L2">
-        <v>478</v>
+        <v>521</v>
       </c>
       <c r="M2">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="N2">
         <v>39</v>
       </c>
       <c r="O2">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="P2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q2">
-        <v>858</v>
+        <v>924</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -718,31 +718,31 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F3">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="G3">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H3">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I3">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="J3">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -754,7 +754,7 @@
         <v>284</v>
       </c>
       <c r="N3">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -943,49 +943,49 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>387</v>
+        <v>408</v>
       </c>
       <c r="D2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G2">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="H2">
+        <v>12</v>
+      </c>
+      <c r="I2">
         <v>9</v>
       </c>
-      <c r="I2">
-        <v>8</v>
-      </c>
       <c r="J2">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>510</v>
+        <v>531</v>
       </c>
       <c r="M2">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="N2">
         <v>25</v>
       </c>
       <c r="O2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q2">
-        <v>928</v>
+        <v>996</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -993,31 +993,31 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="D3">
         <v>9</v>
       </c>
       <c r="E3">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F3">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="G3">
         <v>65</v>
       </c>
       <c r="H3">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I3">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J3">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -1029,7 +1029,7 @@
         <v>353</v>
       </c>
       <c r="N3">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -1215,13 +1215,13 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
@@ -1239,16 +1239,16 @@
         <v>5</v>
       </c>
       <c r="J2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N2">
         <v>3</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1354,7 +1354,7 @@
         <v>6</v>
       </c>
       <c r="E2">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1371,7 +1371,7 @@
         <v>6</v>
       </c>
       <c r="E3">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1445,7 +1445,7 @@
         <v>59</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Base/Teams/Jets/Team Data.xlsx
+++ b/Base/Teams/Jets/Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>3 5 -4 5 7 -2 6 5 2 3 8 4 0 2 6 2 5 7 0 5 1 -2 8 4 -2 3 13 2 2 4 5 0 4 3 1 12 2 5 -1 3 10 6 5 2 -1 2 2 9 7 2 2 6 2 3 2 8 5 3 4 11 -1 8 1 2 3 6 10 2 3 4 4 -2 -1 3 8 3 46 -2 5 0 6 2 3 4 2 2 5 1 4 2 4 4 6 1 8 13 2 9 4 0 2 4 11 2 1 9 3 7 4 4 0 7 13 3 0 6 5 2 1 13 -1 7 5 3 5 1 3 0 -2 5 -1 4 3 6 -2 12 1 8 34 1 14 8 -3 0 8 11 4 7 2 7 0 8 2 -3 20 -1 1 5 9 2 2 13 -1 2 3 7 6 4 0 3 9 3 5 2 2 3 1 6 4 2 5 0 5 6 0 8 5 2 5 4 3 2 3 3 2 15 3 7 1 2 3 3 3 1 0 5 14 2 8 5 1 -1 3 5 0 0 11 3 4 6 5 2 2 1 4 6 2 1 6 6 3 5 6 1 5 2 1 3 3 4 1 1 4 14 17 0 1 2 10 1 2 2 2 9 1 9 0 0 0 2 25 7 1 6 14 5 7 12 0 5 12 18 6 17 16 5 7 4 4 5 2 2 1 1 3 1 1 11 4 6 0 1 -2 2 2 3 2 2 12 -3 9 -5 3 3 3 2 5 3 2 4 0 4 2 5 9 0 4 2 6 -4 3 6 3 3 2 1 0 8 2 3 12 2 7 3 8 4 0 6 1 0 6 3 2 14 5 11 7 2 6 5 7 3 5 1 6 -2 -1 3 4 3 7 9 6 4 1 4 2 4 4 9 3 4 7 3 3 3 1 8 10 1 0 1 4 15 1 5 2 8 5 5 4 2 3 2 1 1 2 6 2 2 0 2 2 1 1 1 9 2 12 8 13 3 6 1 3 7 3 3 -1 17 5 1 4 4 6 10 -3 4 -2 10 17 3 0 0 4 4 14 11 2 4 1 4 2 2 2 13 8 5 4 2 -7 3 2 1 4 1 2 -2 9 6 2 5 -1 5 -2 -2 2 2 6 13 0 2 8 5 2 -3 5 3 -3 2 7 3 5 4 9 3 7 8 0 6 1 1 1 2 1 3 5 5 0 5 1 3 6 3 1 6 -3 19 4 3 0 6 8 6 2 5 9 -1 1 8 4 4 3 2 5 5 18 2 -1 1 4 2 7 1 4 5 -2 5 3 16 3 2 0 5 3 4 4 4 3 1 11 9 4 5 5 15 6 5 4 -4 5 -2 -2 5 8 5 13 0 0 0 5 1 -1 7 5 39 -1 5 4 15 1 1 4 2 5 0 2 5 3 4 1 1 19 2 2 -2 8 -1 6 12 2 2 3 1 8 6 11 5 4 1 9 4 2 24 13 2 0 2 5 -3 1 1 1 2 1 3 17 9 1 0 1 15 2 2 3 2 3 8 17 3 2 18 3 1 2 -1 7 2 1 1 14 3 7 2 8 5</t>
-  </si>
-  <si>
-    <t>0 9 13 30 4 4 21 5 -2 2 10 69 -5 2 9 7 6 7 1 8 18 9 9 7 3 8 8 5 5 11 1 18 1 13 5 0 27 2 4 8 5 30 5 21 3 4 11 16 19 8 9 28 6 16 3 9 5 -4 9 10 6 3 9 5 18 11 5 3 21 27 4 10 3 11 9 8 35 7 5 11 4 10 7 7 4 4 12 7 5 4 15 11 6 52 11 12 14 4 8 10 1 9 18 2 9 8 1 2 9 4 8 13 6 22 6 3 12 21 8 7 19 7 5 8 9 0 22 10 16 11 9 4 4 15 5 -2 1 27 13 5 15 8 1 5 -6 10 6 8 3 5 26 5 5 11 4 13 17 50 23 15 20 8 6 19 12 15 8 0 26 4 5 16 49 12 27 7 5 3 19 6 1 16 37 6 6 19 0 30 6 9 27 12 3 3 1 15 7 22 11 17 3 16 13 6 23 25 8 3 10 11 18 9 17 3 16 6 8 14 6 5 34 4 3 -2 9 12 5 8 6 5 18 4 7 5 2 0 10 11 21 22 4 14 5 16 24 2 6 13 17 9 9 43 11 5 12 7 25 30 14 5 2 5 0 11 8 10 0 20 6 4 15 6 11 18 15 12 21 53 10 9 2 5 11 12 9 8 8 7 35 10 14 10 8 -3 1 11 20 7 8 22 6 15 2 40 12 8 27 7 11 9 8 5 3 17 4 5 3 27 5 8 6 6 12 12 11 4 8 7 6 5 6 -5 14 5 3 22 7 4 10 23 4 13 13 9 -4 13 30 8 6 3 6 15 6 54 5 29 3 53 4 0 9 29 11 8 11 14 1 13 3 6 14 4 5 -6 7 23 27 8 15 11 6 10 20 12 13 7 -2 6 15 3 7 22 5 17 21 8 7 21 8 8 12 15 6 7 3 4 6 6 16 9 30 8 7 6 3 15 3 6 7 12 6 20 6 5 2 26 11 12 15 9 4 8 13 14 15 9 8 9 10 24 14 23 12 6 8 8 19 13 12 0 11 12 15 26 19 -5 18 26 7 19 20 10 19 -1 18 12 12 0 13 -3 14 12 5 22 12 10 14 6 8 4 11 4 6 7 3 3 2 9 10 4 21 18 14 28 19 14 12 11 11 6 9 -7 21 18 9 2 5 5 29 14 20 9 5 22 5 4 9 23 5 5 2 62 12 8 11 8 15 11 5 11 6 1 10 22 16 -3 46 3 7 -3 8 7 3 10 7 5 10 29 4 19 5 18 14 19 11 -2 15 4 14 7 11 8 3 2 22 16 11 9 1 6 6 27 3 17 14 14 8 13</t>
-  </si>
-  <si>
-    <t>-3 12 6 9 2 4 16 0 -2 2 -4 -1 4 8 7 -1 3 3 0 12 -2 6 0 1 3 1 2 80 -2 0 6 -2 -3 1 -2 7 0 -3 5 2 6 55 -4 -1 3 5 -2 5 16 0 1 1 2 1 2 2 11 3 12 1 4 3 1 1 3 4 16 0 1 0 6 10 1 2 0 3 3 22 0 3 3 5 15 5 -1 2 0 0 3 3 9 4 1 -1 6 1 19 2 4 2 -1 0 2 2 2 0 -3 3 -3 43 1 4 0 16 3 29 -1 4 10 3 3 1 2 8 2 3 0 -1 7 8 7 1 2 2 10 5 2 5 -2 15 11 11 5 1 9 1 1 4 5 2 7 2 -1 4 5 9 -1 3 4 1 4 5 7 14 17 12 5 -2 10 3 2 11 6 2 7 6 0 2 1 26 5 1 1 6 6 2 0 3 2 4 1 4 -3 4 3 4 3 3 8 1 2 0 11 -2 2 12 3 0 5 1 1 3 5 10 12 -1 1 3 11 2 5 5 3 7 4 6 1 3 7 2 2 7 6 1 -4 2 3 21 2 0 1 4 5 4 1 -3 0 2 9 -3 4 2 3 1 17 4 1 -3 2 3 5 8 -1 3 2 -4 4 -4 4 4 3 3 4 -2 12 2 5 -3 9 3 16 8 4 1 2 4 12 3 1 8 5 2 4 1 1 5 3 1 -3 14 3 3 6 3 4 1 3 2 2 3 2 3 0 2 4 3 4 9 10 19 4 6 15 18 1 -1 1 2 5 5 6 -4 4 -1 4 28 8 0 5 1 2 4 2 0 1 0 15 5 0 -2 -1 2 3 6 9 4 1 -2 3 11 0 5 40 4 3 2 7 6 22 -1 0 2 -1 0 1 4 -2 1 4 1 5 16 6 2 4 3 13 49 3 10 3 -1 0 -1 4 2 5 6 3 5 4 5 5 9 2 8 2 7 12 1 9 1 2 -1 7 8 4 1 7 2 3 1 5 8 4 3 2 2 9 0 14 3 -6 7 15 0 18 4 1 -1 9 2 5 2 7 7 2 4 2 26 9 16 1 -1 1 5 -2 12 3 -1 -5 7 3 8 4 11 0 1 14 2 2 0 13 4 13 1 10 0 -1 3 2 -3 10 4 7 2 -1 1 -2 1 0 -2 9 2 2 6 -1 7 4 0 2 2 2 4 16 1 7 2 0 4 3 5 2 3 1 2 11 2 3 18 9 11 22 1 2 2 7 5 5 1 0 -4 10 1 6 1 3 9 0 3 1 4 0 8 4 3 17 0 5 2 1 4 1 1 3 -2 3 6 3 12 5 9 2 32 6 1 3 10 10 0 13 3 0 -2 15 5 2 4 9 6 3 -2 1 6 -1 -2 0 1 -1 -1 -1 1 6 8 0 -4 6 7 4 9 4 5 -1 9 4 34 2 3 12 3 13 21 1 3 6 0 1 9 11 2 5 2 0 3 25 10 78 1 0 0 15 0 -4 4 0 4 11 7 13 24 8 15 0 1 7 6 3 9 2 14 3 -1 0 1 -3 5 0 4 1 2 7 3 2 20 9 9 0 -3 6 4 0 2 2 4 3 4 6 3 3 6 0 5 1 4 7 1 1 3 7 2 7 4 3 1 3 4 30 2 -5 2 5 0 7 -1 0 5 9 2 2 1 4 9 7 18 9 4 1 3 0 7 6 2 2 6 0 0 1 1 3 -1 3 5 -1 8 34 1 4 2 2 7 12 3 2 0 5 11 7 1 1 3 10 -1 2 4 7 1 3 6 0 8 9 2 16 5 1 0 -2 7 13 -2 2 2 -1 9 3 0 9 3 8 3 1 -1 2 -1 0 0 44</t>
-  </si>
-  <si>
-    <t>3 5 4 9 17 11 5 20 4 11 5 4 8 11 8 17 7 7 0 5 8 13 -1 14 10 11 11 4 22 2 15 4 18 8 4 11 10 4 18 18 8 9 5 10 4 10 15 5 1 24 13 2 1 10 20 9 1 45 25 12 14 11 11 3 6 12 17 5 12 4 13 4 1 21 6 -2 7 7 48 40 11 9 3 8 6 13 9 7 7 10 7 31 6 8 21 6 12 15 6 15 9 24 24 7 5 30 10 11 7 13 6 2 7 8 45 10 5 6 8 6 4 10 10 16 3 -3 3 43 4 7 30 15 18 4 7 2 7 6 12 23 13 15 3 9 5 12 8 9 14 8 5 12 8 3 17 6 6 6 11 8 9 38 5 6 8 18 4 13 9 15 18 30 5 13 2 36 7 4 15 23 -3 18 5 3 -4 14 9 25 14 16 8 6 8 19 26 16 5 41 10 7 0 9 5 8 33 11 4 5 5 6 13 15 -1 7 20 8 0 6 1 10 11 8 4 19 31 11 5 20 2 17 -6 18 1 4 6 13 18 8 3 14 3 9 39 54 9 2 21 10 5 5 22 9 4 10 10 9 13 9 11 3 5 2 4 1 -1 2 12 12 8 5 22 5 11 7 6 5 19 17 13 19 13 4 25 10 7 7 6 15 7 2 18 12 9 3 28 28 9 6 4 17 13 14 4 38 18 8 19 9 3 1 12 6 7 29 5 15 46 14 19 13 10 15 5 9 3 8 6 9 4 20 3 9 7 3 10 17 19 3 10 14 3 6 6 11 0 15 5 16 -1 3 17 6 44 5 15 9 3 16 2 13 6 4 6 5 28 7 5 6 13 14 8 7 4 8 9 10 4 12 7 15 22 9 11 8 17 3 8 4 24 8 9 17 7 13 6 13 18 7 10 12 10 6 10 12 2 7 10 12 2 19 26 11 31 11 13 -5 8 1 9 26 5 27 15 11 57 14 4 5 11 22 17 1 7 12 7 3 -2 7 5 5 2 7 -1 2 28 19 3 24 -1 10 10 3 11 8 9 32 3 -1 1 6 10 8 5 28 6 17 6 9 27 6 21 -3 9 7 24 14 4 31 27 5 11 14 16 4 7 10 0 12 7 10 9 1 23 9 14 18 9 15 12 11 6 6 2 20 -6 5 9 12 0 3 16 -2 14 18 22 16 2 13 5 22 17 5 17 6 10 6 12 0 13 17 6 7 5 12 9 2 39 4 15 5 7 28 25 3 24 5 4 19 3 15 28 9 11 4 8 4 1 9 20 4 26 3 22 8 46 22 29 28 6 3 13 0 3 9 16 4 26 2 46 9 21 8 54 8 10 11 6 21 10 19 9 8 6 13 13 9 20 12 1 10 2 17 3 12 11 12 27 31 2 28 19 7 11 17 15 4 7 7 12 3 6 8 6 6 16 57 12 23 31 49 25 8 36 20 43 3 26 1 19 7 5 8 13 3 4 7 7 6 9 1 8 65 15 8 0 8 1 7 6 5 7 6 6 8 20 13 1 20 40 10 11 5 4 -4 4 7 2 6 5 16 9 36 12 10 12 5 25 13 16 12 22 -2 2 28 9 7 7 2 1 19 4 2 15 13 6 8 6 18 19 6 21 7 26 5</t>
+    <t>3 5 -4 5 7 -2 6 5 2 3 8 4 0 2 6 2 5 7 0 5 1 -2 8 4 -2 3 13 2 2 4 5 0 4 3 1 12 2 5 -1 3 10 6 5 2 -1 2 2 9 7 2 2 6 2 3 2 8 5 3 4 11 -1 8 1 2 3 6 10 2 3 4 4 -2 -1 3 8 3 46 -2 5 0 6 2 3 4 2 2 5 1 4 2 4 4 6 1 8 13 2 9 4 0 2 4 11 2 1 9 3 7 4 4 0 7 13 3 0 6 5 2 1 13 -1 7 5 3 5 1 3 0 -2 5 -1 4 3 6 -2 12 1 8 34 1 14 8 -3 0 8 11 4 7 2 7 0 8 2 -3 20 -1 1 5 9 2 2 13 -1 2 3 7 6 4 0 3 9 3 5 2 2 3 1 6 4 2 5 0 5 6 0 8 5 2 5 4 3 2 3 3 2 15 3 7 1 2 3 3 3 1 0 5 14 2 8 5 1 -1 3 5 0 0 11 3 4 6 5 2 2 1 4 6 2 1 6 6 3 5 6 1 5 2 1 3 3 4 1 1 4 14 17 0 1 2 10 1 2 2 2 9 1 9 0 0 0 2 25 7 1 6 14 5 7 12 0 5 12 18 6 17 16 5 7 4 4 5 2 2 1 1 3 1 1 11 4 6 0 1 -2 2 2 3 2 2 12 -3 9 -5 3 3 3 2 5 3 2 4 0 4 2 5 9 0 4 2 6 -4 3 6 3 3 2 1 0 8 2 3 12 2 7 3 8 4 0 6 1 0 6 3 2 14 5 11 7 2 6 5 7 3 5 1 6 -2 -1 3 4 3 7 9 6 4 1 4 2 4 4 9 3 4 7 3 3 3 1 8 10 1 0 1 4 15 1 5 2 8 5 5 4 2 3 2 1 1 2 6 2 2 0 2 2 1 1 1 9 2 12 8 13 3 6 1 3 7 3 3 -1 17 5 1 4 4 6 10 -3 4 -2 10 17 3 0 0 4 4 14 11 2 4 1 4 2 2 2 13 8 5 4 2 -7 3 2 1 4 1 2 -2 9 6 2 5 -1 5 -2 -2 2 2 6 13 0 2 8 5 2 -3 5 3 -3 2 7 3 5 4 9 3 7 8 0 6 1 1 1 2 1 3 5 5 0 5 1 3 6 3 1 6 -3 19 4 3 0 6 8 6 2 5 9 -1 1 8 4 4 3 2 5 5 18 2 -1 1 4 2 7 1 4 5 -2 5 3 16 3 2 0 5 3 4 4 4 3 1 11 9 4 5 5 15 6 5 4 -4 5 -2 -2 5 8 5 13 0 0 0 5 1 -1 7 5 39 -1 5 4 15 1 1 4 2 5 0 2 5 3 4 1 1 19 2 2 -2 8 -1 6 12 2 2 3 1 8 6 11 5 4 1 9 4 2 24 13 2 0 2 5 -3 1 1 1 2 1 3 17 9 1 0 1 15 2 2 3 2 3 8 17 3 2 18 3 1 2 -1 7 2 1 1 14 3 7 2 8 5 6 8 11 1 2 2 3 1 5 3 5 7 4 1 -5 11 0 4 6 6 20 -2 2 1</t>
+  </si>
+  <si>
+    <t>0 9 13 30 4 4 21 5 -2 2 10 69 -5 2 9 7 6 7 1 8 18 9 9 7 3 8 8 5 5 11 1 18 1 13 5 0 27 2 4 8 5 30 5 21 3 4 11 16 19 8 9 28 6 16 3 9 5 -4 9 10 6 3 9 5 18 11 5 3 21 27 4 10 3 11 9 8 35 7 5 11 4 10 7 7 4 4 12 7 5 4 15 11 6 52 11 12 14 4 8 10 1 9 18 2 9 8 1 2 9 4 8 13 6 22 6 3 12 21 8 7 19 7 5 8 9 0 22 10 16 11 9 4 4 15 5 -2 1 27 13 5 15 8 1 5 -6 10 6 8 3 5 26 5 5 11 4 13 17 50 23 15 20 8 6 19 12 15 8 0 26 4 5 16 49 12 27 7 5 3 19 6 1 16 37 6 6 19 0 30 6 9 27 12 3 3 1 15 7 22 11 17 3 16 13 6 23 25 8 3 10 11 18 9 17 3 16 6 8 14 6 5 34 4 3 -2 9 12 5 8 6 5 18 4 7 5 2 0 10 11 21 22 4 14 5 16 24 2 6 13 17 9 9 43 11 5 12 7 25 30 14 5 2 5 0 11 8 10 0 20 6 4 15 6 11 18 15 12 21 53 10 9 2 5 11 12 9 8 8 7 35 10 14 10 8 -3 1 11 20 7 8 22 6 15 2 40 12 8 27 7 11 9 8 5 3 17 4 5 3 27 5 8 6 6 12 12 11 4 8 7 6 5 6 -5 14 5 3 22 7 4 10 23 4 13 13 9 -4 13 30 8 6 3 6 15 6 54 5 29 3 53 4 0 9 29 11 8 11 14 1 13 3 6 14 4 5 -6 7 23 27 8 15 11 6 10 20 12 13 7 -2 6 15 3 7 22 5 17 21 8 7 21 8 8 12 15 6 7 3 4 6 6 16 9 30 8 7 6 3 15 3 6 7 12 6 20 6 5 2 26 11 12 15 9 4 8 13 14 15 9 8 9 10 24 14 23 12 6 8 8 19 13 12 0 11 12 15 26 19 -5 18 26 7 19 20 10 19 -1 18 12 12 0 13 -3 14 12 5 22 12 10 14 6 8 4 11 4 6 7 3 3 2 9 10 4 21 18 14 28 19 14 12 11 11 6 9 -7 21 18 9 2 5 5 29 14 20 9 5 22 5 4 9 23 5 5 2 62 12 8 11 8 15 11 5 11 6 1 10 22 16 -3 46 3 7 -3 8 7 3 10 7 5 10 29 4 19 5 18 14 19 11 -2 15 4 14 7 11 8 3 2 22 16 11 9 1 6 6 27 3 17 14 14 8 13 16 2 14 19 4 11 6 23 1 9 24 10</t>
+  </si>
+  <si>
+    <t>-3 12 6 9 2 4 16 0 -2 2 -4 -1 4 8 7 -1 3 3 0 12 -2 6 0 1 3 1 2 80 -2 0 6 -2 -3 1 -2 7 0 -3 5 2 6 55 -4 -1 3 5 -2 5 16 0 1 1 2 1 2 2 11 3 12 1 4 3 1 1 3 4 16 0 1 0 6 10 1 2 0 3 3 22 0 3 3 5 15 5 -1 2 0 0 3 3 9 4 1 -1 6 1 19 2 4 2 -1 0 2 2 2 0 -3 3 -3 43 1 4 0 16 3 29 -1 4 10 3 3 1 2 8 2 3 0 -1 7 8 7 1 2 2 10 5 2 5 -2 15 11 11 5 1 9 1 1 4 5 2 7 2 -1 4 5 9 -1 3 4 1 4 5 7 14 17 12 5 -2 10 3 2 11 6 2 7 6 0 2 1 26 5 1 1 6 6 2 0 3 2 4 1 4 -3 4 3 4 3 3 8 1 2 0 11 -2 2 12 3 0 5 1 1 3 5 10 12 -1 1 3 11 2 5 5 3 7 4 6 1 3 7 2 2 7 6 1 -4 2 3 21 2 0 1 4 5 4 1 -3 0 2 9 -3 4 2 3 1 17 4 1 -3 2 3 5 8 -1 3 2 -4 4 -4 4 4 3 3 4 -2 12 2 5 -3 9 3 16 8 4 1 2 4 12 3 1 8 5 2 4 1 1 5 3 1 -3 14 3 3 6 3 4 1 3 2 2 3 2 3 0 2 4 3 4 9 10 19 4 6 15 18 1 -1 1 2 5 5 6 -4 4 -1 4 28 8 0 5 1 2 4 2 0 1 0 15 5 0 -2 -1 2 3 6 9 4 1 -2 3 11 0 5 40 4 3 2 7 6 22 -1 0 2 -1 0 1 4 -2 1 4 1 5 16 6 2 4 3 13 49 3 10 3 -1 0 -1 4 2 5 6 3 5 4 5 5 9 2 8 2 7 12 1 9 1 2 -1 7 8 4 1 7 2 3 1 5 8 4 3 2 2 9 0 14 3 -6 7 15 0 18 4 1 -1 9 2 5 2 7 7 2 4 2 26 9 16 1 -1 1 5 -2 12 3 -1 -5 7 3 8 4 11 0 1 14 2 2 0 13 4 13 1 10 0 -1 3 2 -3 10 4 7 2 -1 1 -2 1 0 -2 9 2 2 6 -1 7 4 0 2 2 2 4 16 1 7 2 0 4 3 5 2 3 1 2 11 2 3 18 9 11 22 1 2 2 7 5 5 1 0 -4 10 1 6 1 3 9 0 3 1 4 0 8 4 3 17 0 5 2 1 4 1 1 3 -2 3 6 3 12 5 9 2 32 6 1 3 10 10 0 13 3 0 -2 15 5 2 4 9 6 3 -2 1 6 -1 -2 0 1 -1 -1 -1 1 6 8 0 -4 6 7 4 9 4 5 -1 9 4 34 2 3 12 3 13 21 1 3 6 0 1 9 11 2 5 2 0 3 25 10 78 1 0 0 15 0 -4 4 0 4 11 7 13 24 8 15 0 1 7 6 3 9 2 14 3 -1 0 1 -3 5 0 4 1 2 7 3 2 20 9 9 0 -3 6 4 0 2 2 4 3 4 6 3 3 6 0 5 1 4 7 1 1 3 7 2 7 4 3 1 3 4 30 2 -5 2 5 0 7 -1 0 5 9 2 2 1 4 9 7 18 9 4 1 3 0 7 6 2 2 6 0 0 1 1 3 -1 3 5 -1 8 34 1 4 2 2 7 12 3 2 0 5 11 7 1 1 3 10 -1 2 4 7 1 3 6 0 8 9 2 16 5 1 0 -2 7 13 -2 2 2 -1 9 3 0 9 3 8 3 1 -1 2 -1 0 0 44 3 4 0 0 4 10 1 1 12 4 5 0 8 2 5 4 1 6 6 9 3 7 2 0 11 3 2 0 3 24 8 30 4 12 1 4</t>
+  </si>
+  <si>
+    <t>3 5 4 9 17 11 5 20 4 11 5 4 8 11 8 17 7 7 0 5 8 13 -1 14 10 11 11 4 22 2 15 4 18 8 4 11 10 4 18 18 8 9 5 10 4 10 15 5 1 24 13 2 1 10 20 9 1 45 25 12 14 11 11 3 6 12 17 5 12 4 13 4 1 21 6 -2 7 7 48 40 11 9 3 8 6 13 9 7 7 10 7 31 6 8 21 6 12 15 6 15 9 24 24 7 5 30 10 11 7 13 6 2 7 8 45 10 5 6 8 6 4 10 10 16 3 -3 3 43 4 7 30 15 18 4 7 2 7 6 12 23 13 15 3 9 5 12 8 9 14 8 5 12 8 3 17 6 6 6 11 8 9 38 5 6 8 18 4 13 9 15 18 30 5 13 2 36 7 4 15 23 -3 18 5 3 -4 14 9 25 14 16 8 6 8 19 26 16 5 41 10 7 0 9 5 8 33 11 4 5 5 6 13 15 -1 7 20 8 0 6 1 10 11 8 4 19 31 11 5 20 2 17 -6 18 1 4 6 13 18 8 3 14 3 9 39 54 9 2 21 10 5 5 22 9 4 10 10 9 13 9 11 3 5 2 4 1 -1 2 12 12 8 5 22 5 11 7 6 5 19 17 13 19 13 4 25 10 7 7 6 15 7 2 18 12 9 3 28 28 9 6 4 17 13 14 4 38 18 8 19 9 3 1 12 6 7 29 5 15 46 14 19 13 10 15 5 9 3 8 6 9 4 20 3 9 7 3 10 17 19 3 10 14 3 6 6 11 0 15 5 16 -1 3 17 6 44 5 15 9 3 16 2 13 6 4 6 5 28 7 5 6 13 14 8 7 4 8 9 10 4 12 7 15 22 9 11 8 17 3 8 4 24 8 9 17 7 13 6 13 18 7 10 12 10 6 10 12 2 7 10 12 2 19 26 11 31 11 13 -5 8 1 9 26 5 27 15 11 57 14 4 5 11 22 17 1 7 12 7 3 -2 7 5 5 2 7 -1 2 28 19 3 24 -1 10 10 3 11 8 9 32 3 -1 1 6 10 8 5 28 6 17 6 9 27 6 21 -3 9 7 24 14 4 31 27 5 11 14 16 4 7 10 0 12 7 10 9 1 23 9 14 18 9 15 12 11 6 6 2 20 -6 5 9 12 0 3 16 -2 14 18 22 16 2 13 5 22 17 5 17 6 10 6 12 0 13 17 6 7 5 12 9 2 39 4 15 5 7 28 25 3 24 5 4 19 3 15 28 9 11 4 8 4 1 9 20 4 26 3 22 8 46 22 29 28 6 3 13 0 3 9 16 4 26 2 46 9 21 8 54 8 10 11 6 21 10 19 9 8 6 13 13 9 20 12 1 10 2 17 3 12 11 12 27 31 2 28 19 7 11 17 15 4 7 7 12 3 6 8 6 6 16 57 12 23 31 49 25 8 36 20 43 3 26 1 19 7 5 8 13 3 4 7 7 6 9 1 8 65 15 8 0 8 1 7 6 5 7 6 6 8 20 13 1 20 40 10 11 5 4 -4 4 7 2 6 5 16 9 36 12 10 12 5 25 13 16 12 22 -2 2 28 9 7 7 2 1 19 4 2 15 13 6 8 6 18 19 6 21 7 26 5 5 1 9 37 15 12 4 27 20 20 7 1 17 9 11 1</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -170,13 +170,13 @@
     <t>26 16 27 17 32 19 9 40 18 8 13 20 21 25 17 20 25 15 28 17 28 6 15 35 25 33 0 18 66 11 20 24 21 19 20 22 16 0 38 18 21 23 30 24 26 16 15 27 65 27 22 23 25 19 25 35 24 27 25 33 18 29 33 29 20 20 31 29 79 28 32 30 23 21 23 42</t>
   </si>
   <si>
-    <t>58 45 43 47 48 37 52 44 41 39 46 45 38 40 42 45 51 53 42 54 54 42 33 37 50 54 40 41 54 39 48 52 49 35 47 39 36 46 48 37 60 44 38 34 49 42 50 25 47 48 38 52 46 44 58 46 42 47 47 42 32 36 42 45 44 42 54 57 50 38 37 44 14 49 40 38 36 32 52 41 26 56 50 65 40 37 57 42 45 50 49 37 45 48 51 49 56 40 52 40 40 59 56 36 54 49 51 45 51 57 48 44 46 45 38 43 33 38 43 44 29 40 33 52 51 60 47 49 54</t>
-  </si>
-  <si>
-    <t>16 10 2 23 19 0 0 0 0 0 0 12 0 0 0 14 0 10 41 5 0 3 0 0 16 1 0 0 30 0 14 15 7 0 19 7 0 15 0 0 0 36 0 0 0 5 0 0 0 0 0 12 7 0 0 12 0 11 0 14 0 0 0 0 0 0 12 19 34 10 0 0 0 0 3 0 0 17 8 12 0 4 9 0 0 0 12 15 0 0 0 0 5 0 11 16 22 0 0 0 6 0 15 0 4 17 13 0 0 10 0 0 26 0 0 0 0 0 0 7 0 0 0 11 12 13 0 0 18</t>
-  </si>
-  <si>
-    <t>0 0 0 0 0 0 0 0 0 11 0 0 0 9 0 0 0 0 0 0 0 0 0 0 14 0 16 0 0 0 0 0 0 0 11 0 18 0 0 0 9 0 0 0 12 0 0 0 0 0 0 0 0 0 15 0 0 0 0 6 0 0 0 0 0 0 0 14 0 18 0 0 0 0 0 0 0 16 0 0 8 0 9 0 19 0 0 17 0 0 0 0 0 28 5 0 11</t>
+    <t>58 45 43 47 48 37 52 44 41 39 46 45 38 40 42 45 51 53 42 54 54 42 33 37 50 54 40 41 54 39 48 52 49 35 47 39 36 46 48 37 60 44 38 34 49 42 50 25 47 48 38 52 46 44 58 46 42 47 47 42 32 36 42 45 44 42 54 57 50 38 37 44 14 49 40 38 36 32 52 41 26 56 50 65 40 37 57 42 45 50 49 37 45 48 51 49 56 40 52 40 40 59 56 36 54 49 51 45 51 57 48 44 46 45 38 43 33 38 43 44 29 40 33 52 51 60 47 49 54 48 52 50 29 37 63</t>
+  </si>
+  <si>
+    <t>16 10 2 23 19 0 0 0 0 0 0 12 0 0 0 14 0 10 41 5 0 3 0 0 16 1 0 0 30 0 14 15 7 0 19 7 0 15 0 0 0 36 0 0 0 5 0 0 0 0 0 12 7 0 0 12 0 11 0 14 0 0 0 0 0 0 12 19 34 10 0 0 0 0 3 0 0 17 8 12 0 4 9 0 0 0 12 15 0 0 0 0 5 0 11 16 22 0 0 0 6 0 15 0 4 17 13 0 0 10 0 0 26 0 0 0 0 0 0 7 0 0 0 11 12 13 0 0 18 0 0 0 0 0 5</t>
+  </si>
+  <si>
+    <t>0 0 0 0 0 0 0 0 0 11 0 0 0 9 0 0 0 0 0 0 0 0 0 0 14 0 16 0 0 0 0 0 0 0 11 0 18 0 0 0 9 0 0 0 12 0 0 0 0 0 0 0 0 0 15 0 0 0 0 6 0 0 0 0 0 0 0 14 0 18 0 0 0 0 0 0 0 16 0 0 8 0 9 0 19 0 0 17 0 0 0 0 0 28 5 0 11 0 11 12</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,28 +668,28 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2">
         <v>11</v>
       </c>
       <c r="F2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I2">
         <v>8</v>
       </c>
       <c r="J2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -701,10 +701,10 @@
         <v>308</v>
       </c>
       <c r="N2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="O2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P2">
         <v>17</v>
@@ -718,28 +718,28 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F3">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="G3">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H3">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I3">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="J3">
         <v>109</v>
@@ -748,10 +748,10 @@
         <v>26</v>
       </c>
       <c r="L3">
-        <v>480</v>
+        <v>504</v>
       </c>
       <c r="M3">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="N3">
         <v>41</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>828</v>
+        <v>883</v>
       </c>
     </row>
   </sheetData>
@@ -943,19 +943,19 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>408</v>
+        <v>425</v>
       </c>
       <c r="D2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2">
         <v>16</v>
       </c>
       <c r="F2">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="G2">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="H2">
         <v>12</v>
@@ -964,7 +964,7 @@
         <v>9</v>
       </c>
       <c r="J2">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -976,13 +976,13 @@
         <v>364</v>
       </c>
       <c r="N2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="Q2">
         <v>996</v>
@@ -996,16 +996,16 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F3">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="G3">
         <v>65</v>
@@ -1014,19 +1014,19 @@
         <v>47</v>
       </c>
       <c r="I3">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="J3">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>492</v>
+        <v>519</v>
       </c>
       <c r="M3">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="N3">
         <v>36</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>895</v>
+        <v>966</v>
       </c>
     </row>
   </sheetData>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
+        <v>19</v>
+      </c>
+      <c r="G2">
         <v>16</v>
-      </c>
-      <c r="G2">
-        <v>13</v>
       </c>
       <c r="H2">
         <v>11</v>
@@ -1239,10 +1239,10 @@
         <v>5</v>
       </c>
       <c r="J2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L2">
         <v>6</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1365,13 +1365,13 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E3">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1417,7 +1417,7 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>
@@ -1437,7 +1437,7 @@
         <v>58</v>
       </c>
       <c r="D4">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/Base/Teams/Jets/Team Data.xlsx
+++ b/Base/Teams/Jets/Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>3 5 -4 5 7 -2 6 5 2 3 8 4 0 2 6 2 5 7 0 5 1 -2 8 4 -2 3 13 2 2 4 5 0 4 3 1 12 2 5 -1 3 10 6 5 2 -1 2 2 9 7 2 2 6 2 3 2 8 5 3 4 11 -1 8 1 2 3 6 10 2 3 4 4 -2 -1 3 8 3 46 -2 5 0 6 2 3 4 2 2 5 1 4 2 4 4 6 1 8 13 2 9 4 0 2 4 11 2 1 9 3 7 4 4 0 7 13 3 0 6 5 2 1 13 -1 7 5 3 5 1 3 0 -2 5 -1 4 3 6 -2 12 1 8 34 1 14 8 -3 0 8 11 4 7 2 7 0 8 2 -3 20 -1 1 5 9 2 2 13 -1 2 3 7 6 4 0 3 9 3 5 2 2 3 1 6 4 2 5 0 5 6 0 8 5 2 5 4 3 2 3 3 2 15 3 7 1 2 3 3 3 1 0 5 14 2 8 5 1 -1 3 5 0 0 11 3 4 6 5 2 2 1 4 6 2 1 6 6 3 5 6 1 5 2 1 3 3 4 1 1 4 14 17 0 1 2 10 1 2 2 2 9 1 9 0 0 0 2 25 7 1 6 14 5 7 12 0 5 12 18 6 17 16 5 7 4 4 5 2 2 1 1 3 1 1 11 4 6 0 1 -2 2 2 3 2 2 12 -3 9 -5 3 3 3 2 5 3 2 4 0 4 2 5 9 0 4 2 6 -4 3 6 3 3 2 1 0 8 2 3 12 2 7 3 8 4 0 6 1 0 6 3 2 14 5 11 7 2 6 5 7 3 5 1 6 -2 -1 3 4 3 7 9 6 4 1 4 2 4 4 9 3 4 7 3 3 3 1 8 10 1 0 1 4 15 1 5 2 8 5 5 4 2 3 2 1 1 2 6 2 2 0 2 2 1 1 1 9 2 12 8 13 3 6 1 3 7 3 3 -1 17 5 1 4 4 6 10 -3 4 -2 10 17 3 0 0 4 4 14 11 2 4 1 4 2 2 2 13 8 5 4 2 -7 3 2 1 4 1 2 -2 9 6 2 5 -1 5 -2 -2 2 2 6 13 0 2 8 5 2 -3 5 3 -3 2 7 3 5 4 9 3 7 8 0 6 1 1 1 2 1 3 5 5 0 5 1 3 6 3 1 6 -3 19 4 3 0 6 8 6 2 5 9 -1 1 8 4 4 3 2 5 5 18 2 -1 1 4 2 7 1 4 5 -2 5 3 16 3 2 0 5 3 4 4 4 3 1 11 9 4 5 5 15 6 5 4 -4 5 -2 -2 5 8 5 13 0 0 0 5 1 -1 7 5 39 -1 5 4 15 1 1 4 2 5 0 2 5 3 4 1 1 19 2 2 -2 8 -1 6 12 2 2 3 1 8 6 11 5 4 1 9 4 2 24 13 2 0 2 5 -3 1 1 1 2 1 3 17 9 1 0 1 15 2 2 3 2 3 8 17 3 2 18 3 1 2 -1 7 2 1 1 14 3 7 2 8 5 6 8 11 1 2 2 3 1 5 3 5 7 4 1 -5 11 0 4 6 6 20 -2 2 1</t>
-  </si>
-  <si>
-    <t>0 9 13 30 4 4 21 5 -2 2 10 69 -5 2 9 7 6 7 1 8 18 9 9 7 3 8 8 5 5 11 1 18 1 13 5 0 27 2 4 8 5 30 5 21 3 4 11 16 19 8 9 28 6 16 3 9 5 -4 9 10 6 3 9 5 18 11 5 3 21 27 4 10 3 11 9 8 35 7 5 11 4 10 7 7 4 4 12 7 5 4 15 11 6 52 11 12 14 4 8 10 1 9 18 2 9 8 1 2 9 4 8 13 6 22 6 3 12 21 8 7 19 7 5 8 9 0 22 10 16 11 9 4 4 15 5 -2 1 27 13 5 15 8 1 5 -6 10 6 8 3 5 26 5 5 11 4 13 17 50 23 15 20 8 6 19 12 15 8 0 26 4 5 16 49 12 27 7 5 3 19 6 1 16 37 6 6 19 0 30 6 9 27 12 3 3 1 15 7 22 11 17 3 16 13 6 23 25 8 3 10 11 18 9 17 3 16 6 8 14 6 5 34 4 3 -2 9 12 5 8 6 5 18 4 7 5 2 0 10 11 21 22 4 14 5 16 24 2 6 13 17 9 9 43 11 5 12 7 25 30 14 5 2 5 0 11 8 10 0 20 6 4 15 6 11 18 15 12 21 53 10 9 2 5 11 12 9 8 8 7 35 10 14 10 8 -3 1 11 20 7 8 22 6 15 2 40 12 8 27 7 11 9 8 5 3 17 4 5 3 27 5 8 6 6 12 12 11 4 8 7 6 5 6 -5 14 5 3 22 7 4 10 23 4 13 13 9 -4 13 30 8 6 3 6 15 6 54 5 29 3 53 4 0 9 29 11 8 11 14 1 13 3 6 14 4 5 -6 7 23 27 8 15 11 6 10 20 12 13 7 -2 6 15 3 7 22 5 17 21 8 7 21 8 8 12 15 6 7 3 4 6 6 16 9 30 8 7 6 3 15 3 6 7 12 6 20 6 5 2 26 11 12 15 9 4 8 13 14 15 9 8 9 10 24 14 23 12 6 8 8 19 13 12 0 11 12 15 26 19 -5 18 26 7 19 20 10 19 -1 18 12 12 0 13 -3 14 12 5 22 12 10 14 6 8 4 11 4 6 7 3 3 2 9 10 4 21 18 14 28 19 14 12 11 11 6 9 -7 21 18 9 2 5 5 29 14 20 9 5 22 5 4 9 23 5 5 2 62 12 8 11 8 15 11 5 11 6 1 10 22 16 -3 46 3 7 -3 8 7 3 10 7 5 10 29 4 19 5 18 14 19 11 -2 15 4 14 7 11 8 3 2 22 16 11 9 1 6 6 27 3 17 14 14 8 13 16 2 14 19 4 11 6 23 1 9 24 10</t>
-  </si>
-  <si>
-    <t>-3 12 6 9 2 4 16 0 -2 2 -4 -1 4 8 7 -1 3 3 0 12 -2 6 0 1 3 1 2 80 -2 0 6 -2 -3 1 -2 7 0 -3 5 2 6 55 -4 -1 3 5 -2 5 16 0 1 1 2 1 2 2 11 3 12 1 4 3 1 1 3 4 16 0 1 0 6 10 1 2 0 3 3 22 0 3 3 5 15 5 -1 2 0 0 3 3 9 4 1 -1 6 1 19 2 4 2 -1 0 2 2 2 0 -3 3 -3 43 1 4 0 16 3 29 -1 4 10 3 3 1 2 8 2 3 0 -1 7 8 7 1 2 2 10 5 2 5 -2 15 11 11 5 1 9 1 1 4 5 2 7 2 -1 4 5 9 -1 3 4 1 4 5 7 14 17 12 5 -2 10 3 2 11 6 2 7 6 0 2 1 26 5 1 1 6 6 2 0 3 2 4 1 4 -3 4 3 4 3 3 8 1 2 0 11 -2 2 12 3 0 5 1 1 3 5 10 12 -1 1 3 11 2 5 5 3 7 4 6 1 3 7 2 2 7 6 1 -4 2 3 21 2 0 1 4 5 4 1 -3 0 2 9 -3 4 2 3 1 17 4 1 -3 2 3 5 8 -1 3 2 -4 4 -4 4 4 3 3 4 -2 12 2 5 -3 9 3 16 8 4 1 2 4 12 3 1 8 5 2 4 1 1 5 3 1 -3 14 3 3 6 3 4 1 3 2 2 3 2 3 0 2 4 3 4 9 10 19 4 6 15 18 1 -1 1 2 5 5 6 -4 4 -1 4 28 8 0 5 1 2 4 2 0 1 0 15 5 0 -2 -1 2 3 6 9 4 1 -2 3 11 0 5 40 4 3 2 7 6 22 -1 0 2 -1 0 1 4 -2 1 4 1 5 16 6 2 4 3 13 49 3 10 3 -1 0 -1 4 2 5 6 3 5 4 5 5 9 2 8 2 7 12 1 9 1 2 -1 7 8 4 1 7 2 3 1 5 8 4 3 2 2 9 0 14 3 -6 7 15 0 18 4 1 -1 9 2 5 2 7 7 2 4 2 26 9 16 1 -1 1 5 -2 12 3 -1 -5 7 3 8 4 11 0 1 14 2 2 0 13 4 13 1 10 0 -1 3 2 -3 10 4 7 2 -1 1 -2 1 0 -2 9 2 2 6 -1 7 4 0 2 2 2 4 16 1 7 2 0 4 3 5 2 3 1 2 11 2 3 18 9 11 22 1 2 2 7 5 5 1 0 -4 10 1 6 1 3 9 0 3 1 4 0 8 4 3 17 0 5 2 1 4 1 1 3 -2 3 6 3 12 5 9 2 32 6 1 3 10 10 0 13 3 0 -2 15 5 2 4 9 6 3 -2 1 6 -1 -2 0 1 -1 -1 -1 1 6 8 0 -4 6 7 4 9 4 5 -1 9 4 34 2 3 12 3 13 21 1 3 6 0 1 9 11 2 5 2 0 3 25 10 78 1 0 0 15 0 -4 4 0 4 11 7 13 24 8 15 0 1 7 6 3 9 2 14 3 -1 0 1 -3 5 0 4 1 2 7 3 2 20 9 9 0 -3 6 4 0 2 2 4 3 4 6 3 3 6 0 5 1 4 7 1 1 3 7 2 7 4 3 1 3 4 30 2 -5 2 5 0 7 -1 0 5 9 2 2 1 4 9 7 18 9 4 1 3 0 7 6 2 2 6 0 0 1 1 3 -1 3 5 -1 8 34 1 4 2 2 7 12 3 2 0 5 11 7 1 1 3 10 -1 2 4 7 1 3 6 0 8 9 2 16 5 1 0 -2 7 13 -2 2 2 -1 9 3 0 9 3 8 3 1 -1 2 -1 0 0 44 3 4 0 0 4 10 1 1 12 4 5 0 8 2 5 4 1 6 6 9 3 7 2 0 11 3 2 0 3 24 8 30 4 12 1 4</t>
-  </si>
-  <si>
-    <t>3 5 4 9 17 11 5 20 4 11 5 4 8 11 8 17 7 7 0 5 8 13 -1 14 10 11 11 4 22 2 15 4 18 8 4 11 10 4 18 18 8 9 5 10 4 10 15 5 1 24 13 2 1 10 20 9 1 45 25 12 14 11 11 3 6 12 17 5 12 4 13 4 1 21 6 -2 7 7 48 40 11 9 3 8 6 13 9 7 7 10 7 31 6 8 21 6 12 15 6 15 9 24 24 7 5 30 10 11 7 13 6 2 7 8 45 10 5 6 8 6 4 10 10 16 3 -3 3 43 4 7 30 15 18 4 7 2 7 6 12 23 13 15 3 9 5 12 8 9 14 8 5 12 8 3 17 6 6 6 11 8 9 38 5 6 8 18 4 13 9 15 18 30 5 13 2 36 7 4 15 23 -3 18 5 3 -4 14 9 25 14 16 8 6 8 19 26 16 5 41 10 7 0 9 5 8 33 11 4 5 5 6 13 15 -1 7 20 8 0 6 1 10 11 8 4 19 31 11 5 20 2 17 -6 18 1 4 6 13 18 8 3 14 3 9 39 54 9 2 21 10 5 5 22 9 4 10 10 9 13 9 11 3 5 2 4 1 -1 2 12 12 8 5 22 5 11 7 6 5 19 17 13 19 13 4 25 10 7 7 6 15 7 2 18 12 9 3 28 28 9 6 4 17 13 14 4 38 18 8 19 9 3 1 12 6 7 29 5 15 46 14 19 13 10 15 5 9 3 8 6 9 4 20 3 9 7 3 10 17 19 3 10 14 3 6 6 11 0 15 5 16 -1 3 17 6 44 5 15 9 3 16 2 13 6 4 6 5 28 7 5 6 13 14 8 7 4 8 9 10 4 12 7 15 22 9 11 8 17 3 8 4 24 8 9 17 7 13 6 13 18 7 10 12 10 6 10 12 2 7 10 12 2 19 26 11 31 11 13 -5 8 1 9 26 5 27 15 11 57 14 4 5 11 22 17 1 7 12 7 3 -2 7 5 5 2 7 -1 2 28 19 3 24 -1 10 10 3 11 8 9 32 3 -1 1 6 10 8 5 28 6 17 6 9 27 6 21 -3 9 7 24 14 4 31 27 5 11 14 16 4 7 10 0 12 7 10 9 1 23 9 14 18 9 15 12 11 6 6 2 20 -6 5 9 12 0 3 16 -2 14 18 22 16 2 13 5 22 17 5 17 6 10 6 12 0 13 17 6 7 5 12 9 2 39 4 15 5 7 28 25 3 24 5 4 19 3 15 28 9 11 4 8 4 1 9 20 4 26 3 22 8 46 22 29 28 6 3 13 0 3 9 16 4 26 2 46 9 21 8 54 8 10 11 6 21 10 19 9 8 6 13 13 9 20 12 1 10 2 17 3 12 11 12 27 31 2 28 19 7 11 17 15 4 7 7 12 3 6 8 6 6 16 57 12 23 31 49 25 8 36 20 43 3 26 1 19 7 5 8 13 3 4 7 7 6 9 1 8 65 15 8 0 8 1 7 6 5 7 6 6 8 20 13 1 20 40 10 11 5 4 -4 4 7 2 6 5 16 9 36 12 10 12 5 25 13 16 12 22 -2 2 28 9 7 7 2 1 19 4 2 15 13 6 8 6 18 19 6 21 7 26 5 5 1 9 37 15 12 4 27 20 20 7 1 17 9 11 1</t>
+    <t>3 5 -4 5 7 -2 6 5 2 3 8 4 0 2 6 2 5 7 0 5 1 -2 8 4 -2 3 13 2 2 4 5 0 4 3 1 12 2 5 -1 3 10 6 5 2 -1 2 2 9 7 2 2 6 2 3 2 8 5 3 4 11 -1 8 1 2 3 6 10 2 3 4 4 -2 -1 3 8 3 46 -2 5 0 6 2 3 4 2 2 5 1 4 2 4 4 6 1 8 13 2 9 4 0 2 4 11 2 1 9 3 7 4 4 0 7 13 3 0 6 5 2 1 13 -1 7 5 3 5 1 3 0 -2 5 -1 4 3 6 -2 12 1 8 34 1 14 8 -3 0 8 11 4 7 2 7 0 8 2 -3 20 -1 1 5 9 2 2 13 -1 2 3 7 6 4 0 3 9 3 5 2 2 3 1 6 4 2 5 0 5 6 0 8 5 2 5 4 3 2 3 3 2 15 3 7 1 2 3 3 3 1 0 5 14 2 8 5 1 -1 3 5 0 0 11 3 4 6 5 2 2 1 4 6 2 1 6 6 3 5 6 1 5 2 1 3 3 4 1 1 4 14 17 0 1 2 10 1 2 2 2 9 1 9 0 0 0 2 25 7 1 6 14 5 7 12 0 5 12 18 6 17 16 5 7 4 4 5 2 2 1 1 3 1 1 11 4 6 0 1 -2 2 2 3 2 2 12 -3 9 -5 3 3 3 2 5 3 2 4 0 4 2 5 9 0 4 2 6 -4 3 6 3 3 2 1 0 8 2 3 12 2 7 3 8 4 0 6 1 0 6 3 2 14 5 11 7 2 6 5 7 3 5 1 6 -2 -1 3 4 3 7 9 6 4 1 4 2 4 4 9 3 4 7 3 3 3 1 8 10 1 0 1 4 15 1 5 2 8 5 5 4 2 3 2 1 1 2 6 2 2 0 2 2 1 1 1 9 2 12 8 13 3 6 1 3 7 3 3 -1 17 5 1 4 4 6 10 -3 4 -2 10 17 3 0 0 4 4 14 11 2 4 1 4 2 2 2 13 8 5 4 2 -7 3 2 1 4 1 2 -2 9 6 2 5 -1 5 -2 -2 2 2 6 13 0 2 8 5 2 -3 5 3 -3 2 7 3 5 4 9 3 7 8 0 6 1 1 1 2 1 3 5 5 0 5 1 3 6 3 1 6 -3 19 4 3 0 6 8 6 2 5 9 -1 1 8 4 4 3 2 5 5 18 2 -1 1 4 2 7 1 4 5 -2 5 3 16 3 2 0 5 3 4 4 4 3 1 11 9 4 5 5 15 6 5 4 -4 5 -2 -2 5 8 5 13 0 0 0 5 1 -1 7 5 39 -1 5 4 15 1 1 4 2 5 0 2 5 3 4 1 1 19 2 2 -2 8 -1 6 12 2 2 3 1 8 6 11 5 4 1 9 4 2 24 13 2 0 2 5 -3 1 1 1 2 1 3 17 9 1 0 1 15 2 2 3 2 3 8 17 3 2 18 3 1 2 -1 7 2 1 1 14 3 7 2 8 5 6 8 11 1 2 2 3 1 5 3 5 7 4 1 -5 11 0 4 6 6 20 -2 2 1 8 3 3 52 1 6 3 14 3 3 1 4 5 0 14 9 4 12 -1 3 20 7 5 10 0 11 2 0 3 1 38 3 3 2</t>
+  </si>
+  <si>
+    <t>0 9 13 30 4 4 21 5 -2 2 10 69 -5 2 9 7 6 7 1 8 18 9 9 7 3 8 8 5 5 11 1 18 1 13 5 0 27 2 4 8 5 30 5 21 3 4 11 16 19 8 9 28 6 16 3 9 5 -4 9 10 6 3 9 5 18 11 5 3 21 27 4 10 3 11 9 8 35 7 5 11 4 10 7 7 4 4 12 7 5 4 15 11 6 52 11 12 14 4 8 10 1 9 18 2 9 8 1 2 9 4 8 13 6 22 6 3 12 21 8 7 19 7 5 8 9 0 22 10 16 11 9 4 4 15 5 -2 1 27 13 5 15 8 1 5 -6 10 6 8 3 5 26 5 5 11 4 13 17 50 23 15 20 8 6 19 12 15 8 0 26 4 5 16 49 12 27 7 5 3 19 6 1 16 37 6 6 19 0 30 6 9 27 12 3 3 1 15 7 22 11 17 3 16 13 6 23 25 8 3 10 11 18 9 17 3 16 6 8 14 6 5 34 4 3 -2 9 12 5 8 6 5 18 4 7 5 2 0 10 11 21 22 4 14 5 16 24 2 6 13 17 9 9 43 11 5 12 7 25 30 14 5 2 5 0 11 8 10 0 20 6 4 15 6 11 18 15 12 21 53 10 9 2 5 11 12 9 8 8 7 35 10 14 10 8 -3 1 11 20 7 8 22 6 15 2 40 12 8 27 7 11 9 8 5 3 17 4 5 3 27 5 8 6 6 12 12 11 4 8 7 6 5 6 -5 14 5 3 22 7 4 10 23 4 13 13 9 -4 13 30 8 6 3 6 15 6 54 5 29 3 53 4 0 9 29 11 8 11 14 1 13 3 6 14 4 5 -6 7 23 27 8 15 11 6 10 20 12 13 7 -2 6 15 3 7 22 5 17 21 8 7 21 8 8 12 15 6 7 3 4 6 6 16 9 30 8 7 6 3 15 3 6 7 12 6 20 6 5 2 26 11 12 15 9 4 8 13 14 15 9 8 9 10 24 14 23 12 6 8 8 19 13 12 0 11 12 15 26 19 -5 18 26 7 19 20 10 19 -1 18 12 12 0 13 -3 14 12 5 22 12 10 14 6 8 4 11 4 6 7 3 3 2 9 10 4 21 18 14 28 19 14 12 11 11 6 9 -7 21 18 9 2 5 5 29 14 20 9 5 22 5 4 9 23 5 5 2 62 12 8 11 8 15 11 5 11 6 1 10 22 16 -3 46 3 7 -3 8 7 3 10 7 5 10 29 4 19 5 18 14 19 11 -2 15 4 14 7 11 8 3 2 22 16 11 9 1 6 6 27 3 17 14 14 8 13 16 2 14 19 4 11 6 23 1 9 24 10 4 19 2 4 4 6 4 22 2 7 12 5</t>
+  </si>
+  <si>
+    <t>-3 12 6 9 2 4 16 0 -2 2 -4 -1 4 8 7 -1 3 3 0 12 -2 6 0 1 3 1 2 80 -2 0 6 -2 -3 1 -2 7 0 -3 5 2 6 55 -4 -1 3 5 -2 5 16 0 1 1 2 1 2 2 11 3 12 1 4 3 1 1 3 4 16 0 1 0 6 10 1 2 0 3 3 22 0 3 3 5 15 5 -1 2 0 0 3 3 9 4 1 -1 6 1 19 2 4 2 -1 0 2 2 2 0 -3 3 -3 43 1 4 0 16 3 29 -1 4 10 3 3 1 2 8 2 3 0 -1 7 8 7 1 2 2 10 5 2 5 -2 15 11 11 5 1 9 1 1 4 5 2 7 2 -1 4 5 9 -1 3 4 1 4 5 7 14 17 12 5 -2 10 3 2 11 6 2 7 6 0 2 1 26 5 1 1 6 6 2 0 3 2 4 1 4 -3 4 3 4 3 3 8 1 2 0 11 -2 2 12 3 0 5 1 1 3 5 10 12 -1 1 3 11 2 5 5 3 7 4 6 1 3 7 2 2 7 6 1 -4 2 3 21 2 0 1 4 5 4 1 -3 0 2 9 -3 4 2 3 1 17 4 1 -3 2 3 5 8 -1 3 2 -4 4 -4 4 4 3 3 4 -2 12 2 5 -3 9 3 16 8 4 1 2 4 12 3 1 8 5 2 4 1 1 5 3 1 -3 14 3 3 6 3 4 1 3 2 2 3 2 3 0 2 4 3 4 9 10 19 4 6 15 18 1 -1 1 2 5 5 6 -4 4 -1 4 28 8 0 5 1 2 4 2 0 1 0 15 5 0 -2 -1 2 3 6 9 4 1 -2 3 11 0 5 40 4 3 2 7 6 22 -1 0 2 -1 0 1 4 -2 1 4 1 5 16 6 2 4 3 13 49 3 10 3 -1 0 -1 4 2 5 6 3 5 4 5 5 9 2 8 2 7 12 1 9 1 2 -1 7 8 4 1 7 2 3 1 5 8 4 3 2 2 9 0 14 3 -6 7 15 0 18 4 1 -1 9 2 5 2 7 7 2 4 2 26 9 16 1 -1 1 5 -2 12 3 -1 -5 7 3 8 4 11 0 1 14 2 2 0 13 4 13 1 10 0 -1 3 2 -3 10 4 7 2 -1 1 -2 1 0 -2 9 2 2 6 -1 7 4 0 2 2 2 4 16 1 7 2 0 4 3 5 2 3 1 2 11 2 3 18 9 11 22 1 2 2 7 5 5 1 0 -4 10 1 6 1 3 9 0 3 1 4 0 8 4 3 17 0 5 2 1 4 1 1 3 -2 3 6 3 12 5 9 2 32 6 1 3 10 10 0 13 3 0 -2 15 5 2 4 9 6 3 -2 1 6 -1 -2 0 1 -1 -1 -1 1 6 8 0 -4 6 7 4 9 4 5 -1 9 4 34 2 3 12 3 13 21 1 3 6 0 1 9 11 2 5 2 0 3 25 10 78 1 0 0 15 0 -4 4 0 4 11 7 13 24 8 15 0 1 7 6 3 9 2 14 3 -1 0 1 -3 5 0 4 1 2 7 3 2 20 9 9 0 -3 6 4 0 2 2 4 3 4 6 3 3 6 0 5 1 4 7 1 1 3 7 2 7 4 3 1 3 4 30 2 -5 2 5 0 7 -1 0 5 9 2 2 1 4 9 7 18 9 4 1 3 0 7 6 2 2 6 0 0 1 1 3 -1 3 5 -1 8 34 1 4 2 2 7 12 3 2 0 5 11 7 1 1 3 10 -1 2 4 7 1 3 6 0 8 9 2 16 5 1 0 -2 7 13 -2 2 2 -1 9 3 0 9 3 8 3 1 -1 2 -1 0 0 44 3 4 0 0 4 10 1 1 12 4 5 0 8 2 5 4 1 6 6 9 3 7 2 0 11 3 2 0 3 24 8 30 4 12 1 4 3 0 9 3 1 1 6 6 6 0 8 0 2 4 3 2 4 7 1 6 3 9 7 2 3 6 1 0 26</t>
+  </si>
+  <si>
+    <t>3 5 4 9 17 11 5 20 4 11 5 4 8 11 8 17 7 7 0 5 8 13 -1 14 10 11 11 4 22 2 15 4 18 8 4 11 10 4 18 18 8 9 5 10 4 10 15 5 1 24 13 2 1 10 20 9 1 45 25 12 14 11 11 3 6 12 17 5 12 4 13 4 1 21 6 -2 7 7 48 40 11 9 3 8 6 13 9 7 7 10 7 31 6 8 21 6 12 15 6 15 9 24 24 7 5 30 10 11 7 13 6 2 7 8 45 10 5 6 8 6 4 10 10 16 3 -3 3 43 4 7 30 15 18 4 7 2 7 6 12 23 13 15 3 9 5 12 8 9 14 8 5 12 8 3 17 6 6 6 11 8 9 38 5 6 8 18 4 13 9 15 18 30 5 13 2 36 7 4 15 23 -3 18 5 3 -4 14 9 25 14 16 8 6 8 19 26 16 5 41 10 7 0 9 5 8 33 11 4 5 5 6 13 15 -1 7 20 8 0 6 1 10 11 8 4 19 31 11 5 20 2 17 -6 18 1 4 6 13 18 8 3 14 3 9 39 54 9 2 21 10 5 5 22 9 4 10 10 9 13 9 11 3 5 2 4 1 -1 2 12 12 8 5 22 5 11 7 6 5 19 17 13 19 13 4 25 10 7 7 6 15 7 2 18 12 9 3 28 28 9 6 4 17 13 14 4 38 18 8 19 9 3 1 12 6 7 29 5 15 46 14 19 13 10 15 5 9 3 8 6 9 4 20 3 9 7 3 10 17 19 3 10 14 3 6 6 11 0 15 5 16 -1 3 17 6 44 5 15 9 3 16 2 13 6 4 6 5 28 7 5 6 13 14 8 7 4 8 9 10 4 12 7 15 22 9 11 8 17 3 8 4 24 8 9 17 7 13 6 13 18 7 10 12 10 6 10 12 2 7 10 12 2 19 26 11 31 11 13 -5 8 1 9 26 5 27 15 11 57 14 4 5 11 22 17 1 7 12 7 3 -2 7 5 5 2 7 -1 2 28 19 3 24 -1 10 10 3 11 8 9 32 3 -1 1 6 10 8 5 28 6 17 6 9 27 6 21 -3 9 7 24 14 4 31 27 5 11 14 16 4 7 10 0 12 7 10 9 1 23 9 14 18 9 15 12 11 6 6 2 20 -6 5 9 12 0 3 16 -2 14 18 22 16 2 13 5 22 17 5 17 6 10 6 12 0 13 17 6 7 5 12 9 2 39 4 15 5 7 28 25 3 24 5 4 19 3 15 28 9 11 4 8 4 1 9 20 4 26 3 22 8 46 22 29 28 6 3 13 0 3 9 16 4 26 2 46 9 21 8 54 8 10 11 6 21 10 19 9 8 6 13 13 9 20 12 1 10 2 17 3 12 11 12 27 31 2 28 19 7 11 17 15 4 7 7 12 3 6 8 6 6 16 57 12 23 31 49 25 8 36 20 43 3 26 1 19 7 5 8 13 3 4 7 7 6 9 1 8 65 15 8 0 8 1 7 6 5 7 6 6 8 20 13 1 20 40 10 11 5 4 -4 4 7 2 6 5 16 9 36 12 10 12 5 25 13 16 12 22 -2 2 28 9 7 7 2 1 19 4 2 15 13 6 8 6 18 19 6 21 7 26 5 5 1 9 37 15 12 4 27 20 20 7 1 17 9 11 1 1 4 12 9 9 8 17 10 11 1 7 5 10 25 19 11 13 22 18 17 8 7 6 6 4</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>64 61 61 62 48 44 67 66 64 64 70 68 64 70 70 67 67 64 58 67 68 70 61 65 64 54 67 44 66 65 49 62 70 56 61 64 62 66 67 50 55 64 66 62 55 64 62</t>
-  </si>
-  <si>
-    <t>31 16 29 26 7 8 22 31 23 22 58 23 26 29 24 21 24 31 17 32 24 24 31 27 21 0 18 21 16 21 21 18 29 16 31 26 18 25 18 3 15 16 22 28 21 5 13</t>
-  </si>
-  <si>
-    <t>26 16 27 17 32 19 9 40 18 8 13 20 21 25 17 20 25 15 28 17 28 6 15 35 25 33 0 18 66 11 20 24 21 19 20 22 16 0 38 18 21 23 30 24 26 16 15 27 65 27 22 23 25 19 25 35 24 27 25 33 18 29 33 29 20 20 31 29 79 28 32 30 23 21 23 42</t>
-  </si>
-  <si>
-    <t>58 45 43 47 48 37 52 44 41 39 46 45 38 40 42 45 51 53 42 54 54 42 33 37 50 54 40 41 54 39 48 52 49 35 47 39 36 46 48 37 60 44 38 34 49 42 50 25 47 48 38 52 46 44 58 46 42 47 47 42 32 36 42 45 44 42 54 57 50 38 37 44 14 49 40 38 36 32 52 41 26 56 50 65 40 37 57 42 45 50 49 37 45 48 51 49 56 40 52 40 40 59 56 36 54 49 51 45 51 57 48 44 46 45 38 43 33 38 43 44 29 40 33 52 51 60 47 49 54 48 52 50 29 37 63</t>
-  </si>
-  <si>
-    <t>16 10 2 23 19 0 0 0 0 0 0 12 0 0 0 14 0 10 41 5 0 3 0 0 16 1 0 0 30 0 14 15 7 0 19 7 0 15 0 0 0 36 0 0 0 5 0 0 0 0 0 12 7 0 0 12 0 11 0 14 0 0 0 0 0 0 12 19 34 10 0 0 0 0 3 0 0 17 8 12 0 4 9 0 0 0 12 15 0 0 0 0 5 0 11 16 22 0 0 0 6 0 15 0 4 17 13 0 0 10 0 0 26 0 0 0 0 0 0 7 0 0 0 11 12 13 0 0 18 0 0 0 0 0 5</t>
-  </si>
-  <si>
-    <t>0 0 0 0 0 0 0 0 0 11 0 0 0 9 0 0 0 0 0 0 0 0 0 0 14 0 16 0 0 0 0 0 0 0 11 0 18 0 0 0 9 0 0 0 12 0 0 0 0 0 0 0 0 0 15 0 0 0 0 6 0 0 0 0 0 0 0 14 0 18 0 0 0 0 0 0 0 16 0 0 8 0 9 0 19 0 0 17 0 0 0 0 0 28 5 0 11 0 11 12</t>
+    <t>64 61 61 62 48 44 67 66 64 64 70 68 64 70 70 67 67 64 58 67 68 70 61 65 64 54 67 44 66 65 49 62 70 56 61 64 62 66 67 50 55 64 66 62 55 64 62 64</t>
+  </si>
+  <si>
+    <t>31 16 29 26 7 8 22 31 23 22 58 23 26 29 24 21 24 31 17 32 24 24 31 27 21 0 18 21 16 21 21 18 29 16 31 26 18 25 18 3 15 16 22 28 21 5 13 23</t>
+  </si>
+  <si>
+    <t>26 16 27 17 32 19 9 40 18 8 13 20 21 25 17 20 25 15 28 17 28 6 15 35 25 33 0 18 66 11 20 24 21 19 20 22 16 0 38 18 21 23 30 24 26 16 15 27 65 27 22 23 25 19 25 35 24 27 25 33 18 29 33 29 20 20 31 29 79 28 32 30 23 21 23 42 20 2 34 31 29 19</t>
+  </si>
+  <si>
+    <t>58 45 43 47 48 37 52 44 41 39 46 45 38 40 42 45 51 53 42 54 54 42 33 37 50 54 40 41 54 39 48 52 49 35 47 39 36 46 48 37 60 44 38 34 49 42 50 25 47 48 38 52 46 44 58 46 42 47 47 42 32 36 42 45 44 42 54 57 50 38 37 44 14 49 40 38 36 32 52 41 26 56 50 65 40 37 57 42 45 50 49 37 45 48 51 49 56 40 52 40 40 59 56 36 54 49 51 45 51 57 48 44 46 45 38 43 33 38 43 44 29 40 33 52 51 60 47 49 54 48 52 50 29 37 63 55</t>
+  </si>
+  <si>
+    <t>16 10 2 23 19 0 0 0 0 0 0 12 0 0 0 14 0 10 41 5 0 3 0 0 16 1 0 0 30 0 14 15 7 0 19 7 0 15 0 0 0 36 0 0 0 5 0 0 0 0 0 12 7 0 0 12 0 11 0 14 0 0 0 0 0 0 12 19 34 10 0 0 0 0 3 0 0 17 8 12 0 4 9 0 0 0 12 15 0 0 0 0 5 0 11 16 22 0 0 0 6 0 15 0 4 17 13 0 0 10 0 0 26 0 0 0 0 0 0 7 0 0 0 11 12 13 0 0 18 0 0 0 0 0 5 4</t>
+  </si>
+  <si>
+    <t>0 0 0 0 0 0 0 0 0 11 0 0 0 9 0 0 0 0 0 0 0 0 0 0 14 0 16 0 0 0 0 0 0 0 11 0 18 0 0 0 9 0 0 0 12 0 0 0 0 0 0 0 0 0 15 0 0 0 0 6 0 0 0 0 0 0 0 14 0 18 0 0 0 0 0 0 0 16 0 0 8 0 9 0 19 0 0 17 0 0 0 0 0 28 5 0 11 0 11 12 12</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,19 +668,19 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>341</v>
+        <v>360</v>
       </c>
       <c r="D2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>11</v>
       </c>
       <c r="F2">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="G2">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="H2">
         <v>10</v>
@@ -689,28 +689,28 @@
         <v>8</v>
       </c>
       <c r="J2">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>521</v>
+        <v>543</v>
       </c>
       <c r="M2">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="N2">
         <v>45</v>
       </c>
       <c r="O2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="Q2">
-        <v>924</v>
+        <v>983</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -721,28 +721,28 @@
         <v>17</v>
       </c>
       <c r="C3">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F3">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="G3">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I3">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="J3">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -754,7 +754,7 @@
         <v>297</v>
       </c>
       <c r="N3">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -943,19 +943,19 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>425</v>
+        <v>438</v>
       </c>
       <c r="D2">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E2">
         <v>16</v>
       </c>
       <c r="F2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G2">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="H2">
         <v>12</v>
@@ -964,28 +964,28 @@
         <v>9</v>
       </c>
       <c r="J2">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>531</v>
+        <v>569</v>
       </c>
       <c r="M2">
-        <v>364</v>
+        <v>390</v>
       </c>
       <c r="N2">
         <v>26</v>
       </c>
       <c r="O2">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="P2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Q2">
-        <v>996</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -993,31 +993,31 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F3">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="G3">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="H3">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="J3">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -1029,7 +1029,7 @@
         <v>369</v>
       </c>
       <c r="N3">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H2">
         <v>11</v>
@@ -1239,16 +1239,16 @@
         <v>5</v>
       </c>
       <c r="J2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N2">
         <v>3</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1354,7 +1354,7 @@
         <v>6</v>
       </c>
       <c r="E2">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1368,10 +1368,10 @@
         <v>7</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1403,13 +1403,13 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
       </c>
       <c r="D2">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1437,7 +1437,7 @@
         <v>58</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/Base/Teams/Jets/Team Data.xlsx
+++ b/Base/Teams/Jets/Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>3 5 -4 5 7 -2 6 5 2 3 8 4 0 2 6 2 5 7 0 5 1 -2 8 4 -2 3 13 2 2 4 5 0 4 3 1 12 2 5 -1 3 10 6 5 2 -1 2 2 9 7 2 2 6 2 3 2 8 5 3 4 11 -1 8 1 2 3 6 10 2 3 4 4 -2 -1 3 8 3 46 -2 5 0 6 2 3 4 2 2 5 1 4 2 4 4 6 1 8 13 2 9 4 0 2 4 11 2 1 9 3 7 4 4 0 7 13 3 0 6 5 2 1 13 -1 7 5 3 5 1 3 0 -2 5 -1 4 3 6 -2 12 1 8 34 1 14 8 -3 0 8 11 4 7 2 7 0 8 2 -3 20 -1 1 5 9 2 2 13 -1 2 3 7 6 4 0 3 9 3 5 2 2 3 1 6 4 2 5 0 5 6 0 8 5 2 5 4 3 2 3 3 2 15 3 7 1 2 3 3 3 1 0 5 14 2 8 5 1 -1 3 5 0 0 11 3 4 6 5 2 2 1 4 6 2 1 6 6 3 5 6 1 5 2 1 3 3 4 1 1 4 14 17 0 1 2 10 1 2 2 2 9 1 9 0 0 0 2 25 7 1 6 14 5 7 12 0 5 12 18 6 17 16 5 7 4 4 5 2 2 1 1 3 1 1 11 4 6 0 1 -2 2 2 3 2 2 12 -3 9 -5 3 3 3 2 5 3 2 4 0 4 2 5 9 0 4 2 6 -4 3 6 3 3 2 1 0 8 2 3 12 2 7 3 8 4 0 6 1 0 6 3 2 14 5 11 7 2 6 5 7 3 5 1 6 -2 -1 3 4 3 7 9 6 4 1 4 2 4 4 9 3 4 7 3 3 3 1 8 10 1 0 1 4 15 1 5 2 8 5 5 4 2 3 2 1 1 2 6 2 2 0 2 2 1 1 1 9 2 12 8 13 3 6 1 3 7 3 3 -1 17 5 1 4 4 6 10 -3 4 -2 10 17 3 0 0 4 4 14 11 2 4 1 4 2 2 2 13 8 5 4 2 -7 3 2 1 4 1 2 -2 9 6 2 5 -1 5 -2 -2 2 2 6 13 0 2 8 5 2 -3 5 3 -3 2 7 3 5 4 9 3 7 8 0 6 1 1 1 2 1 3 5 5 0 5 1 3 6 3 1 6 -3 19 4 3 0 6 8 6 2 5 9 -1 1 8 4 4 3 2 5 5 18 2 -1 1 4 2 7 1 4 5 -2 5 3 16 3 2 0 5 3 4 4 4 3 1 11 9 4 5 5 15 6 5 4 -4 5 -2 -2 5 8 5 13 0 0 0 5 1 -1 7 5 39 -1 5 4 15 1 1 4 2 5 0 2 5 3 4 1 1 19 2 2 -2 8 -1 6 12 2 2 3 1 8 6 11 5 4 1 9 4 2 24 13 2 0 2 5 -3 1 1 1 2 1 3 17 9 1 0 1 15 2 2 3 2 3 8 17 3 2 18 3 1 2 -1 7 2 1 1 14 3 7 2 8 5 6 8 11 1 2 2 3 1 5 3 5 7 4 1 -5 11 0 4 6 6 20 -2 2 1 8 3 3 52 1 6 3 14 3 3 1 4 5 0 14 9 4 12 -1 3 20 7 5 10 0 11 2 0 3 1 38 3 3 2</t>
-  </si>
-  <si>
-    <t>0 9 13 30 4 4 21 5 -2 2 10 69 -5 2 9 7 6 7 1 8 18 9 9 7 3 8 8 5 5 11 1 18 1 13 5 0 27 2 4 8 5 30 5 21 3 4 11 16 19 8 9 28 6 16 3 9 5 -4 9 10 6 3 9 5 18 11 5 3 21 27 4 10 3 11 9 8 35 7 5 11 4 10 7 7 4 4 12 7 5 4 15 11 6 52 11 12 14 4 8 10 1 9 18 2 9 8 1 2 9 4 8 13 6 22 6 3 12 21 8 7 19 7 5 8 9 0 22 10 16 11 9 4 4 15 5 -2 1 27 13 5 15 8 1 5 -6 10 6 8 3 5 26 5 5 11 4 13 17 50 23 15 20 8 6 19 12 15 8 0 26 4 5 16 49 12 27 7 5 3 19 6 1 16 37 6 6 19 0 30 6 9 27 12 3 3 1 15 7 22 11 17 3 16 13 6 23 25 8 3 10 11 18 9 17 3 16 6 8 14 6 5 34 4 3 -2 9 12 5 8 6 5 18 4 7 5 2 0 10 11 21 22 4 14 5 16 24 2 6 13 17 9 9 43 11 5 12 7 25 30 14 5 2 5 0 11 8 10 0 20 6 4 15 6 11 18 15 12 21 53 10 9 2 5 11 12 9 8 8 7 35 10 14 10 8 -3 1 11 20 7 8 22 6 15 2 40 12 8 27 7 11 9 8 5 3 17 4 5 3 27 5 8 6 6 12 12 11 4 8 7 6 5 6 -5 14 5 3 22 7 4 10 23 4 13 13 9 -4 13 30 8 6 3 6 15 6 54 5 29 3 53 4 0 9 29 11 8 11 14 1 13 3 6 14 4 5 -6 7 23 27 8 15 11 6 10 20 12 13 7 -2 6 15 3 7 22 5 17 21 8 7 21 8 8 12 15 6 7 3 4 6 6 16 9 30 8 7 6 3 15 3 6 7 12 6 20 6 5 2 26 11 12 15 9 4 8 13 14 15 9 8 9 10 24 14 23 12 6 8 8 19 13 12 0 11 12 15 26 19 -5 18 26 7 19 20 10 19 -1 18 12 12 0 13 -3 14 12 5 22 12 10 14 6 8 4 11 4 6 7 3 3 2 9 10 4 21 18 14 28 19 14 12 11 11 6 9 -7 21 18 9 2 5 5 29 14 20 9 5 22 5 4 9 23 5 5 2 62 12 8 11 8 15 11 5 11 6 1 10 22 16 -3 46 3 7 -3 8 7 3 10 7 5 10 29 4 19 5 18 14 19 11 -2 15 4 14 7 11 8 3 2 22 16 11 9 1 6 6 27 3 17 14 14 8 13 16 2 14 19 4 11 6 23 1 9 24 10 4 19 2 4 4 6 4 22 2 7 12 5</t>
-  </si>
-  <si>
-    <t>-3 12 6 9 2 4 16 0 -2 2 -4 -1 4 8 7 -1 3 3 0 12 -2 6 0 1 3 1 2 80 -2 0 6 -2 -3 1 -2 7 0 -3 5 2 6 55 -4 -1 3 5 -2 5 16 0 1 1 2 1 2 2 11 3 12 1 4 3 1 1 3 4 16 0 1 0 6 10 1 2 0 3 3 22 0 3 3 5 15 5 -1 2 0 0 3 3 9 4 1 -1 6 1 19 2 4 2 -1 0 2 2 2 0 -3 3 -3 43 1 4 0 16 3 29 -1 4 10 3 3 1 2 8 2 3 0 -1 7 8 7 1 2 2 10 5 2 5 -2 15 11 11 5 1 9 1 1 4 5 2 7 2 -1 4 5 9 -1 3 4 1 4 5 7 14 17 12 5 -2 10 3 2 11 6 2 7 6 0 2 1 26 5 1 1 6 6 2 0 3 2 4 1 4 -3 4 3 4 3 3 8 1 2 0 11 -2 2 12 3 0 5 1 1 3 5 10 12 -1 1 3 11 2 5 5 3 7 4 6 1 3 7 2 2 7 6 1 -4 2 3 21 2 0 1 4 5 4 1 -3 0 2 9 -3 4 2 3 1 17 4 1 -3 2 3 5 8 -1 3 2 -4 4 -4 4 4 3 3 4 -2 12 2 5 -3 9 3 16 8 4 1 2 4 12 3 1 8 5 2 4 1 1 5 3 1 -3 14 3 3 6 3 4 1 3 2 2 3 2 3 0 2 4 3 4 9 10 19 4 6 15 18 1 -1 1 2 5 5 6 -4 4 -1 4 28 8 0 5 1 2 4 2 0 1 0 15 5 0 -2 -1 2 3 6 9 4 1 -2 3 11 0 5 40 4 3 2 7 6 22 -1 0 2 -1 0 1 4 -2 1 4 1 5 16 6 2 4 3 13 49 3 10 3 -1 0 -1 4 2 5 6 3 5 4 5 5 9 2 8 2 7 12 1 9 1 2 -1 7 8 4 1 7 2 3 1 5 8 4 3 2 2 9 0 14 3 -6 7 15 0 18 4 1 -1 9 2 5 2 7 7 2 4 2 26 9 16 1 -1 1 5 -2 12 3 -1 -5 7 3 8 4 11 0 1 14 2 2 0 13 4 13 1 10 0 -1 3 2 -3 10 4 7 2 -1 1 -2 1 0 -2 9 2 2 6 -1 7 4 0 2 2 2 4 16 1 7 2 0 4 3 5 2 3 1 2 11 2 3 18 9 11 22 1 2 2 7 5 5 1 0 -4 10 1 6 1 3 9 0 3 1 4 0 8 4 3 17 0 5 2 1 4 1 1 3 -2 3 6 3 12 5 9 2 32 6 1 3 10 10 0 13 3 0 -2 15 5 2 4 9 6 3 -2 1 6 -1 -2 0 1 -1 -1 -1 1 6 8 0 -4 6 7 4 9 4 5 -1 9 4 34 2 3 12 3 13 21 1 3 6 0 1 9 11 2 5 2 0 3 25 10 78 1 0 0 15 0 -4 4 0 4 11 7 13 24 8 15 0 1 7 6 3 9 2 14 3 -1 0 1 -3 5 0 4 1 2 7 3 2 20 9 9 0 -3 6 4 0 2 2 4 3 4 6 3 3 6 0 5 1 4 7 1 1 3 7 2 7 4 3 1 3 4 30 2 -5 2 5 0 7 -1 0 5 9 2 2 1 4 9 7 18 9 4 1 3 0 7 6 2 2 6 0 0 1 1 3 -1 3 5 -1 8 34 1 4 2 2 7 12 3 2 0 5 11 7 1 1 3 10 -1 2 4 7 1 3 6 0 8 9 2 16 5 1 0 -2 7 13 -2 2 2 -1 9 3 0 9 3 8 3 1 -1 2 -1 0 0 44 3 4 0 0 4 10 1 1 12 4 5 0 8 2 5 4 1 6 6 9 3 7 2 0 11 3 2 0 3 24 8 30 4 12 1 4 3 0 9 3 1 1 6 6 6 0 8 0 2 4 3 2 4 7 1 6 3 9 7 2 3 6 1 0 26</t>
-  </si>
-  <si>
-    <t>3 5 4 9 17 11 5 20 4 11 5 4 8 11 8 17 7 7 0 5 8 13 -1 14 10 11 11 4 22 2 15 4 18 8 4 11 10 4 18 18 8 9 5 10 4 10 15 5 1 24 13 2 1 10 20 9 1 45 25 12 14 11 11 3 6 12 17 5 12 4 13 4 1 21 6 -2 7 7 48 40 11 9 3 8 6 13 9 7 7 10 7 31 6 8 21 6 12 15 6 15 9 24 24 7 5 30 10 11 7 13 6 2 7 8 45 10 5 6 8 6 4 10 10 16 3 -3 3 43 4 7 30 15 18 4 7 2 7 6 12 23 13 15 3 9 5 12 8 9 14 8 5 12 8 3 17 6 6 6 11 8 9 38 5 6 8 18 4 13 9 15 18 30 5 13 2 36 7 4 15 23 -3 18 5 3 -4 14 9 25 14 16 8 6 8 19 26 16 5 41 10 7 0 9 5 8 33 11 4 5 5 6 13 15 -1 7 20 8 0 6 1 10 11 8 4 19 31 11 5 20 2 17 -6 18 1 4 6 13 18 8 3 14 3 9 39 54 9 2 21 10 5 5 22 9 4 10 10 9 13 9 11 3 5 2 4 1 -1 2 12 12 8 5 22 5 11 7 6 5 19 17 13 19 13 4 25 10 7 7 6 15 7 2 18 12 9 3 28 28 9 6 4 17 13 14 4 38 18 8 19 9 3 1 12 6 7 29 5 15 46 14 19 13 10 15 5 9 3 8 6 9 4 20 3 9 7 3 10 17 19 3 10 14 3 6 6 11 0 15 5 16 -1 3 17 6 44 5 15 9 3 16 2 13 6 4 6 5 28 7 5 6 13 14 8 7 4 8 9 10 4 12 7 15 22 9 11 8 17 3 8 4 24 8 9 17 7 13 6 13 18 7 10 12 10 6 10 12 2 7 10 12 2 19 26 11 31 11 13 -5 8 1 9 26 5 27 15 11 57 14 4 5 11 22 17 1 7 12 7 3 -2 7 5 5 2 7 -1 2 28 19 3 24 -1 10 10 3 11 8 9 32 3 -1 1 6 10 8 5 28 6 17 6 9 27 6 21 -3 9 7 24 14 4 31 27 5 11 14 16 4 7 10 0 12 7 10 9 1 23 9 14 18 9 15 12 11 6 6 2 20 -6 5 9 12 0 3 16 -2 14 18 22 16 2 13 5 22 17 5 17 6 10 6 12 0 13 17 6 7 5 12 9 2 39 4 15 5 7 28 25 3 24 5 4 19 3 15 28 9 11 4 8 4 1 9 20 4 26 3 22 8 46 22 29 28 6 3 13 0 3 9 16 4 26 2 46 9 21 8 54 8 10 11 6 21 10 19 9 8 6 13 13 9 20 12 1 10 2 17 3 12 11 12 27 31 2 28 19 7 11 17 15 4 7 7 12 3 6 8 6 6 16 57 12 23 31 49 25 8 36 20 43 3 26 1 19 7 5 8 13 3 4 7 7 6 9 1 8 65 15 8 0 8 1 7 6 5 7 6 6 8 20 13 1 20 40 10 11 5 4 -4 4 7 2 6 5 16 9 36 12 10 12 5 25 13 16 12 22 -2 2 28 9 7 7 2 1 19 4 2 15 13 6 8 6 18 19 6 21 7 26 5 5 1 9 37 15 12 4 27 20 20 7 1 17 9 11 1 1 4 12 9 9 8 17 10 11 1 7 5 10 25 19 11 13 22 18 17 8 7 6 6 4</t>
+    <t>3 5 -4 5 7 -2 6 5 2 3 8 4 0 2 6 2 5 7 0 5 1 -2 8 4 -2 3 13 2 2 4 5 0 4 3 1 12 2 5 -1 3 10 6 5 2 -1 2 2 9 7 2 2 6 2 3 2 8 5 3 4 11 -1 8 1 2 3 6 10 2 3 4 4 -2 -1 3 8 3 46 -2 5 0 6 2 3 4 2 2 5 1 4 2 4 4 6 1 8 13 2 9 4 0 2 4 11 2 1 9 3 7 4 4 0 7 13 3 0 6 5 2 1 13 -1 7 5 3 5 1 3 0 -2 5 -1 4 3 6 -2 12 1 8 34 1 14 8 -3 0 8 11 4 7 2 7 0 8 2 -3 20 -1 1 5 9 2 2 13 -1 2 3 7 6 4 0 3 9 3 5 2 2 3 1 6 4 2 5 0 5 6 0 8 5 2 5 4 3 2 3 3 2 15 3 7 1 2 3 3 3 1 0 5 14 2 8 5 1 -1 3 5 0 0 11 3 4 6 5 2 2 1 4 6 2 1 6 6 3 5 6 1 5 2 1 3 3 4 1 1 4 14 17 0 1 2 10 1 2 2 2 9 1 9 0 0 0 2 25 7 1 6 14 5 7 12 0 5 12 18 6 17 16 5 7 4 4 5 2 2 1 1 3 1 1 11 4 6 0 1 -2 2 2 3 2 2 12 -3 9 -5 3 3 3 2 5 3 2 4 0 4 2 5 9 0 4 2 6 -4 3 6 3 3 2 1 0 8 2 3 12 2 7 3 8 4 0 6 1 0 6 3 2 14 5 11 7 2 6 5 7 3 5 1 6 -2 -1 3 4 3 7 9 6 4 1 4 2 4 4 9 3 4 7 3 3 3 1 8 10 1 0 1 4 15 1 5 2 8 5 5 4 2 3 2 1 1 2 6 2 2 0 2 2 1 1 1 9 2 12 8 13 3 6 1 3 7 3 3 -1 17 5 1 4 4 6 10 -3 4 -2 10 17 3 0 0 4 4 14 11 2 4 1 4 2 2 2 13 8 5 4 2 -7 3 2 1 4 1 2 -2 9 6 2 5 -1 5 -2 -2 2 2 6 13 0 2 8 5 2 -3 5 3 -3 2 7 3 5 4 9 3 7 8 0 6 1 1 1 2 1 3 5 5 0 5 1 3 6 3 1 6 -3 19 4 3 0 6 8 6 2 5 9 -1 1 8 4 4 3 2 5 5 18 2 -1 1 4 2 7 1 4 5 -2 5 3 16 3 2 0 5 3 4 4 4 3 1 11 9 4 5 5 15 6 5 4 -4 5 -2 -2 5 8 5 13 0 0 0 5 1 -1 7 5 39 -1 5 4 15 1 1 4 2 5 0 2 5 3 4 1 1 19 2 2 -2 8 -1 6 12 2 2 3 1 8 6 11 5 4 1 9 4 2 24 13 2 0 2 5 -3 1 1 1 2 1 3 17 9 1 0 1 15 2 2 3 2 3 8 17 3 2 18 3 1 2 -1 7 2 1 1 14 3 7 2 8 5 6 8 11 1 2 2 3 1 5 3 5 7 4 1 -5 11 0 4 6 6 20 -2 2 1 8 3 3 52 1 6 3 14 3 3 1 4 5 0 14 9 4 12 -1 3 20 7 5 10 0 11 2 0 3 1 38 3 3 2 55 2 0 1 -1 14 2 1 4 12 1 9 0 -1 0 1 0 0 11 7 2 4 22 -1 5</t>
+  </si>
+  <si>
+    <t>0 9 13 30 4 4 21 5 -2 2 10 69 -5 2 9 7 6 7 1 8 18 9 9 7 3 8 8 5 5 11 1 18 1 13 5 0 27 2 4 8 5 30 5 21 3 4 11 16 19 8 9 28 6 16 3 9 5 -4 9 10 6 3 9 5 18 11 5 3 21 27 4 10 3 11 9 8 35 7 5 11 4 10 7 7 4 4 12 7 5 4 15 11 6 52 11 12 14 4 8 10 1 9 18 2 9 8 1 2 9 4 8 13 6 22 6 3 12 21 8 7 19 7 5 8 9 0 22 10 16 11 9 4 4 15 5 -2 1 27 13 5 15 8 1 5 -6 10 6 8 3 5 26 5 5 11 4 13 17 50 23 15 20 8 6 19 12 15 8 0 26 4 5 16 49 12 27 7 5 3 19 6 1 16 37 6 6 19 0 30 6 9 27 12 3 3 1 15 7 22 11 17 3 16 13 6 23 25 8 3 10 11 18 9 17 3 16 6 8 14 6 5 34 4 3 -2 9 12 5 8 6 5 18 4 7 5 2 0 10 11 21 22 4 14 5 16 24 2 6 13 17 9 9 43 11 5 12 7 25 30 14 5 2 5 0 11 8 10 0 20 6 4 15 6 11 18 15 12 21 53 10 9 2 5 11 12 9 8 8 7 35 10 14 10 8 -3 1 11 20 7 8 22 6 15 2 40 12 8 27 7 11 9 8 5 3 17 4 5 3 27 5 8 6 6 12 12 11 4 8 7 6 5 6 -5 14 5 3 22 7 4 10 23 4 13 13 9 -4 13 30 8 6 3 6 15 6 54 5 29 3 53 4 0 9 29 11 8 11 14 1 13 3 6 14 4 5 -6 7 23 27 8 15 11 6 10 20 12 13 7 -2 6 15 3 7 22 5 17 21 8 7 21 8 8 12 15 6 7 3 4 6 6 16 9 30 8 7 6 3 15 3 6 7 12 6 20 6 5 2 26 11 12 15 9 4 8 13 14 15 9 8 9 10 24 14 23 12 6 8 8 19 13 12 0 11 12 15 26 19 -5 18 26 7 19 20 10 19 -1 18 12 12 0 13 -3 14 12 5 22 12 10 14 6 8 4 11 4 6 7 3 3 2 9 10 4 21 18 14 28 19 14 12 11 11 6 9 -7 21 18 9 2 5 5 29 14 20 9 5 22 5 4 9 23 5 5 2 62 12 8 11 8 15 11 5 11 6 1 10 22 16 -3 46 3 7 -3 8 7 3 10 7 5 10 29 4 19 5 18 14 19 11 -2 15 4 14 7 11 8 3 2 22 16 11 9 1 6 6 27 3 17 14 14 8 13 16 2 14 19 4 11 6 23 1 9 24 10 4 19 2 4 4 6 4 22 2 7 12 5 9 9 13 5 9 12 5 9 24 11 24 19 2 23 11 21 14 4</t>
+  </si>
+  <si>
+    <t>-3 12 6 9 2 4 16 0 -2 2 -4 -1 4 8 7 -1 3 3 0 12 -2 6 0 1 3 1 2 80 -2 0 6 -2 -3 1 -2 7 0 -3 5 2 6 55 -4 -1 3 5 -2 5 16 0 1 1 2 1 2 2 11 3 12 1 4 3 1 1 3 4 16 0 1 0 6 10 1 2 0 3 3 22 0 3 3 5 15 5 -1 2 0 0 3 3 9 4 1 -1 6 1 19 2 4 2 -1 0 2 2 2 0 -3 3 -3 43 1 4 0 16 3 29 -1 4 10 3 3 1 2 8 2 3 0 -1 7 8 7 1 2 2 10 5 2 5 -2 15 11 11 5 1 9 1 1 4 5 2 7 2 -1 4 5 9 -1 3 4 1 4 5 7 14 17 12 5 -2 10 3 2 11 6 2 7 6 0 2 1 26 5 1 1 6 6 2 0 3 2 4 1 4 -3 4 3 4 3 3 8 1 2 0 11 -2 2 12 3 0 5 1 1 3 5 10 12 -1 1 3 11 2 5 5 3 7 4 6 1 3 7 2 2 7 6 1 -4 2 3 21 2 0 1 4 5 4 1 -3 0 2 9 -3 4 2 3 1 17 4 1 -3 2 3 5 8 -1 3 2 -4 4 -4 4 4 3 3 4 -2 12 2 5 -3 9 3 16 8 4 1 2 4 12 3 1 8 5 2 4 1 1 5 3 1 -3 14 3 3 6 3 4 1 3 2 2 3 2 3 0 2 4 3 4 9 10 19 4 6 15 18 1 -1 1 2 5 5 6 -4 4 -1 4 28 8 0 5 1 2 4 2 0 1 0 15 5 0 -2 -1 2 3 6 9 4 1 -2 3 11 0 5 40 4 3 2 7 6 22 -1 0 2 -1 0 1 4 -2 1 4 1 5 16 6 2 4 3 13 49 3 10 3 -1 0 -1 4 2 5 6 3 5 4 5 5 9 2 8 2 7 12 1 9 1 2 -1 7 8 4 1 7 2 3 1 5 8 4 3 2 2 9 0 14 3 -6 7 15 0 18 4 1 -1 9 2 5 2 7 7 2 4 2 26 9 16 1 -1 1 5 -2 12 3 -1 -5 7 3 8 4 11 0 1 14 2 2 0 13 4 13 1 10 0 -1 3 2 -3 10 4 7 2 -1 1 -2 1 0 -2 9 2 2 6 -1 7 4 0 2 2 2 4 16 1 7 2 0 4 3 5 2 3 1 2 11 2 3 18 9 11 22 1 2 2 7 5 5 1 0 -4 10 1 6 1 3 9 0 3 1 4 0 8 4 3 17 0 5 2 1 4 1 1 3 -2 3 6 3 12 5 9 2 32 6 1 3 10 10 0 13 3 0 -2 15 5 2 4 9 6 3 -2 1 6 -1 -2 0 1 -1 -1 -1 1 6 8 0 -4 6 7 4 9 4 5 -1 9 4 34 2 3 12 3 13 21 1 3 6 0 1 9 11 2 5 2 0 3 25 10 78 1 0 0 15 0 -4 4 0 4 11 7 13 24 8 15 0 1 7 6 3 9 2 14 3 -1 0 1 -3 5 0 4 1 2 7 3 2 20 9 9 0 -3 6 4 0 2 2 4 3 4 6 3 3 6 0 5 1 4 7 1 1 3 7 2 7 4 3 1 3 4 30 2 -5 2 5 0 7 -1 0 5 9 2 2 1 4 9 7 18 9 4 1 3 0 7 6 2 2 6 0 0 1 1 3 -1 3 5 -1 8 34 1 4 2 2 7 12 3 2 0 5 11 7 1 1 3 10 -1 2 4 7 1 3 6 0 8 9 2 16 5 1 0 -2 7 13 -2 2 2 -1 9 3 0 9 3 8 3 1 -1 2 -1 0 0 44 3 4 0 0 4 10 1 1 12 4 5 0 8 2 5 4 1 6 6 9 3 7 2 0 11 3 2 0 3 24 8 30 4 12 1 4 3 0 9 3 1 1 6 6 6 0 8 0 2 4 3 2 4 7 1 6 3 9 7 2 3 6 1 0 26 6 3 4 6 6 -1 7 5 4 -5 5 -2 5 -4 1 2 3 11 4 0 2</t>
+  </si>
+  <si>
+    <t>3 5 4 9 17 11 5 20 4 11 5 4 8 11 8 17 7 7 0 5 8 13 -1 14 10 11 11 4 22 2 15 4 18 8 4 11 10 4 18 18 8 9 5 10 4 10 15 5 1 24 13 2 1 10 20 9 1 45 25 12 14 11 11 3 6 12 17 5 12 4 13 4 1 21 6 -2 7 7 48 40 11 9 3 8 6 13 9 7 7 10 7 31 6 8 21 6 12 15 6 15 9 24 24 7 5 30 10 11 7 13 6 2 7 8 45 10 5 6 8 6 4 10 10 16 3 -3 3 43 4 7 30 15 18 4 7 2 7 6 12 23 13 15 3 9 5 12 8 9 14 8 5 12 8 3 17 6 6 6 11 8 9 38 5 6 8 18 4 13 9 15 18 30 5 13 2 36 7 4 15 23 -3 18 5 3 -4 14 9 25 14 16 8 6 8 19 26 16 5 41 10 7 0 9 5 8 33 11 4 5 5 6 13 15 -1 7 20 8 0 6 1 10 11 8 4 19 31 11 5 20 2 17 -6 18 1 4 6 13 18 8 3 14 3 9 39 54 9 2 21 10 5 5 22 9 4 10 10 9 13 9 11 3 5 2 4 1 -1 2 12 12 8 5 22 5 11 7 6 5 19 17 13 19 13 4 25 10 7 7 6 15 7 2 18 12 9 3 28 28 9 6 4 17 13 14 4 38 18 8 19 9 3 1 12 6 7 29 5 15 46 14 19 13 10 15 5 9 3 8 6 9 4 20 3 9 7 3 10 17 19 3 10 14 3 6 6 11 0 15 5 16 -1 3 17 6 44 5 15 9 3 16 2 13 6 4 6 5 28 7 5 6 13 14 8 7 4 8 9 10 4 12 7 15 22 9 11 8 17 3 8 4 24 8 9 17 7 13 6 13 18 7 10 12 10 6 10 12 2 7 10 12 2 19 26 11 31 11 13 -5 8 1 9 26 5 27 15 11 57 14 4 5 11 22 17 1 7 12 7 3 -2 7 5 5 2 7 -1 2 28 19 3 24 -1 10 10 3 11 8 9 32 3 -1 1 6 10 8 5 28 6 17 6 9 27 6 21 -3 9 7 24 14 4 31 27 5 11 14 16 4 7 10 0 12 7 10 9 1 23 9 14 18 9 15 12 11 6 6 2 20 -6 5 9 12 0 3 16 -2 14 18 22 16 2 13 5 22 17 5 17 6 10 6 12 0 13 17 6 7 5 12 9 2 39 4 15 5 7 28 25 3 24 5 4 19 3 15 28 9 11 4 8 4 1 9 20 4 26 3 22 8 46 22 29 28 6 3 13 0 3 9 16 4 26 2 46 9 21 8 54 8 10 11 6 21 10 19 9 8 6 13 13 9 20 12 1 10 2 17 3 12 11 12 27 31 2 28 19 7 11 17 15 4 7 7 12 3 6 8 6 6 16 57 12 23 31 49 25 8 36 20 43 3 26 1 19 7 5 8 13 3 4 7 7 6 9 1 8 65 15 8 0 8 1 7 6 5 7 6 6 8 20 13 1 20 40 10 11 5 4 -4 4 7 2 6 5 16 9 36 12 10 12 5 25 13 16 12 22 -2 2 28 9 7 7 2 1 19 4 2 15 13 6 8 6 18 19 6 21 7 26 5 5 1 9 37 15 12 4 27 20 20 7 1 17 9 11 1 1 4 12 9 9 8 17 10 11 1 7 5 10 25 19 11 13 22 18 17 8 7 6 6 4 1 4 9 15 7 4 31 21 3 2 21 14 6 24 14 9 8 20 14 1 8 32 9 21 3 12 8 3 6 6 27 10 33</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>64 61 61 62 48 44 67 66 64 64 70 68 64 70 70 67 67 64 58 67 68 70 61 65 64 54 67 44 66 65 49 62 70 56 61 64 62 66 67 50 55 64 66 62 55 64 62 64</t>
-  </si>
-  <si>
-    <t>31 16 29 26 7 8 22 31 23 22 58 23 26 29 24 21 24 31 17 32 24 24 31 27 21 0 18 21 16 21 21 18 29 16 31 26 18 25 18 3 15 16 22 28 21 5 13 23</t>
-  </si>
-  <si>
-    <t>26 16 27 17 32 19 9 40 18 8 13 20 21 25 17 20 25 15 28 17 28 6 15 35 25 33 0 18 66 11 20 24 21 19 20 22 16 0 38 18 21 23 30 24 26 16 15 27 65 27 22 23 25 19 25 35 24 27 25 33 18 29 33 29 20 20 31 29 79 28 32 30 23 21 23 42 20 2 34 31 29 19</t>
-  </si>
-  <si>
-    <t>58 45 43 47 48 37 52 44 41 39 46 45 38 40 42 45 51 53 42 54 54 42 33 37 50 54 40 41 54 39 48 52 49 35 47 39 36 46 48 37 60 44 38 34 49 42 50 25 47 48 38 52 46 44 58 46 42 47 47 42 32 36 42 45 44 42 54 57 50 38 37 44 14 49 40 38 36 32 52 41 26 56 50 65 40 37 57 42 45 50 49 37 45 48 51 49 56 40 52 40 40 59 56 36 54 49 51 45 51 57 48 44 46 45 38 43 33 38 43 44 29 40 33 52 51 60 47 49 54 48 52 50 29 37 63 55</t>
-  </si>
-  <si>
-    <t>16 10 2 23 19 0 0 0 0 0 0 12 0 0 0 14 0 10 41 5 0 3 0 0 16 1 0 0 30 0 14 15 7 0 19 7 0 15 0 0 0 36 0 0 0 5 0 0 0 0 0 12 7 0 0 12 0 11 0 14 0 0 0 0 0 0 12 19 34 10 0 0 0 0 3 0 0 17 8 12 0 4 9 0 0 0 12 15 0 0 0 0 5 0 11 16 22 0 0 0 6 0 15 0 4 17 13 0 0 10 0 0 26 0 0 0 0 0 0 7 0 0 0 11 12 13 0 0 18 0 0 0 0 0 5 4</t>
-  </si>
-  <si>
-    <t>0 0 0 0 0 0 0 0 0 11 0 0 0 9 0 0 0 0 0 0 0 0 0 0 14 0 16 0 0 0 0 0 0 0 11 0 18 0 0 0 9 0 0 0 12 0 0 0 0 0 0 0 0 0 15 0 0 0 0 6 0 0 0 0 0 0 0 14 0 18 0 0 0 0 0 0 0 16 0 0 8 0 9 0 19 0 0 17 0 0 0 0 0 28 5 0 11 0 11 12 12</t>
+    <t>64 61 61 62 48 44 67 66 64 64 70 68 64 70 70 67 67 64 58 67 68 70 61 65 64 54 67 44 66 65 49 62 70 56 61 64 62 66 67 50 55 64 66 62 55 64 62 64 62</t>
+  </si>
+  <si>
+    <t>31 16 29 26 7 8 22 31 23 22 58 23 26 29 24 21 24 31 17 32 24 24 31 27 21 0 18 21 16 21 21 18 29 16 31 26 18 25 18 3 15 16 22 28 21 5 13 23 7</t>
+  </si>
+  <si>
+    <t>26 16 27 17 32 19 9 40 18 8 13 20 21 25 17 20 25 15 28 17 28 6 15 35 25 33 0 18 66 11 20 24 21 19 20 22 16 0 38 18 21 23 30 24 26 16 15 27 65 27 22 23 25 19 25 35 24 27 25 33 18 29 33 29 20 20 31 29 79 28 32 30 23 21 23 42 20 2 34 31 29 19 26 27 13 25 28</t>
+  </si>
+  <si>
+    <t>58 45 43 47 48 37 52 44 41 39 46 45 38 40 42 45 51 53 42 54 54 42 33 37 50 54 40 41 54 39 48 52 49 35 47 39 36 46 48 37 60 44 38 34 49 42 50 25 47 48 38 52 46 44 58 46 42 47 47 42 32 36 42 45 44 42 54 57 50 38 37 44 14 49 40 38 36 32 52 41 26 56 50 65 40 37 57 42 45 50 49 37 45 48 51 49 56 40 52 40 40 59 56 36 54 49 51 45 51 57 48 44 46 45 38 43 33 38 43 44 29 40 33 52 51 60 47 49 54 48 52 50 29 37 63 55 38 32 46 38</t>
+  </si>
+  <si>
+    <t>16 10 2 23 19 0 0 0 0 0 0 12 0 0 0 14 0 10 41 5 0 3 0 0 16 1 0 0 30 0 14 15 7 0 19 7 0 15 0 0 0 36 0 0 0 5 0 0 0 0 0 12 7 0 0 12 0 11 0 14 0 0 0 0 0 0 12 19 34 10 0 0 0 0 3 0 0 17 8 12 0 4 9 0 0 0 12 15 0 0 0 0 5 0 11 16 22 0 0 0 6 0 15 0 4 17 13 0 0 10 0 0 26 0 0 0 0 0 0 7 0 0 0 11 12 13 0 0 18 0 0 0 0 0 5 4 0 0 3 0</t>
+  </si>
+  <si>
+    <t>0 0 0 0 0 0 0 0 0 11 0 0 0 9 0 0 0 0 0 0 0 0 0 0 14 0 16 0 0 0 0 0 0 0 11 0 18 0 0 0 9 0 0 0 12 0 0 0 0 0 0 0 0 0 15 0 0 0 0 6 0 0 0 0 0 0 0 14 0 18 0 0 0 0 0 0 0 16 0 0 8 0 9 0 19 0 0 17 0 0 0 0 0 28 5 0 11 0 11 12 12 0 0 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -665,22 +665,22 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="D2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G2">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="H2">
         <v>10</v>
@@ -689,28 +689,28 @@
         <v>8</v>
       </c>
       <c r="J2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>543</v>
+        <v>575</v>
       </c>
       <c r="M2">
-        <v>322</v>
+        <v>340</v>
       </c>
       <c r="N2">
         <v>45</v>
       </c>
       <c r="O2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P2">
         <v>20</v>
       </c>
       <c r="Q2">
-        <v>983</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -721,16 +721,16 @@
         <v>17</v>
       </c>
       <c r="C3">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F3">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="G3">
         <v>65</v>
@@ -739,10 +739,10 @@
         <v>45</v>
       </c>
       <c r="I3">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="J3">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -754,7 +754,7 @@
         <v>297</v>
       </c>
       <c r="N3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -940,10 +940,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="D2">
         <v>30</v>
@@ -952,10 +952,10 @@
         <v>16</v>
       </c>
       <c r="F2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G2">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="H2">
         <v>12</v>
@@ -964,28 +964,28 @@
         <v>9</v>
       </c>
       <c r="J2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>569</v>
+        <v>618</v>
       </c>
       <c r="M2">
-        <v>390</v>
+        <v>424</v>
       </c>
       <c r="N2">
         <v>26</v>
       </c>
       <c r="O2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q2">
-        <v>1071</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -996,28 +996,28 @@
         <v>17</v>
       </c>
       <c r="C3">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="D3">
         <v>11</v>
       </c>
       <c r="E3">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F3">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="G3">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H3">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I3">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="J3">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -1029,7 +1029,7 @@
         <v>369</v>
       </c>
       <c r="N3">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H2">
         <v>11</v>
@@ -1251,10 +1251,10 @@
         <v>4</v>
       </c>
       <c r="N2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1348,7 +1348,7 @@
         <v>18</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>6</v>
@@ -1371,7 +1371,7 @@
         <v>6</v>
       </c>
       <c r="E3">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1403,7 +1403,7 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>

--- a/Base/Teams/Jets/Team Data.xlsx
+++ b/Base/Teams/Jets/Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>3 5 -4 5 7 -2 6 5 2 3 8 4 0 2 6 2 5 7 0 5 1 -2 8 4 -2 3 13 2 2 4 5 0 4 3 1 12 2 5 -1 3 10 6 5 2 -1 2 2 9 7 2 2 6 2 3 2 8 5 3 4 11 -1 8 1 2 3 6 10 2 3 4 4 -2 -1 3 8 3 46 -2 5 0 6 2 3 4 2 2 5 1 4 2 4 4 6 1 8 13 2 9 4 0 2 4 11 2 1 9 3 7 4 4 0 7 13 3 0 6 5 2 1 13 -1 7 5 3 5 1 3 0 -2 5 -1 4 3 6 -2 12 1 8 34 1 14 8 -3 0 8 11 4 7 2 7 0 8 2 -3 20 -1 1 5 9 2 2 13 -1 2 3 7 6 4 0 3 9 3 5 2 2 3 1 6 4 2 5 0 5 6 0 8 5 2 5 4 3 2 3 3 2 15 3 7 1 2 3 3 3 1 0 5 14 2 8 5 1 -1 3 5 0 0 11 3 4 6 5 2 2 1 4 6 2 1 6 6 3 5 6 1 5 2 1 3 3 4 1 1 4 14 17 0 1 2 10 1 2 2 2 9 1 9 0 0 0 2 25 7 1 6 14 5 7 12 0 5 12 18 6 17 16 5 7 4 4 5 2 2 1 1 3 1 1 11 4 6 0 1 -2 2 2 3 2 2 12 -3 9 -5 3 3 3 2 5 3 2 4 0 4 2 5 9 0 4 2 6 -4 3 6 3 3 2 1 0 8 2 3 12 2 7 3 8 4 0 6 1 0 6 3 2 14 5 11 7 2 6 5 7 3 5 1 6 -2 -1 3 4 3 7 9 6 4 1 4 2 4 4 9 3 4 7 3 3 3 1 8 10 1 0 1 4 15 1 5 2 8 5 5 4 2 3 2 1 1 2 6 2 2 0 2 2 1 1 1 9 2 12 8 13 3 6 1 3 7 3 3 -1 17 5 1 4 4 6 10 -3 4 -2 10 17 3 0 0 4 4 14 11 2 4 1 4 2 2 2 13 8 5 4 2 -7 3 2 1 4 1 2 -2 9 6 2 5 -1 5 -2 -2 2 2 6 13 0 2 8 5 2 -3 5 3 -3 2 7 3 5 4 9 3 7 8 0 6 1 1 1 2 1 3 5 5 0 5 1 3 6 3 1 6 -3 19 4 3 0 6 8 6 2 5 9 -1 1 8 4 4 3 2 5 5 18 2 -1 1 4 2 7 1 4 5 -2 5 3 16 3 2 0 5 3 4 4 4 3 1 11 9 4 5 5 15 6 5 4 -4 5 -2 -2 5 8 5 13 0 0 0 5 1 -1 7 5 39 -1 5 4 15 1 1 4 2 5 0 2 5 3 4 1 1 19 2 2 -2 8 -1 6 12 2 2 3 1 8 6 11 5 4 1 9 4 2 24 13 2 0 2 5 -3 1 1 1 2 1 3 17 9 1 0 1 15 2 2 3 2 3 8 17 3 2 18 3 1 2 -1 7 2 1 1 14 3 7 2 8 5 6 8 11 1 2 2 3 1 5 3 5 7 4 1 -5 11 0 4 6 6 20 -2 2 1 8 3 3 52 1 6 3 14 3 3 1 4 5 0 14 9 4 12 -1 3 20 7 5 10 0 11 2 0 3 1 38 3 3 2 55 2 0 1 -1 14 2 1 4 12 1 9 0 -1 0 1 0 0 11 7 2 4 22 -1 5</t>
-  </si>
-  <si>
-    <t>0 9 13 30 4 4 21 5 -2 2 10 69 -5 2 9 7 6 7 1 8 18 9 9 7 3 8 8 5 5 11 1 18 1 13 5 0 27 2 4 8 5 30 5 21 3 4 11 16 19 8 9 28 6 16 3 9 5 -4 9 10 6 3 9 5 18 11 5 3 21 27 4 10 3 11 9 8 35 7 5 11 4 10 7 7 4 4 12 7 5 4 15 11 6 52 11 12 14 4 8 10 1 9 18 2 9 8 1 2 9 4 8 13 6 22 6 3 12 21 8 7 19 7 5 8 9 0 22 10 16 11 9 4 4 15 5 -2 1 27 13 5 15 8 1 5 -6 10 6 8 3 5 26 5 5 11 4 13 17 50 23 15 20 8 6 19 12 15 8 0 26 4 5 16 49 12 27 7 5 3 19 6 1 16 37 6 6 19 0 30 6 9 27 12 3 3 1 15 7 22 11 17 3 16 13 6 23 25 8 3 10 11 18 9 17 3 16 6 8 14 6 5 34 4 3 -2 9 12 5 8 6 5 18 4 7 5 2 0 10 11 21 22 4 14 5 16 24 2 6 13 17 9 9 43 11 5 12 7 25 30 14 5 2 5 0 11 8 10 0 20 6 4 15 6 11 18 15 12 21 53 10 9 2 5 11 12 9 8 8 7 35 10 14 10 8 -3 1 11 20 7 8 22 6 15 2 40 12 8 27 7 11 9 8 5 3 17 4 5 3 27 5 8 6 6 12 12 11 4 8 7 6 5 6 -5 14 5 3 22 7 4 10 23 4 13 13 9 -4 13 30 8 6 3 6 15 6 54 5 29 3 53 4 0 9 29 11 8 11 14 1 13 3 6 14 4 5 -6 7 23 27 8 15 11 6 10 20 12 13 7 -2 6 15 3 7 22 5 17 21 8 7 21 8 8 12 15 6 7 3 4 6 6 16 9 30 8 7 6 3 15 3 6 7 12 6 20 6 5 2 26 11 12 15 9 4 8 13 14 15 9 8 9 10 24 14 23 12 6 8 8 19 13 12 0 11 12 15 26 19 -5 18 26 7 19 20 10 19 -1 18 12 12 0 13 -3 14 12 5 22 12 10 14 6 8 4 11 4 6 7 3 3 2 9 10 4 21 18 14 28 19 14 12 11 11 6 9 -7 21 18 9 2 5 5 29 14 20 9 5 22 5 4 9 23 5 5 2 62 12 8 11 8 15 11 5 11 6 1 10 22 16 -3 46 3 7 -3 8 7 3 10 7 5 10 29 4 19 5 18 14 19 11 -2 15 4 14 7 11 8 3 2 22 16 11 9 1 6 6 27 3 17 14 14 8 13 16 2 14 19 4 11 6 23 1 9 24 10 4 19 2 4 4 6 4 22 2 7 12 5 9 9 13 5 9 12 5 9 24 11 24 19 2 23 11 21 14 4</t>
-  </si>
-  <si>
-    <t>-3 12 6 9 2 4 16 0 -2 2 -4 -1 4 8 7 -1 3 3 0 12 -2 6 0 1 3 1 2 80 -2 0 6 -2 -3 1 -2 7 0 -3 5 2 6 55 -4 -1 3 5 -2 5 16 0 1 1 2 1 2 2 11 3 12 1 4 3 1 1 3 4 16 0 1 0 6 10 1 2 0 3 3 22 0 3 3 5 15 5 -1 2 0 0 3 3 9 4 1 -1 6 1 19 2 4 2 -1 0 2 2 2 0 -3 3 -3 43 1 4 0 16 3 29 -1 4 10 3 3 1 2 8 2 3 0 -1 7 8 7 1 2 2 10 5 2 5 -2 15 11 11 5 1 9 1 1 4 5 2 7 2 -1 4 5 9 -1 3 4 1 4 5 7 14 17 12 5 -2 10 3 2 11 6 2 7 6 0 2 1 26 5 1 1 6 6 2 0 3 2 4 1 4 -3 4 3 4 3 3 8 1 2 0 11 -2 2 12 3 0 5 1 1 3 5 10 12 -1 1 3 11 2 5 5 3 7 4 6 1 3 7 2 2 7 6 1 -4 2 3 21 2 0 1 4 5 4 1 -3 0 2 9 -3 4 2 3 1 17 4 1 -3 2 3 5 8 -1 3 2 -4 4 -4 4 4 3 3 4 -2 12 2 5 -3 9 3 16 8 4 1 2 4 12 3 1 8 5 2 4 1 1 5 3 1 -3 14 3 3 6 3 4 1 3 2 2 3 2 3 0 2 4 3 4 9 10 19 4 6 15 18 1 -1 1 2 5 5 6 -4 4 -1 4 28 8 0 5 1 2 4 2 0 1 0 15 5 0 -2 -1 2 3 6 9 4 1 -2 3 11 0 5 40 4 3 2 7 6 22 -1 0 2 -1 0 1 4 -2 1 4 1 5 16 6 2 4 3 13 49 3 10 3 -1 0 -1 4 2 5 6 3 5 4 5 5 9 2 8 2 7 12 1 9 1 2 -1 7 8 4 1 7 2 3 1 5 8 4 3 2 2 9 0 14 3 -6 7 15 0 18 4 1 -1 9 2 5 2 7 7 2 4 2 26 9 16 1 -1 1 5 -2 12 3 -1 -5 7 3 8 4 11 0 1 14 2 2 0 13 4 13 1 10 0 -1 3 2 -3 10 4 7 2 -1 1 -2 1 0 -2 9 2 2 6 -1 7 4 0 2 2 2 4 16 1 7 2 0 4 3 5 2 3 1 2 11 2 3 18 9 11 22 1 2 2 7 5 5 1 0 -4 10 1 6 1 3 9 0 3 1 4 0 8 4 3 17 0 5 2 1 4 1 1 3 -2 3 6 3 12 5 9 2 32 6 1 3 10 10 0 13 3 0 -2 15 5 2 4 9 6 3 -2 1 6 -1 -2 0 1 -1 -1 -1 1 6 8 0 -4 6 7 4 9 4 5 -1 9 4 34 2 3 12 3 13 21 1 3 6 0 1 9 11 2 5 2 0 3 25 10 78 1 0 0 15 0 -4 4 0 4 11 7 13 24 8 15 0 1 7 6 3 9 2 14 3 -1 0 1 -3 5 0 4 1 2 7 3 2 20 9 9 0 -3 6 4 0 2 2 4 3 4 6 3 3 6 0 5 1 4 7 1 1 3 7 2 7 4 3 1 3 4 30 2 -5 2 5 0 7 -1 0 5 9 2 2 1 4 9 7 18 9 4 1 3 0 7 6 2 2 6 0 0 1 1 3 -1 3 5 -1 8 34 1 4 2 2 7 12 3 2 0 5 11 7 1 1 3 10 -1 2 4 7 1 3 6 0 8 9 2 16 5 1 0 -2 7 13 -2 2 2 -1 9 3 0 9 3 8 3 1 -1 2 -1 0 0 44 3 4 0 0 4 10 1 1 12 4 5 0 8 2 5 4 1 6 6 9 3 7 2 0 11 3 2 0 3 24 8 30 4 12 1 4 3 0 9 3 1 1 6 6 6 0 8 0 2 4 3 2 4 7 1 6 3 9 7 2 3 6 1 0 26 6 3 4 6 6 -1 7 5 4 -5 5 -2 5 -4 1 2 3 11 4 0 2</t>
-  </si>
-  <si>
-    <t>3 5 4 9 17 11 5 20 4 11 5 4 8 11 8 17 7 7 0 5 8 13 -1 14 10 11 11 4 22 2 15 4 18 8 4 11 10 4 18 18 8 9 5 10 4 10 15 5 1 24 13 2 1 10 20 9 1 45 25 12 14 11 11 3 6 12 17 5 12 4 13 4 1 21 6 -2 7 7 48 40 11 9 3 8 6 13 9 7 7 10 7 31 6 8 21 6 12 15 6 15 9 24 24 7 5 30 10 11 7 13 6 2 7 8 45 10 5 6 8 6 4 10 10 16 3 -3 3 43 4 7 30 15 18 4 7 2 7 6 12 23 13 15 3 9 5 12 8 9 14 8 5 12 8 3 17 6 6 6 11 8 9 38 5 6 8 18 4 13 9 15 18 30 5 13 2 36 7 4 15 23 -3 18 5 3 -4 14 9 25 14 16 8 6 8 19 26 16 5 41 10 7 0 9 5 8 33 11 4 5 5 6 13 15 -1 7 20 8 0 6 1 10 11 8 4 19 31 11 5 20 2 17 -6 18 1 4 6 13 18 8 3 14 3 9 39 54 9 2 21 10 5 5 22 9 4 10 10 9 13 9 11 3 5 2 4 1 -1 2 12 12 8 5 22 5 11 7 6 5 19 17 13 19 13 4 25 10 7 7 6 15 7 2 18 12 9 3 28 28 9 6 4 17 13 14 4 38 18 8 19 9 3 1 12 6 7 29 5 15 46 14 19 13 10 15 5 9 3 8 6 9 4 20 3 9 7 3 10 17 19 3 10 14 3 6 6 11 0 15 5 16 -1 3 17 6 44 5 15 9 3 16 2 13 6 4 6 5 28 7 5 6 13 14 8 7 4 8 9 10 4 12 7 15 22 9 11 8 17 3 8 4 24 8 9 17 7 13 6 13 18 7 10 12 10 6 10 12 2 7 10 12 2 19 26 11 31 11 13 -5 8 1 9 26 5 27 15 11 57 14 4 5 11 22 17 1 7 12 7 3 -2 7 5 5 2 7 -1 2 28 19 3 24 -1 10 10 3 11 8 9 32 3 -1 1 6 10 8 5 28 6 17 6 9 27 6 21 -3 9 7 24 14 4 31 27 5 11 14 16 4 7 10 0 12 7 10 9 1 23 9 14 18 9 15 12 11 6 6 2 20 -6 5 9 12 0 3 16 -2 14 18 22 16 2 13 5 22 17 5 17 6 10 6 12 0 13 17 6 7 5 12 9 2 39 4 15 5 7 28 25 3 24 5 4 19 3 15 28 9 11 4 8 4 1 9 20 4 26 3 22 8 46 22 29 28 6 3 13 0 3 9 16 4 26 2 46 9 21 8 54 8 10 11 6 21 10 19 9 8 6 13 13 9 20 12 1 10 2 17 3 12 11 12 27 31 2 28 19 7 11 17 15 4 7 7 12 3 6 8 6 6 16 57 12 23 31 49 25 8 36 20 43 3 26 1 19 7 5 8 13 3 4 7 7 6 9 1 8 65 15 8 0 8 1 7 6 5 7 6 6 8 20 13 1 20 40 10 11 5 4 -4 4 7 2 6 5 16 9 36 12 10 12 5 25 13 16 12 22 -2 2 28 9 7 7 2 1 19 4 2 15 13 6 8 6 18 19 6 21 7 26 5 5 1 9 37 15 12 4 27 20 20 7 1 17 9 11 1 1 4 12 9 9 8 17 10 11 1 7 5 10 25 19 11 13 22 18 17 8 7 6 6 4 1 4 9 15 7 4 31 21 3 2 21 14 6 24 14 9 8 20 14 1 8 32 9 21 3 12 8 3 6 6 27 10 33</t>
+    <t>3 5 -4 5 7 -2 6 5 2 3 8 4 0 2 6 2 5 7 0 5 1 -2 8 4 -2 3 13 2 2 4 5 0 4 3 1 12 2 5 -1 3 10 6 5 2 -1 2 2 9 7 2 2 6 2 3 2 8 5 3 4 11 -1 8 1 2 3 6 10 2 3 4 4 -2 -1 3 8 3 46 -2 5 0 6 2 3 4 2 2 5 1 4 2 4 4 6 1 8 13 2 9 4 0 2 4 11 2 1 9 3 7 4 4 0 7 13 3 0 6 5 2 1 13 -1 7 5 3 5 1 3 0 -2 5 -1 4 3 6 -2 12 1 8 34 1 14 8 -3 0 8 11 4 7 2 7 0 8 2 -3 20 -1 1 5 9 2 2 13 -1 2 3 7 6 4 0 3 9 3 5 2 2 3 1 6 4 2 5 0 5 6 0 8 5 2 5 4 3 2 3 3 2 15 3 7 1 2 3 3 3 1 0 5 14 2 8 5 1 -1 3 5 0 0 11 3 4 6 5 2 2 1 4 6 2 1 6 6 3 5 6 1 5 2 1 3 3 4 1 1 4 14 17 0 1 2 10 1 2 2 2 9 1 9 0 0 0 2 25 7 1 6 14 5 7 12 0 5 12 18 6 17 16 5 7 4 4 5 2 2 1 1 3 1 1 11 4 6 0 1 -2 2 2 3 2 2 12 -3 9 -5 3 3 3 2 5 3 2 4 0 4 2 5 9 0 4 2 6 -4 3 6 3 3 2 1 0 8 2 3 12 2 7 3 8 4 0 6 1 0 6 3 2 14 5 11 7 2 6 5 7 3 5 1 6 -2 -1 3 4 3 7 9 6 4 1 4 2 4 4 9 3 4 7 3 3 3 1 8 10 1 0 1 4 15 1 5 2 8 5 5 4 2 3 2 1 1 2 6 2 2 0 2 2 1 1 1 9 2 12 8 13 3 6 1 3 7 3 3 -1 17 5 1 4 4 6 10 -3 4 -2 10 17 3 0 0 4 4 14 11 2 4 1 4 2 2 2 13 8 5 4 2 -7 3 2 1 4 1 2 -2 9 6 2 5 -1 5 -2 -2 2 2 6 13 0 2 8 5 2 -3 5 3 -3 2 7 3 5 4 9 3 7 8 0 6 1 1 1 2 1 3 5 5 0 5 1 3 6 3 1 6 -3 19 4 3 0 6 8 6 2 5 9 -1 1 8 4 4 3 2 5 5 18 2 -1 1 4 2 7 1 4 5 -2 5 3 16 3 2 0 5 3 4 4 4 3 1 11 9 4 5 5 15 6 5 4 -4 5 -2 -2 5 8 5 13 0 0 0 5 1 -1 7 5 39 -1 5 4 15 1 1 4 2 5 0 2 5 3 4 1 1 19 2 2 -2 8 -1 6 12 2 2 3 1 8 6 11 5 4 1 9 4 2 24 13 2 0 2 5 -3 1 1 1 2 1 3 17 9 1 0 1 15 2 2 3 2 3 8 17 3 2 18 3 1 2 -1 7 2 1 1 14 3 7 2 8 5 6 8 11 1 2 2 3 1 5 3 5 7 4 1 -5 11 0 4 6 6 20 -2 2 1 8 3 3 52 1 6 3 14 3 3 1 4 5 0 14 9 4 12 -1 3 20 7 5 10 0 11 2 0 3 1 38 3 3 2 55 2 0 1 -1 14 2 1 4 12 1 9 0 -1 0 1 0 0 11 7 2 4 22 -1 5 -1 10 0 4 2 0 1 4 -1 20 2 5 -2 1 3 1 -1</t>
+  </si>
+  <si>
+    <t>0 9 13 30 4 4 21 5 -2 2 10 69 -5 2 9 7 6 7 1 8 18 9 9 7 3 8 8 5 5 11 1 18 1 13 5 0 27 2 4 8 5 30 5 21 3 4 11 16 19 8 9 28 6 16 3 9 5 -4 9 10 6 3 9 5 18 11 5 3 21 27 4 10 3 11 9 8 35 7 5 11 4 10 7 7 4 4 12 7 5 4 15 11 6 52 11 12 14 4 8 10 1 9 18 2 9 8 1 2 9 4 8 13 6 22 6 3 12 21 8 7 19 7 5 8 9 0 22 10 16 11 9 4 4 15 5 -2 1 27 13 5 15 8 1 5 -6 10 6 8 3 5 26 5 5 11 4 13 17 50 23 15 20 8 6 19 12 15 8 0 26 4 5 16 49 12 27 7 5 3 19 6 1 16 37 6 6 19 0 30 6 9 27 12 3 3 1 15 7 22 11 17 3 16 13 6 23 25 8 3 10 11 18 9 17 3 16 6 8 14 6 5 34 4 3 -2 9 12 5 8 6 5 18 4 7 5 2 0 10 11 21 22 4 14 5 16 24 2 6 13 17 9 9 43 11 5 12 7 25 30 14 5 2 5 0 11 8 10 0 20 6 4 15 6 11 18 15 12 21 53 10 9 2 5 11 12 9 8 8 7 35 10 14 10 8 -3 1 11 20 7 8 22 6 15 2 40 12 8 27 7 11 9 8 5 3 17 4 5 3 27 5 8 6 6 12 12 11 4 8 7 6 5 6 -5 14 5 3 22 7 4 10 23 4 13 13 9 -4 13 30 8 6 3 6 15 6 54 5 29 3 53 4 0 9 29 11 8 11 14 1 13 3 6 14 4 5 -6 7 23 27 8 15 11 6 10 20 12 13 7 -2 6 15 3 7 22 5 17 21 8 7 21 8 8 12 15 6 7 3 4 6 6 16 9 30 8 7 6 3 15 3 6 7 12 6 20 6 5 2 26 11 12 15 9 4 8 13 14 15 9 8 9 10 24 14 23 12 6 8 8 19 13 12 0 11 12 15 26 19 -5 18 26 7 19 20 10 19 -1 18 12 12 0 13 -3 14 12 5 22 12 10 14 6 8 4 11 4 6 7 3 3 2 9 10 4 21 18 14 28 19 14 12 11 11 6 9 -7 21 18 9 2 5 5 29 14 20 9 5 22 5 4 9 23 5 5 2 62 12 8 11 8 15 11 5 11 6 1 10 22 16 -3 46 3 7 -3 8 7 3 10 7 5 10 29 4 19 5 18 14 19 11 -2 15 4 14 7 11 8 3 2 22 16 11 9 1 6 6 27 3 17 14 14 8 13 16 2 14 19 4 11 6 23 1 9 24 10 4 19 2 4 4 6 4 22 2 7 12 5 9 9 13 5 9 12 5 9 24 11 24 19 2 23 11 21 14 4 16 9 5 5 2 10</t>
+  </si>
+  <si>
+    <t>-3 12 6 9 2 4 16 0 -2 2 -4 -1 4 8 7 -1 3 3 0 12 -2 6 0 1 3 1 2 80 -2 0 6 -2 -3 1 -2 7 0 -3 5 2 6 55 -4 -1 3 5 -2 5 16 0 1 1 2 1 2 2 11 3 12 1 4 3 1 1 3 4 16 0 1 0 6 10 1 2 0 3 3 22 0 3 3 5 15 5 -1 2 0 0 3 3 9 4 1 -1 6 1 19 2 4 2 -1 0 2 2 2 0 -3 3 -3 43 1 4 0 16 3 29 -1 4 10 3 3 1 2 8 2 3 0 -1 7 8 7 1 2 2 10 5 2 5 -2 15 11 11 5 1 9 1 1 4 5 2 7 2 -1 4 5 9 -1 3 4 1 4 5 7 14 17 12 5 -2 10 3 2 11 6 2 7 6 0 2 1 26 5 1 1 6 6 2 0 3 2 4 1 4 -3 4 3 4 3 3 8 1 2 0 11 -2 2 12 3 0 5 1 1 3 5 10 12 -1 1 3 11 2 5 5 3 7 4 6 1 3 7 2 2 7 6 1 -4 2 3 21 2 0 1 4 5 4 1 -3 0 2 9 -3 4 2 3 1 17 4 1 -3 2 3 5 8 -1 3 2 -4 4 -4 4 4 3 3 4 -2 12 2 5 -3 9 3 16 8 4 1 2 4 12 3 1 8 5 2 4 1 1 5 3 1 -3 14 3 3 6 3 4 1 3 2 2 3 2 3 0 2 4 3 4 9 10 19 4 6 15 18 1 -1 1 2 5 5 6 -4 4 -1 4 28 8 0 5 1 2 4 2 0 1 0 15 5 0 -2 -1 2 3 6 9 4 1 -2 3 11 0 5 40 4 3 2 7 6 22 -1 0 2 -1 0 1 4 -2 1 4 1 5 16 6 2 4 3 13 49 3 10 3 -1 0 -1 4 2 5 6 3 5 4 5 5 9 2 8 2 7 12 1 9 1 2 -1 7 8 4 1 7 2 3 1 5 8 4 3 2 2 9 0 14 3 -6 7 15 0 18 4 1 -1 9 2 5 2 7 7 2 4 2 26 9 16 1 -1 1 5 -2 12 3 -1 -5 7 3 8 4 11 0 1 14 2 2 0 13 4 13 1 10 0 -1 3 2 -3 10 4 7 2 -1 1 -2 1 0 -2 9 2 2 6 -1 7 4 0 2 2 2 4 16 1 7 2 0 4 3 5 2 3 1 2 11 2 3 18 9 11 22 1 2 2 7 5 5 1 0 -4 10 1 6 1 3 9 0 3 1 4 0 8 4 3 17 0 5 2 1 4 1 1 3 -2 3 6 3 12 5 9 2 32 6 1 3 10 10 0 13 3 0 -2 15 5 2 4 9 6 3 -2 1 6 -1 -2 0 1 -1 -1 -1 1 6 8 0 -4 6 7 4 9 4 5 -1 9 4 34 2 3 12 3 13 21 1 3 6 0 1 9 11 2 5 2 0 3 25 10 78 1 0 0 15 0 -4 4 0 4 11 7 13 24 8 15 0 1 7 6 3 9 2 14 3 -1 0 1 -3 5 0 4 1 2 7 3 2 20 9 9 0 -3 6 4 0 2 2 4 3 4 6 3 3 6 0 5 1 4 7 1 1 3 7 2 7 4 3 1 3 4 30 2 -5 2 5 0 7 -1 0 5 9 2 2 1 4 9 7 18 9 4 1 3 0 7 6 2 2 6 0 0 1 1 3 -1 3 5 -1 8 34 1 4 2 2 7 12 3 2 0 5 11 7 1 1 3 10 -1 2 4 7 1 3 6 0 8 9 2 16 5 1 0 -2 7 13 -2 2 2 -1 9 3 0 9 3 8 3 1 -1 2 -1 0 0 44 3 4 0 0 4 10 1 1 12 4 5 0 8 2 5 4 1 6 6 9 3 7 2 0 11 3 2 0 3 24 8 30 4 12 1 4 3 0 9 3 1 1 6 6 6 0 8 0 2 4 3 2 4 7 1 6 3 9 7 2 3 6 1 0 26 6 3 4 6 6 -1 7 5 4 -5 5 -2 5 -4 1 2 3 11 4 0 2 2 40 0 0 -2 5 5 6 0 3 1 1 6 0 8 15 7 6 2 11 2 32 2 2 1 1 12 6 -2 -2</t>
+  </si>
+  <si>
+    <t>3 5 4 9 17 11 5 20 4 11 5 4 8 11 8 17 7 7 0 5 8 13 -1 14 10 11 11 4 22 2 15 4 18 8 4 11 10 4 18 18 8 9 5 10 4 10 15 5 1 24 13 2 1 10 20 9 1 45 25 12 14 11 11 3 6 12 17 5 12 4 13 4 1 21 6 -2 7 7 48 40 11 9 3 8 6 13 9 7 7 10 7 31 6 8 21 6 12 15 6 15 9 24 24 7 5 30 10 11 7 13 6 2 7 8 45 10 5 6 8 6 4 10 10 16 3 -3 3 43 4 7 30 15 18 4 7 2 7 6 12 23 13 15 3 9 5 12 8 9 14 8 5 12 8 3 17 6 6 6 11 8 9 38 5 6 8 18 4 13 9 15 18 30 5 13 2 36 7 4 15 23 -3 18 5 3 -4 14 9 25 14 16 8 6 8 19 26 16 5 41 10 7 0 9 5 8 33 11 4 5 5 6 13 15 -1 7 20 8 0 6 1 10 11 8 4 19 31 11 5 20 2 17 -6 18 1 4 6 13 18 8 3 14 3 9 39 54 9 2 21 10 5 5 22 9 4 10 10 9 13 9 11 3 5 2 4 1 -1 2 12 12 8 5 22 5 11 7 6 5 19 17 13 19 13 4 25 10 7 7 6 15 7 2 18 12 9 3 28 28 9 6 4 17 13 14 4 38 18 8 19 9 3 1 12 6 7 29 5 15 46 14 19 13 10 15 5 9 3 8 6 9 4 20 3 9 7 3 10 17 19 3 10 14 3 6 6 11 0 15 5 16 -1 3 17 6 44 5 15 9 3 16 2 13 6 4 6 5 28 7 5 6 13 14 8 7 4 8 9 10 4 12 7 15 22 9 11 8 17 3 8 4 24 8 9 17 7 13 6 13 18 7 10 12 10 6 10 12 2 7 10 12 2 19 26 11 31 11 13 -5 8 1 9 26 5 27 15 11 57 14 4 5 11 22 17 1 7 12 7 3 -2 7 5 5 2 7 -1 2 28 19 3 24 -1 10 10 3 11 8 9 32 3 -1 1 6 10 8 5 28 6 17 6 9 27 6 21 -3 9 7 24 14 4 31 27 5 11 14 16 4 7 10 0 12 7 10 9 1 23 9 14 18 9 15 12 11 6 6 2 20 -6 5 9 12 0 3 16 -2 14 18 22 16 2 13 5 22 17 5 17 6 10 6 12 0 13 17 6 7 5 12 9 2 39 4 15 5 7 28 25 3 24 5 4 19 3 15 28 9 11 4 8 4 1 9 20 4 26 3 22 8 46 22 29 28 6 3 13 0 3 9 16 4 26 2 46 9 21 8 54 8 10 11 6 21 10 19 9 8 6 13 13 9 20 12 1 10 2 17 3 12 11 12 27 31 2 28 19 7 11 17 15 4 7 7 12 3 6 8 6 6 16 57 12 23 31 49 25 8 36 20 43 3 26 1 19 7 5 8 13 3 4 7 7 6 9 1 8 65 15 8 0 8 1 7 6 5 7 6 6 8 20 13 1 20 40 10 11 5 4 -4 4 7 2 6 5 16 9 36 12 10 12 5 25 13 16 12 22 -2 2 28 9 7 7 2 1 19 4 2 15 13 6 8 6 18 19 6 21 7 26 5 5 1 9 37 15 12 4 27 20 20 7 1 17 9 11 1 1 4 12 9 9 8 17 10 11 1 7 5 10 25 19 11 13 22 18 17 8 7 6 6 4 1 4 9 15 7 4 31 21 3 2 21 14 6 24 14 9 8 20 14 1 8 32 9 21 3 12 8 3 6 6 27 10 33 17 6 10 10 19 11 6 2 5 3 9 13 17 3 12 14 8 3 28 9 4 27 -2 5 15</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -167,16 +167,16 @@
     <t>31 16 29 26 7 8 22 31 23 22 58 23 26 29 24 21 24 31 17 32 24 24 31 27 21 0 18 21 16 21 21 18 29 16 31 26 18 25 18 3 15 16 22 28 21 5 13 23 7</t>
   </si>
   <si>
-    <t>26 16 27 17 32 19 9 40 18 8 13 20 21 25 17 20 25 15 28 17 28 6 15 35 25 33 0 18 66 11 20 24 21 19 20 22 16 0 38 18 21 23 30 24 26 16 15 27 65 27 22 23 25 19 25 35 24 27 25 33 18 29 33 29 20 20 31 29 79 28 32 30 23 21 23 42 20 2 34 31 29 19 26 27 13 25 28</t>
-  </si>
-  <si>
-    <t>58 45 43 47 48 37 52 44 41 39 46 45 38 40 42 45 51 53 42 54 54 42 33 37 50 54 40 41 54 39 48 52 49 35 47 39 36 46 48 37 60 44 38 34 49 42 50 25 47 48 38 52 46 44 58 46 42 47 47 42 32 36 42 45 44 42 54 57 50 38 37 44 14 49 40 38 36 32 52 41 26 56 50 65 40 37 57 42 45 50 49 37 45 48 51 49 56 40 52 40 40 59 56 36 54 49 51 45 51 57 48 44 46 45 38 43 33 38 43 44 29 40 33 52 51 60 47 49 54 48 52 50 29 37 63 55 38 32 46 38</t>
-  </si>
-  <si>
-    <t>16 10 2 23 19 0 0 0 0 0 0 12 0 0 0 14 0 10 41 5 0 3 0 0 16 1 0 0 30 0 14 15 7 0 19 7 0 15 0 0 0 36 0 0 0 5 0 0 0 0 0 12 7 0 0 12 0 11 0 14 0 0 0 0 0 0 12 19 34 10 0 0 0 0 3 0 0 17 8 12 0 4 9 0 0 0 12 15 0 0 0 0 5 0 11 16 22 0 0 0 6 0 15 0 4 17 13 0 0 10 0 0 26 0 0 0 0 0 0 7 0 0 0 11 12 13 0 0 18 0 0 0 0 0 5 4 0 0 3 0</t>
-  </si>
-  <si>
-    <t>0 0 0 0 0 0 0 0 0 11 0 0 0 9 0 0 0 0 0 0 0 0 0 0 14 0 16 0 0 0 0 0 0 0 11 0 18 0 0 0 9 0 0 0 12 0 0 0 0 0 0 0 0 0 15 0 0 0 0 6 0 0 0 0 0 0 0 14 0 18 0 0 0 0 0 0 0 16 0 0 8 0 9 0 19 0 0 17 0 0 0 0 0 28 5 0 11 0 11 12 12 0 0 0</t>
+    <t>26 16 27 17 32 19 9 40 18 8 13 20 21 25 17 20 25 15 28 17 28 6 15 35 25 33 0 18 66 11 20 24 21 19 20 22 16 0 38 18 21 23 30 24 26 16 15 27 65 27 22 23 25 19 25 35 24 27 25 33 18 29 33 29 20 20 31 29 79 28 32 30 23 21 23 42 20 2 34 31 29 19 26 27 13 25 28 7</t>
+  </si>
+  <si>
+    <t>58 45 43 47 48 37 52 44 41 39 46 45 38 40 42 45 51 53 42 54 54 42 33 37 50 54 40 41 54 39 48 52 49 35 47 39 36 46 48 37 60 44 38 34 49 42 50 25 47 48 38 52 46 44 58 46 42 47 47 42 32 36 42 45 44 42 54 57 50 38 37 44 14 49 40 38 36 32 52 41 26 56 50 65 40 37 57 42 45 50 49 37 45 48 51 49 56 40 52 40 40 59 56 36 54 49 51 45 51 57 48 44 46 45 38 43 33 38 43 44 29 40 33 52 51 60 47 49 54 48 52 50 29 37 63 55 38 32 46 38 59 52 48 54 57 60 53 28 41</t>
+  </si>
+  <si>
+    <t>16 10 2 23 19 0 0 0 0 0 0 12 0 0 0 14 0 10 41 5 0 3 0 0 16 1 0 0 30 0 14 15 7 0 19 7 0 15 0 0 0 36 0 0 0 5 0 0 0 0 0 12 7 0 0 12 0 11 0 14 0 0 0 0 0 0 12 19 34 10 0 0 0 0 3 0 0 17 8 12 0 4 9 0 0 0 12 15 0 0 0 0 5 0 11 16 22 0 0 0 6 0 15 0 4 17 13 0 0 10 0 0 26 0 0 0 0 0 0 7 0 0 0 11 12 13 0 0 18 0 0 0 0 0 5 4 0 0 3 0 0 5 3 17 0 0 9 0 0</t>
+  </si>
+  <si>
+    <t>0 0 0 0 0 0 0 0 0 11 0 0 0 9 0 0 0 0 0 0 0 0 0 0 14 0 16 0 0 0 0 0 0 0 11 0 18 0 0 0 9 0 0 0 12 0 0 0 0 0 0 0 0 0 15 0 0 0 0 6 0 0 0 0 0 0 0 14 0 18 0 0 0 0 0 0 0 16 0 0 8 0 9 0 19 0 0 17 0 0 0 0 0 28 5 0 11 0 11 12 12 0 0 0 0 0 0 0 0 3 7 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,25 +668,25 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D2">
         <v>19</v>
       </c>
       <c r="E2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H2">
         <v>10</v>
       </c>
       <c r="I2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J2">
         <v>46</v>
@@ -701,13 +701,13 @@
         <v>340</v>
       </c>
       <c r="N2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="O2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q2">
         <v>1044</v>
@@ -718,40 +718,40 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="E3">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F3">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="G3">
         <v>65</v>
       </c>
       <c r="H3">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I3">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="J3">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>504</v>
+        <v>524</v>
       </c>
       <c r="M3">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="N3">
         <v>43</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>883</v>
+        <v>932</v>
       </c>
     </row>
   </sheetData>
@@ -943,19 +943,19 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>450</v>
+        <v>468</v>
       </c>
       <c r="D2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H2">
         <v>12</v>
@@ -964,7 +964,7 @@
         <v>9</v>
       </c>
       <c r="J2">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -979,7 +979,7 @@
         <v>26</v>
       </c>
       <c r="O2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P2">
         <v>19</v>
@@ -993,40 +993,40 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="D3">
         <v>11</v>
       </c>
       <c r="E3">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F3">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="G3">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H3">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I3">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="J3">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>519</v>
+        <v>565</v>
       </c>
       <c r="M3">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="N3">
         <v>39</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>966</v>
+        <v>1045</v>
       </c>
     </row>
   </sheetData>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H2">
         <v>11</v>
@@ -1245,10 +1245,10 @@
         <v>15</v>
       </c>
       <c r="L2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N2">
         <v>4</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1368,10 +1368,10 @@
         <v>7</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E3">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1403,7 +1403,7 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
@@ -1417,7 +1417,7 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>
@@ -1437,7 +1437,7 @@
         <v>58</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4">
